--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -448,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16244429.0794966</v>
+        <v>16802497.2828928</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>18970.25844705287</v>
+        <v>19621.67939721757</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>19225.37280788706</v>
+        <v>19885.25702183091</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>19483.80585405998</v>
+        <v>20152.25756983685</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>19745.59323842311</v>
+        <v>20422.71759293299</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>20010.77048403855</v>
+        <v>20696.67349355392</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>20279.37294989476</v>
+        <v>20974.16148869962</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>20551.43579527957</v>
+        <v>21255.21757228253</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>20826.99394290603</v>
+        <v>21539.87747620256</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>21106.08204047625</v>
+        <v>21828.17662976316</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>21388.73442112414</v>
+        <v>22120.15011789853</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>21674.98506258583</v>
+        <v>22415.832638083</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>21964.86754506319</v>
+        <v>22715.25845585687</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>22258.41500813177</v>
+        <v>23018.46135930077</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>22555.66010638159</v>
+        <v>23325.47461228468</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>22856.63496433495</v>
+        <v>23636.3309068078</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>23161.37113027465</v>
+        <v>23951.06231433564</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>23469.89952943941</v>
+        <v>24269.70023635495</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>23782.25041657879</v>
+        <v>24592.27535432873</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24098.45332789794</v>
+        <v>24918.81757895664</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24418.53703279066</v>
+        <v>25249.35599925891</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24742.52948524894</v>
+        <v>25583.91883126881</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>25070.45777527137</v>
+        <v>25922.53336676082</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>25402.34808051617</v>
+        <v>26265.22592220105</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>25738.22561815159</v>
+        <v>26612.02178794531</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>26078.11459740244</v>
+        <v>26962.94517810515</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>26422.0381728379</v>
+        <v>27318.01918126737</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>26770.01839865704</v>
+        <v>27677.26571217807</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>27122.07618436272</v>
+        <v>28040.70546495346</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>27478.23125184504</v>
+        <v>28408.35786774282</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>27838.50209442581</v>
+        <v>28780.24103941283</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>28202.90593794589</v>
+        <v>29156.3717484686</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>28571.45870431273</v>
+        <v>29536.76537445265</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>28944.17497779971</v>
+        <v>29921.43587232049</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>29321.06797439025</v>
+        <v>30310.39573996485</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>29702.1495146099</v>
+        <v>30703.65598941907</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>30087.42999998546</v>
+        <v>31101.22612186814</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>30476.91839378858</v>
+        <v>31503.11410717063</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>30870.62220615622</v>
+        <v>31909.32636798038</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>31268.54748414648</v>
+        <v>32319.86776902799</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>31670.69880691622</v>
+        <v>32734.74161181086</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>32077.07928672844</v>
+        <v>33153.94963541765</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>32487.69057575523</v>
+        <v>33577.49202339039</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>32902.53287944048</v>
+        <v>34005.36741755998</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>33321.60497657748</v>
+        <v>34437.57293887092</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>33744.9042465464</v>
+        <v>34874.10421574048</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>34172.42670421004</v>
+        <v>35314.95542052158</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>34604.1670426468</v>
+        <v>35760.11931413141</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>35040.11868420577</v>
+        <v>36209.58729945211</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>35480.27384030887</v>
+        <v>36663.34948395143</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>35924.62358018335</v>
+        <v>37121.39475164621</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>36373.15790900382</v>
+        <v>37583.71084498551</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>36825.8658556156</v>
+        <v>38050.28445679678</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>37282.73557042973</v>
+        <v>38521.10133289495</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>37743.75443332124</v>
+        <v>38996.14638526394</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>38208.90917217833</v>
+        <v>39475.40381636835</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>38678.18599226616</v>
+        <v>39958.85725488194</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>39151.57071631299</v>
+        <v>40446.48990264239</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>39629.04893589585</v>
+        <v>40938.28469352298</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>40110.60617401269</v>
+        <v>41434.22446403599</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>40596.2280590381</v>
+        <v>41934.29213589538</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>41085.90050998729</v>
+        <v>42438.47091050452</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>41579.60993349074</v>
+        <v>42946.74447567506</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>42077.3434318147</v>
+        <v>43459.09722406232</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>42579.08902267248</v>
+        <v>43975.51448388317</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>43084.83586996035</v>
+        <v>44495.98276118575</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>43594.57452575857</v>
+        <v>45020.48999394909</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>44108.29718324049</v>
+        <v>45549.02581760996</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>44625.99794021761</v>
+        <v>46081.58184181431</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>45147.67307290298</v>
+        <v>46618.15193787741</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>45673.32131986409</v>
+        <v>47158.73253695584</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>46202.94417531125</v>
+        <v>47703.32293804851</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>46736.5461916065</v>
+        <v>48251.92562565688</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>47274.13529025252</v>
+        <v>48804.54659638665</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>47815.72308087732</v>
+        <v>49361.19569391113</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>48361.32518745234</v>
+        <v>49921.88695159813</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>48910.96158125896</v>
+        <v>50486.63894214295</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>49464.65691953362</v>
+        <v>51055.47513325002</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>50022.44088930747</v>
+        <v>51628.424248694</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>50584.3485553092</v>
+        <v>52205.52063371966</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>51150.42071115774</v>
+        <v>52786.80462383133</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>51720.70423281738</v>
+        <v>53372.32291600018</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>52295.25243335636</v>
+        <v>53962.12894119196</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>52874.12541778236</v>
+        <v>54556.2832370472</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>53457.39043716475</v>
+        <v>55154.85381968648</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>54045.12224034762</v>
+        <v>55757.91655310483</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>54637.40342273974</v>
+        <v>56365.55551538182</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>55234.32477048768</v>
+        <v>56977.86336009395</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>55835.98559876166</v>
+        <v>57594.94167151286</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>56442.49408323516</v>
+        <v>58216.90131262297</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>57053.9675831823</v>
+        <v>58843.86276434401</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>57670.53295482304</v>
+        <v>59475.95645447877</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>58292.32685382003</v>
+        <v>60113.32307526308</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>58919.49602549501</v>
+        <v>60756.11388796492</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>59552.19758126857</v>
+        <v>61404.49101301821</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>60190.59926026753</v>
+        <v>62058.62770456389</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>60834.87967458076</v>
+        <v>62718.70860775191</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>61485.22853699698</v>
+        <v>63384.92999763682</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>62141.84686981617</v>
+        <v>64057.49999818688</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>62804.94719351386</v>
+        <v>64736.63878007149</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>63474.7536942709</v>
+        <v>65422.57873621768</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>64151.50236885458</v>
+        <v>66115.56463356479</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>64835.44114585191</v>
+        <v>66815.8537399465</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>65526.8299824623</v>
+        <v>67523.71592524262</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>66225.94093537398</v>
+        <v>68239.43373528004</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>66933.0582052083</v>
+        <v>68963.30243795936</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>67648.47815336235</v>
+        <v>69695.63004030845</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>68372.50929068995</v>
+        <v>70436.73727594291</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>69105.47223724736</v>
+        <v>71186.95756209154</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>69847.69965239945</v>
+        <v>71946.63692541939</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>70599.5361349913</v>
+        <v>72716.13389641384</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>71361.33809290791</v>
+        <v>73495.81937150545</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>72133.4735820004</v>
+        <v>74286.07644304176</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>72916.32211397871</v>
+        <v>75087.30019654796</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>73710.27443324093</v>
+        <v>75899.89747537021</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>74515.73226273408</v>
+        <v>76724.28661269876</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>75333.10801898746</v>
+        <v>77560.8971311897</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>76162.82449646594</v>
+        <v>78410.16941029891</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>77005.31452183654</v>
+        <v>79272.55432197552</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>77861.02057854232</v>
+        <v>80148.51283510927</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>78730.3944023915</v>
+        <v>81038.51558948174</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>79613.89654888299</v>
+        <v>81943.0424399959</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>80511.99593322791</v>
+        <v>82862.58197215194</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>81425.1693440207</v>
+        <v>83797.63098983263</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>82353.90093183734</v>
+        <v>84748.69397665709</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>83298.68167380404</v>
+        <v>85716.28253208697</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>84260.0088157921</v>
+        <v>86700.91478396293</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>85238.38529343923</v>
+        <v>87703.11477876423</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>86234.31913398133</v>
+        <v>88723.41185163234</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>87248.3228400661</v>
+        <v>89762.3399774853</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>88280.91275799256</v>
+        <v>90820.43710565443</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>89332.60843183188</v>
+        <v>91898.24447970329</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>90403.93194543257</v>
+        <v>92996.30594443659</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>91495.40725486045</v>
+        <v>94115.16724284191</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>92607.55951262018</v>
+        <v>95255.37530434539</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>93740.91438673614</v>
+        <v>96417.47752762224</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>94895.9973763694</v>
+        <v>97602.02105973393</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>96073.33312644371</v>
+        <v>98809.55207418367</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>97273.4447438583</v>
+        <v>100040.6150505815</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>98496.85311741848</v>
+        <v>101295.752058199</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>99744.07624395969</v>
+        <v>102575.5020459743</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>101015.6285633526</v>
+        <v>103880.4001418072</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>102312.0203043749</v>
+        <v>105210.9769632366</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>103633.7568444165</v>
+        <v>106567.7579426011</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>104981.3380848745</v>
+        <v>107951.2626686562</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>106355.2578452525</v>
+        <v>109362.0042477871</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>107756.003277675</v>
+        <v>110800.4886866307</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>109184.0543046765</v>
+        <v>112267.2142991194</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>110639.883082314</v>
+        <v>113762.6711400692</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>112123.9534905671</v>
+        <v>115287.3404674011</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>113636.720653718</v>
+        <v>116841.6942358171</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>115178.6304920971</v>
+        <v>118426.1946233868</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>116750.1193077713</v>
+        <v>120041.2935937319</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>118351.6134055405</v>
+        <v>121687.4324952681</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>119983.5287512029</v>
+        <v>123365.0416995604</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>121646.2706689671</v>
+        <v>125074.5402807356</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>123340.233578917</v>
+        <v>126816.3357369383</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>125065.8007766818</v>
+        <v>128590.8237560582</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>126823.3442559451</v>
+        <v>130398.3880264211</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>128613.2245753223</v>
+        <v>132239.4000940197</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>130435.7907704335</v>
+        <v>134114.2192671781</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>132291.380312042</v>
+        <v>136023.1925695278</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>134180.3191110849</v>
+        <v>137966.6547422062</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>136102.9215708454</v>
+        <v>139944.9282954816</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>138059.4906870632</v>
+        <v>141958.3236106916</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>140050.3181960631</v>
+        <v>144007.1390925339</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>142075.6847708716</v>
+        <v>146091.661371692</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>144135.8602654709</v>
+        <v>148212.1655579604</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>146231.104007031</v>
+        <v>150368.9155436546</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>148361.6651355528</v>
+        <v>152562.1643567709</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>150527.782990642</v>
+        <v>154792.1545635253</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>152729.6875447352</v>
+        <v>157059.1187196165</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>154967.5998820016</v>
+        <v>159363.2798693372</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>157241.7327219863</v>
+        <v>161704.8520915983</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>159552.2909870591</v>
+        <v>164084.041091829</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>161899.4724125282</v>
+        <v>166501.0448385853</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>164283.4681980322</v>
+        <v>168956.0542433836</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>166704.4636990338</v>
+        <v>171449.2538825148</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>169162.6391567276</v>
+        <v>173980.8227590853</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>171658.1704650393</v>
+        <v>176550.935103851</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>174191.2299729219</v>
+        <v>179159.7612129785</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>176761.9873202404</v>
+        <v>181807.4683209204</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>179370.6103053835</v>
+        <v>184494.2215064494</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>182017.2657830377</v>
+        <v>187220.1846301906</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>184702.1205898286</v>
+        <v>189985.5213012346</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>187425.3424960927</v>
+        <v>192790.3958710098</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>190187.1011819248</v>
+        <v>195634.9744524343</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>192987.5692350527</v>
+        <v>198519.4259617987</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>195826.923169145</v>
+        <v>201443.923181871</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>198705.3444599493</v>
+        <v>204408.6438435174</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>201623.0205974538</v>
+        <v>207413.7717238929</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>204580.1461524014</v>
+        <v>210459.4977594757</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>207576.9238544444</v>
+        <v>213546.0211710639</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>210613.5656805758</v>
+        <v>216673.5505992911</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>213690.2939517607</v>
+        <v>219842.3052484928</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>216807.3424357233</v>
+        <v>223052.5160367413</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>219964.9574541864</v>
+        <v>226304.4267502658</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>223163.3989928506</v>
+        <v>229598.2952004446</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>226402.9418121767</v>
+        <v>232934.3943813346</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>229683.8765576087</v>
+        <v>236313.0136262754</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>233006.510867525</v>
+        <v>239734.4597617922</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>236371.1704772912</v>
+        <v>243199.0582570507</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>239778.2003127655</v>
+        <v>246707.1543618928</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>243227.9655932538</v>
+        <v>250259.1142544354</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>246720.8529113446</v>
+        <v>253855.3261640274</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>250257.2713091479</v>
+        <v>257496.2014900435</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>253837.6533443726</v>
+        <v>261182.1759096256</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>257462.4561457681</v>
+        <v>264913.7104738741</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>261132.162456857</v>
+        <v>268691.2926913289</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>264847.2816673083</v>
+        <v>272515.4375980745</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>268608.3508313646</v>
+        <v>276386.6888138328</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>272415.9356725187</v>
+        <v>280305.619583201</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>276270.6315742058</v>
+        <v>284272.8338017723</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>280173.0645562356</v>
+        <v>288288.9670268589</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>284123.8922362725</v>
+        <v>292354.6874720669</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>288123.8047765472</v>
+        <v>296470.6969859411</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>292173.5258155651</v>
+        <v>300637.7320143896</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>296273.8133846031</v>
+        <v>304856.5645467078</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>300425.4608091886</v>
+        <v>309128.0030453753</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>304629.2975959764</v>
+        <v>313452.8933600647</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>308886.1903039414</v>
+        <v>317832.1196247479</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>313197.0434019309</v>
+        <v>322266.605140008</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>317562.8001109446</v>
+        <v>326757.3132388855</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>321984.4432331015</v>
+        <v>331305.2481382798</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>326462.995965693</v>
+        <v>335911.4557742768</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>330999.522702971</v>
+        <v>340577.0246241222</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>335595.1298236537</v>
+        <v>345303.086512803</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>340250.9664661371</v>
+        <v>350090.8174062711</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>344968.2252908654</v>
+        <v>354941.4381907854</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>349748.1432308538</v>
+        <v>359856.2154393873</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>354592.0022295783</v>
+        <v>364836.462164746</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>359501.1299675832</v>
+        <v>369883.5385597586</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>364476.9005776051</v>
+        <v>374998.8527257303</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>369520.7353477853</v>
+        <v>380183.8613877108</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>374634.103414051</v>
+        <v>385440.070598122</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>379818.5224408444</v>
+        <v>390769.0364278476</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>385075.5592903795</v>
+        <v>396172.3656450017</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>390406.8306804257</v>
+        <v>401651.7163813831</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>395814.0038300719</v>
+        <v>407208.7987860936</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>401298.7970928297</v>
+        <v>412845.3756656608</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>406862.9805773322</v>
+        <v>418563.2631109775</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>412508.3767540812</v>
+        <v>424364.3311094647</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>418236.8610476118</v>
+        <v>430250.5041418487</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>424050.3624136955</v>
+        <v>436223.7617631651</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>429950.8638993439</v>
+        <v>442286.1391657476</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>435940.403185396</v>
+        <v>448439.7277239381</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>442021.0731092508</v>
+        <v>454686.6755181065</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>448195.0221665194</v>
+        <v>461029.1878366678</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>454464.4549894803</v>
+        <v>467469.5276539968</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>460831.6328003993</v>
+        <v>474010.0160822326</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>467298.8738367457</v>
+        <v>480653.0327939526</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>473868.5537465932</v>
+        <v>487401.0164139745</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>480543.1059507195</v>
+        <v>494256.4648767153</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>487325.0219681217</v>
+        <v>501221.935745752</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>494216.8517023753</v>
+        <v>508300.0464929615</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>501221.203684635</v>
+        <v>515493.4747329186</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>508340.7452693232</v>
+        <v>522804.9584085311</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>515578.2027785802</v>
+        <v>530237.2959238582</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>522936.3615913121</v>
+        <v>537793.3462198775</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>530418.066171037</v>
+        <v>545476.0287872253</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>538026.2200290709</v>
+        <v>553288.3236124006</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>545763.78561617</v>
+        <v>561233.2710503275</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>553633.7841376826</v>
+        <v>569313.9716182556</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>561639.2952872955</v>
+        <v>577533.5857059251</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>569783.4568903178</v>
+        <v>585895.3331926973</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>578069.4644535325</v>
+        <v>594402.4929686462</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>586500.5706121286</v>
+        <v>603058.4023498399</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>595080.0844672356</v>
+        <v>611866.4563811794</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>603811.3708074624</v>
+        <v>620830.1070200249</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>612697.8492053529</v>
+        <v>629952.8621913024</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>621742.9929820009</v>
+        <v>639238.284707125</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>630950.3280302704</v>
+        <v>648689.9910411614</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>640323.4314889633</v>
+        <v>658311.6499498828</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>649865.9302586388</v>
+        <v>668106.9809311384</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>659581.4993496088</v>
+        <v>678079.7525103833</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>669473.8600535769</v>
+        <v>688233.7803457489</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>679546.7779283032</v>
+        <v>698572.9251411285</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>689804.0605861344</v>
+        <v>709101.0903578369</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>700249.5552758283</v>
+        <v>719822.2197140402</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>710887.1462479739</v>
+        <v>730740.294461989</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>721720.7518930443</v>
+        <v>741859.3304318436</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>732754.3216419544</v>
+        <v>753183.3748316806</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>743991.8326182062</v>
+        <v>764716.5027925323</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>755437.2860310774</v>
+        <v>776462.8136476222</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>767094.7032993273</v>
+        <v>788426.4269350474</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>778968.1218937093</v>
+        <v>800611.4781118904</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>791061.590889003</v>
+        <v>813022.1139702629</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>803379.1662136887</v>
+        <v>825662.4877431465</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>815924.9055874983</v>
+        <v>838536.7538899923</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>828702.8631362246</v>
+        <v>851649.0625512736</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>841717.0836736086</v>
+        <v>865003.5536615435</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>854971.5966406066</v>
+        <v>878604.3507111055</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>868470.4096932213</v>
+        <v>892455.554147292</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>882217.5019281005</v>
+        <v>906561.2344043279</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>896216.816739619</v>
+        <v>920925.4245553629</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>910472.2542989393</v>
+        <v>935552.1125770005</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>924987.6636480419</v>
+        <v>950445.2332191879</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>939766.8344021274</v>
+        <v>965608.6594737396</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>954813.4880552032</v>
+        <v>981046.1936362535</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>970131.2688829241</v>
+        <v>996761.5579554304</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>985723.7344387341</v>
+        <v>1012758.384865767</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1001594.345642254</v>
+        <v>1029040.20680266</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1017746.45645578</v>
+        <v>1045610.445595753</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1034183.30314972</v>
+        <v>1062472.401441446</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1050907.993158575</v>
+        <v>1079629.241456338</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1067923.493528655</v>
+        <v>1097083.98781288</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1085232.618961889</v>
+        <v>1114839.505461858</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1102838.019462742</v>
+        <v>1132898.489448968</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1120742.167594519</v>
+        <v>1151263.451832037</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1138947.345354078</v>
+        <v>1169936.708208277</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1157455.630678763</v>
+        <v>1188920.363865827</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1176268.883597617</v>
+        <v>1208216.299572111</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1195388.732042187</v>
+        <v>1227826.157014766</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1214816.557337235</v>
+        <v>1247751.323916199</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1234553.479390847</v>
+        <v>1267992.918841812</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1254600.341606786</v>
+        <v>1288551.775725479</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1274957.695547045</v>
+        <v>1309428.428141108</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1295625.78537063</v>
+        <v>1330623.093347069</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1316604.532081507</v>
+        <v>1352135.656137421</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1337893.517621198</v>
+        <v>1373965.652536472</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1359491.968839828</v>
+        <v>1396112.253371453</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1381398.741389746</v>
+        <v>1418574.247768678</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1403612.303580798</v>
+        <v>1441350.026613426</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1426130.720247958</v>
+        <v>1464437.566025647</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1448951.636675812</v>
+        <v>1487834.41089723</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1472072.262634858</v>
+        <v>1511537.658547347</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1495489.356584188</v>
+        <v>1535543.942551916</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1519199.21009718</v>
+        <v>1559849.416805376</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1543197.632571896</v>
+        <v>1584449.739878099</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1567479.936289253</v>
+        <v>1609340.059734258</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1592040.921884846</v>
+        <v>1634514.99887773</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1616874.864301662</v>
+        <v>1659968.639995076</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1641975.499295855</v>
+        <v>1685694.512169646</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1667336.010566359</v>
+        <v>1711685.577739447</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1692949.01758335</v>
+        <v>1737934.21987568</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1718806.564191584</v>
+        <v>1764432.230959935</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1744900.108064581</v>
+        <v>1791170.801837964</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1771220.511087204</v>
+        <v>1818140.512029461</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1797758.030747835</v>
+        <v>1845331.32097711</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1824502.312614741</v>
+        <v>1872732.560411337</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1851442.3839772</v>
+        <v>1900332.927913232</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1878566.648729557</v>
+        <v>1928120.481755756</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1905862.883572961</v>
+        <v>1956082.637099693</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1933318.235612394</v>
+        <v>1984206.163623791</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1960919.22141788</v>
+        <v>2012477.184659568</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1988651.72762657</v>
+        <v>2040881.177909134</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2016501.013145519</v>
+        <v>2069402.977807254</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2044451.713026619</v>
+        <v>2098026.779600554</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2072487.844065735</v>
+        <v>2126736.145196992</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2100592.812187888</v>
+        <v>2155514.01084874</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2128749.421662403</v>
+        <v>2184342.696713062</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2156939.886195771</v>
+        <v>2213203.918339912</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2185145.841936632</v>
+        <v>2242078.80012101</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2213348.362425967</v>
+        <v>2270947.890734051</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2241527.975513721</v>
+        <v>2299791.180603209</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2269664.6822579</v>
+        <v>2328588.121392108</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2297737.977813452</v>
+        <v>2290418.905501746</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2325726.874307889</v>
+        <v>2318322.56299668</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2353609.925693657</v>
+        <v>2346117.088056085</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2381365.25455631</v>
+        <v>2373780.474767852</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2408970.58084919</v>
+        <v>2401290.312353959</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2436403.252510996</v>
+        <v>2428623.815843871</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2463640.277921893</v>
+        <v>2455757.858592083</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2490658.360130874</v>
+        <v>2482669.006572818</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2517433.932786121</v>
+        <v>2509333.554384034</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2543943.197689596</v>
+        <v>2535727.562882532</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2570162.16387737</v>
+        <v>2561826.898352061</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2596066.688132189</v>
+        <v>2587607.273111589</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2621632.516809116</v>
+        <v>2613044.287445187</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2646835.328858201</v>
+        <v>2638113.472738154</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2671650.779913407</v>
+        <v>2662790.335689394</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2696054.547306479</v>
+        <v>2811050.791085129</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2720022.375862083</v>
+        <v>2835908.016903569</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2743530.124319912</v>
+        <v>2860285.205404755</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2766553.812220603</v>
+        <v>2884157.532080336</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2789069.66709229</v>
+        <v>2907500.397695224</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2811054.171764678</v>
+        <v>2930289.477735326</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2832484.111635313</v>
+        <v>2952500.77180357</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2853336.621709205</v>
+        <v>2974110.652777599</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2873589.233231835</v>
+        <v>2995095.915541447</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2893219.919732318</v>
+        <v>3015433.825099813</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2912207.142297823</v>
+        <v>3175019.373910787</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2930529.893893326</v>
+        <v>3194936.346067534</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2948167.742554818</v>
+        <v>3214120.360865814</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2965100.873274918</v>
+        <v>3232550.578661524</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2981310.128413998</v>
+        <v>3250206.893042009</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2996777.046469842</v>
+        <v>3267069.972996638</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3011483.899047727</v>
+        <v>3283121.30310634</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3025413.725880961</v>
+        <v>3298343.221583788</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3038550.367757753</v>
+        <v>3312718.95600146</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3050878.497224455</v>
+        <v>3326232.656558724</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3062383.646938978</v>
+        <v>2920545.855481834</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3073052.235570297</v>
+        <v>2930415.697454046</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3082871.591137191</v>
+        <v>2939449.238223852</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3091829.971707609</v>
+        <v>2947634.507204386</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3099916.583381587</v>
+        <v>2954960.434162829</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3107121.595499687</v>
+        <v>2961416.863576025</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3113436.153036052</v>
+        <v>2966994.566219424</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3118852.386139094</v>
+        <v>2971685.24795024</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3123363.416814593</v>
+        <v>2975481.555677143</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3126963.362739814</v>
+        <v>2978377.080503465</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3129647.338232491</v>
+        <v>2501641.438347577</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3131411.452401828</v>
+        <v>2501300.306450895</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3132252.804521113</v>
+        <v>2500109.852094465</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3132169.476687976</v>
+        <v>2498065.660386031</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3131160.523841681</v>
+        <v>2495164.070635082</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3129225.961220326</v>
+        <v>2491402.165981455</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3126366.749368344</v>
+        <v>2486777.761173352</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3122584.776790735</v>
+        <v>2481289.388619567</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3117882.840396263</v>
+        <v>2474936.282885932</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3112264.623847695</v>
+        <v>2467718.363792235</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3105734.673979507</v>
+        <v>2487044.03185766</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3098298.37542715</v>
+        <v>2478177.112756167</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3089961.923638626</v>
+        <v>2468447.071319901</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3080732.296437848</v>
+        <v>2457856.555802355</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3070617.224319965</v>
+        <v>2446408.808880397</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3059625.159659665</v>
+        <v>2434107.646490882</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3047765.245025994</v>
+        <v>2420957.436869313</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3035047.280794041</v>
+        <v>2406963.080074118</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3021481.692252346</v>
+        <v>2392129.988295569</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3007079.496397956</v>
+        <v>2376464.067250355</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2991852.268626807</v>
+        <v>2359971.698983008</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2975812.109505036</v>
+        <v>2342659.726382594</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2958971.611831783</v>
+        <v>2324535.439748858</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2941343.828172199</v>
+        <v>2305606.565717961</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2922942.239061904</v>
+        <v>2285881.258877673</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2903780.722064491</v>
+        <v>2265368.096384408</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2883873.521856972</v>
+        <v>2244076.075884104</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2863235.221522105</v>
+        <v>2222014.617035741</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2841880.715207098</v>
+        <v>2199193.566909014</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2819825.182301979</v>
+        <v>2175623.209508104</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2797084.063287613</v>
+        <v>2151314.279652405</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2773673.037377807</v>
+        <v>2126277.981400386</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2749608.002085002</v>
+        <v>2100526.011179653</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2724905.054803906</v>
+        <v>2074070.585723717</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2699580.476517768</v>
+        <v>2046924.474887663</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2673650.717689019</v>
+        <v>2019101.039335017</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2647132.386406245</v>
+        <v>1990614.273049634</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2620042.238814566</v>
+        <v>1961478.850534661</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2592397.171861962</v>
+        <v>1931710.178507857</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2564214.218357535</v>
+        <v>1901324.451808945</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2535510.544320619</v>
+        <v>1870338.713153725</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2506303.44858559</v>
+        <v>1838770.916288059</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2476610.364595013</v>
+        <v>1806639.991994675</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2446448.864296206</v>
+        <v>1773965.916316773</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2415836.664030981</v>
+        <v>1740769.780265792</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2384791.632285127</v>
+        <v>1707073.860186625</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2353331.79914773</v>
+        <v>1672901.687866998</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2321475.367282968</v>
+        <v>1638278.119368025</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2289240.724229551</v>
+        <v>1603229.401499781</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2256646.455787471</v>
+        <v>1567783.23476046</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16802497.2828928</v>
+        <v>24028464.63151348</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>19621.67939721757</v>
+        <v>28056.21947461423</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>19885.25702183091</v>
+        <v>28429.19986086816</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>20152.25756983685</v>
+        <v>28806.94698426751</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>20422.71759293299</v>
+        <v>29189.50883866541</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>20696.67349355392</v>
+        <v>29576.93300778434</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>20974.16148869962</v>
+        <v>29969.26660362404</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>21255.21757228253</v>
+        <v>30366.5562024656</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>21539.87747620256</v>
+        <v>30768.84777874318</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>21828.17662976316</v>
+        <v>31176.18663620973</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>22120.15011789853</v>
+        <v>31588.61733699495</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>22415.832638083</v>
+        <v>32006.18362866308</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>22715.25845585687</v>
+        <v>32428.92836877827</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>23018.46135930077</v>
+        <v>32856.89344788653</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>23325.47461228468</v>
+        <v>33290.1197103191</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>23636.3309068078</v>
+        <v>33728.64687357789</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>23951.06231433564</v>
+        <v>34172.51344596178</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24269.70023635495</v>
+        <v>34621.75664297825</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24592.27535432873</v>
+        <v>35076.41230260716</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24918.81757895664</v>
+        <v>35536.51479957337</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>25249.35599925891</v>
+        <v>36002.09695908863</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>25583.91883126881</v>
+        <v>36473.18997012937</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>25922.53336676082</v>
+        <v>36949.82329856774</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>26265.22592220105</v>
+        <v>37432.02460079434</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>26612.02178794531</v>
+        <v>37919.81963754651</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>26962.94517810515</v>
+        <v>38413.23218899259</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>27318.01918126737</v>
+        <v>38912.28397098347</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>27677.26571217807</v>
+        <v>39416.99455307653</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>28040.70546495346</v>
+        <v>39927.38127880445</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>28408.35786774282</v>
+        <v>40443.45918849202</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>28780.24103941283</v>
+        <v>40965.24094526414</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>29156.3717484686</v>
+        <v>41492.73676466956</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>29536.76537445265</v>
+        <v>42025.95434841552</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>29921.43587232049</v>
+        <v>42564.89882291845</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>30310.39573996485</v>
+        <v>43109.57268296396</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>30703.65598941907</v>
+        <v>43659.9757414385</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>31101.22612186814</v>
+        <v>44216.10508522415</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>31503.11410717063</v>
+        <v>44777.95503847003</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>31909.32636798038</v>
+        <v>45345.51713341454</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>32319.86776902799</v>
+        <v>45918.78008962544</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>32734.74161181086</v>
+        <v>46497.72980205822</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>33153.94963541765</v>
+        <v>47082.34933920371</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>33577.49202339039</v>
+        <v>47672.61895106312</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>34005.36741755998</v>
+        <v>48268.51608857204</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>34437.57293887092</v>
+        <v>48870.01543442084</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>34874.10421574048</v>
+        <v>49477.08894628291</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>35314.95542052158</v>
+        <v>50089.7059132005</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>35760.11931413141</v>
+        <v>50707.83302544057</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>36209.58729945211</v>
+        <v>51331.43445867981</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>36663.34948395143</v>
+        <v>51960.47197324077</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>37121.39475164621</v>
+        <v>52594.90502871529</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>37583.71084498551</v>
+        <v>53234.69091475765</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>38050.28445679678</v>
+        <v>53879.78489839139</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>38521.10133289495</v>
+        <v>54530.14038881121</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>38996.14638526394</v>
+        <v>55185.70911942144</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>39475.40381636835</v>
+        <v>55846.44134819487</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>39958.85725488194</v>
+        <v>56512.28607666099</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>40446.48990264239</v>
+        <v>57183.19128734415</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>40938.28469352298</v>
+        <v>57859.10420066329</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>41434.22446403599</v>
+        <v>58539.97155109709</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>41934.29213589538</v>
+        <v>59225.73988289414</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>42438.47091050452</v>
+        <v>59916.35586536905</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>42946.74447567506</v>
+        <v>60611.76662817975</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>43459.09722406232</v>
+        <v>61311.92011582031</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>43975.51448388317</v>
+        <v>62016.76546220667</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>44495.98276118575</v>
+        <v>62726.25338424976</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>45020.48999394909</v>
+        <v>63440.33659465601</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>45549.02581760996</v>
+        <v>64158.97023364116</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>46081.58184181431</v>
+        <v>64882.11231876328</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>46618.15193787741</v>
+        <v>65609.7242125592</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>47158.73253695584</v>
+        <v>66341.7711074789</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>47703.32293804851</v>
+        <v>67078.2225270409</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>48251.92562565688</v>
+        <v>67819.05284270656</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>48804.54659638665</v>
+        <v>68564.2418054602</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>49361.19569391113</v>
+        <v>69313.77509096373</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>49921.88695159813</v>
+        <v>70067.64485725691</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>50486.63894214295</v>
+        <v>70825.85031396239</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>51055.47513325002</v>
+        <v>71588.39830122824</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>51628.424248694</v>
+        <v>72355.30387756538</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>52205.52063371966</v>
+        <v>73126.59091463937</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>52786.80462383133</v>
+        <v>73902.29269759466</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>53372.32291600018</v>
+        <v>74682.45252926608</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>53962.12894119196</v>
+        <v>75467.12433652508</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>54556.2832370472</v>
+        <v>76256.37327665799</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>55154.85381968648</v>
+        <v>77050.27634241016</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>55757.91655310483</v>
+        <v>77848.9229628727</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>56365.55551538182</v>
+        <v>78652.41559905288</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>56977.86336009395</v>
+        <v>79460.87033150803</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>57594.94167151286</v>
+        <v>80274.41743770755</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>58216.90131262297</v>
+        <v>81093.20195744096</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>58843.86276434401</v>
+        <v>81917.38424374428</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>59475.95645447877</v>
+        <v>82747.1404968327</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>60113.32307526308</v>
+        <v>83582.66327920015</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>60756.11388796492</v>
+        <v>84424.16200936698</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>61404.49101301821</v>
+        <v>85271.86343178342</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>62058.62770456389</v>
+        <v>86126.01206093789</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>62718.70860775191</v>
+        <v>86986.8705971407</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>63384.92999763682</v>
+        <v>87854.72031189605</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>64057.49999818688</v>
+        <v>88729.8614004882</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>64736.63878007149</v>
+        <v>89612.61329966856</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>65422.57873621768</v>
+        <v>90503.31496859706</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>66115.56463356479</v>
+        <v>91402.32513065108</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>66815.8537399465</v>
+        <v>92310.02247420073</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>67523.71592524262</v>
+        <v>93226.80581098853</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>68239.43373528004</v>
+        <v>94153.09418965764</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>68963.30243795936</v>
+        <v>95089.3269634124</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>69695.63004030845</v>
+        <v>96035.96380990397</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>70436.73727594291</v>
+        <v>96993.48470226364</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>71186.95756209154</v>
+        <v>97962.3898299768</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>71946.63692541939</v>
+        <v>98943.19946844086</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>72716.13389641384</v>
+        <v>99936.45379654734</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>73495.81937150545</v>
+        <v>100942.7126612984</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>74286.07644304176</v>
+        <v>101962.5552892095</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>75087.30019654796</v>
+        <v>102996.5799439551</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>75899.89747537021</v>
+        <v>104045.4035301542</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>76724.28661269876</v>
+        <v>105109.6611433909</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>77560.8971311897</v>
+        <v>106190.0055667728</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>78410.16941029891</v>
+        <v>107287.1067142613</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>79272.55432197552</v>
+        <v>108401.6510217661</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>80148.51283510927</v>
+        <v>109534.3407866833</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>81038.51558948174</v>
+        <v>110685.8934570609</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>81943.0424399959</v>
+        <v>111857.0408717061</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>82862.58197215194</v>
+        <v>113048.5284527873</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>83797.63098983263</v>
+        <v>114261.1143526044</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>84748.69397665709</v>
+        <v>115495.5685566977</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>85716.28253208697</v>
+        <v>116752.6719451732</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>86700.91478396293</v>
+        <v>118033.2153149141</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>87703.11477876423</v>
+        <v>119337.9983649309</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>88723.41185163234</v>
+        <v>120667.8286480657</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>89762.3399774853</v>
+        <v>122023.520491299</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>90820.43710565443</v>
+        <v>123405.8938885624</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>91898.24447970329</v>
+        <v>124815.7733688055</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>92996.30594443659</v>
+        <v>126253.986842661</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>94115.16724284191</v>
+        <v>127721.3644320148</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>95255.37530434539</v>
+        <v>129218.7372849782</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>96417.47752762224</v>
+        <v>130746.9363813211</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>97602.02105973393</v>
+        <v>132306.7913314361</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>98809.55207418367</v>
+        <v>133899.1291729858</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>100040.6150505815</v>
+        <v>135524.7731696517</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>101295.752058199</v>
+        <v>137184.541615675</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>102575.5020459743</v>
+        <v>138879.2466504779</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>103880.4001418072</v>
+        <v>140609.6930878227</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>105210.9769632366</v>
+        <v>142376.6772631372</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>106567.7579426011</v>
+        <v>144180.9859038749</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>107951.2626686562</v>
+        <v>146023.3950262708</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>109362.0042477871</v>
+        <v>147904.6688635206</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>110800.4886866307</v>
+        <v>149825.5588284383</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>112267.2142991194</v>
+        <v>151786.8025153724</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>113762.6711400692</v>
+        <v>153789.1227449509</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>115287.3404674011</v>
+        <v>155833.2266550539</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>116841.6942358171</v>
+        <v>157919.8048425027</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>118426.1946233868</v>
+        <v>160049.5305579445</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>120041.2935937319</v>
+        <v>162223.0589582699</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>121687.4324952681</v>
+        <v>164441.0264188841</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>123365.0416995604</v>
+        <v>166704.0499092647</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>125074.5402807356</v>
+        <v>169012.7264348185</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>126816.3357369383</v>
+        <v>171367.6325468085</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>128590.8237560582</v>
+        <v>173769.3239237618</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>130398.3880264211</v>
+        <v>176218.3350256275</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>132239.4000940197</v>
+        <v>178715.1788231238</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>134114.2192671781</v>
+        <v>181260.3466037306</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>136023.1925695278</v>
+        <v>183854.3078557565</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>137966.6547422062</v>
+        <v>186497.5102318245</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>139944.9282954816</v>
+        <v>189190.3795922464</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>141958.3236106916</v>
+        <v>191933.3201294834</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>144007.1390925339</v>
+        <v>194726.714573824</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>146091.661371692</v>
+        <v>197570.9244802236</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>148212.1655579604</v>
+        <v>200466.2905964241</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>150368.9155436546</v>
+        <v>203413.1333120076</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>152562.1643567709</v>
+        <v>206411.753187447</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>154792.1545635253</v>
+        <v>209462.4315624645</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>157059.1187196165</v>
+        <v>212565.4312425595</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>159363.2798693372</v>
+        <v>215720.9972622389</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>161704.8520915983</v>
+        <v>218929.3577233029</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>164084.041091829</v>
+        <v>222190.7247064608</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>166501.0448385853</v>
+        <v>225505.2952542466</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>168956.0542433836</v>
+        <v>228873.2524227732</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>171449.2538825148</v>
+        <v>232294.7664001885</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>173980.8227590853</v>
+        <v>235769.9956888727</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>176550.935103851</v>
+        <v>239299.0883489767</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>179159.7612129785</v>
+        <v>242882.1833001086</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>181807.4683209204</v>
+        <v>246519.411678185</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>184494.2215064494</v>
+        <v>250210.8982441131</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>187220.1846301906</v>
+        <v>253956.7628414749</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>189985.5213012346</v>
+        <v>257757.1218992013</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>192790.3958710098</v>
+        <v>261612.0899761773</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>195634.9744524343</v>
+        <v>265521.7813443594</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>198519.4259617987</v>
+        <v>269486.3116062411</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>201443.923181871</v>
+        <v>273505.7993439845</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>204408.6438435174</v>
+        <v>277580.3677957946</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>207413.7717238929</v>
+        <v>281710.1465562092</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>210459.4977594757</v>
+        <v>285895.2732972875</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>213546.0211710639</v>
+        <v>290135.8955060471</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>216673.5505992911</v>
+        <v>294432.1722355626</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>219842.3052484928</v>
+        <v>298784.2758660738</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>223052.5160367413</v>
+        <v>303192.3938724721</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>226304.4267502658</v>
+        <v>307656.7305951469</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>229598.2952004446</v>
+        <v>312177.5090110328</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>232934.3943813346</v>
+        <v>316754.9725015463</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>236313.0136262754</v>
+        <v>321389.3866148043</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>239734.4597617922</v>
+        <v>326081.0408191493</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>243199.0582570507</v>
+        <v>330830.2502450874</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>246707.1543618928</v>
+        <v>335637.3574039651</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>250259.1142544354</v>
+        <v>340502.7339178227</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>253855.3261640274</v>
+        <v>345426.7822042332</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>257496.2014900435</v>
+        <v>350409.9371494823</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>261182.1759096256</v>
+        <v>355452.6677588786</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>264913.7104738741</v>
+        <v>360555.478783162</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>268691.2926913289</v>
+        <v>365718.9123190927</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>272515.4375980745</v>
+        <v>370943.5493830208</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>276386.6888138328</v>
+        <v>376230.0114562769</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>280305.619583201</v>
+        <v>381578.9620010394</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>284272.8338017723</v>
+        <v>386991.1079460781</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>288288.9670268589</v>
+        <v>392467.2011418338</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>292354.6874720669</v>
+        <v>398008.0397836845</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>296470.6969859411</v>
+        <v>403614.4698035534</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>300637.7320143896</v>
+        <v>409287.3862294185</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>304856.5645467078</v>
+        <v>415027.7345123924</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>309128.0030453753</v>
+        <v>420836.5118216216</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>313452.8933600647</v>
+        <v>426714.7683075943</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>317832.1196247479</v>
+        <v>432663.6083323525</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>322266.605140008</v>
+        <v>438684.191669588</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>326757.3132388855</v>
+        <v>444777.7346723825</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>331305.2481382798</v>
+        <v>450945.5114114865</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>335911.4557742768</v>
+        <v>457188.8547820177</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>340577.0246241222</v>
+        <v>463509.1575824692</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>345303.086512803</v>
+        <v>469907.8735633988</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>350090.8174062711</v>
+        <v>476386.5184487564</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>354941.4381907854</v>
+        <v>482946.6709293603</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>359856.2154393873</v>
+        <v>489589.9736301188</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>364836.462164746</v>
+        <v>496318.1340501696</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>369883.5385597586</v>
+        <v>503132.9254781075</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>374998.8527257303</v>
+        <v>510036.1878822878</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>380183.8613877108</v>
+        <v>517029.8287759186</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>385440.070598122</v>
+        <v>524115.8240587366</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>390769.0364278476</v>
+        <v>531296.2188344542</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>396172.3656450017</v>
+        <v>538573.1282045189</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>401651.7163813831</v>
+        <v>545948.738038528</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>407208.7987860936</v>
+        <v>553425.3057208516</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>412845.3756656608</v>
+        <v>561005.1608728687</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>418563.2631109775</v>
+        <v>568690.7060515624</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>424364.3311094647</v>
+        <v>576484.4174225677</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>430250.5041418487</v>
+        <v>584388.8454071631</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>436223.7617631651</v>
+        <v>592406.6153029752</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>442286.1391657476</v>
+        <v>600540.4278756117</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>448439.7277239381</v>
+        <v>608793.0599212004</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>454686.6755181065</v>
+        <v>617167.3647967818</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>461029.1878366678</v>
+        <v>625666.2729171081</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>467469.5276539968</v>
+        <v>634292.7922152337</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>474010.0160822326</v>
+        <v>643050.0085644493</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>480653.0327939526</v>
+        <v>651941.0861577293</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>487401.0164139745</v>
+        <v>660969.26784258</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>494256.4648767153</v>
+        <v>670137.8754066973</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>501221.935745752</v>
+        <v>679450.3098101248</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>508300.0464929615</v>
+        <v>688910.0513606026</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>515493.4747329186</v>
+        <v>698520.6598264773</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>522804.9584085311</v>
+        <v>708285.7744819561</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>530237.2959238582</v>
+        <v>718209.1140794334</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>537793.3462198775</v>
+        <v>728294.4767433882</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>545476.0287872253</v>
+        <v>738545.7397779458</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>553288.3236124006</v>
+        <v>748966.8593836135</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>561233.2710503275</v>
+        <v>759561.8702737361</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>569313.9716182556</v>
+        <v>770334.885184127</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>577533.5857059251</v>
+        <v>781290.0942692013</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>585895.3331926973</v>
+        <v>792431.7643722522</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>594402.4929686462</v>
+        <v>803764.2381660221</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>603058.4023498399</v>
+        <v>815291.9331505796</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>611866.4563811794</v>
+        <v>827019.3404997404</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>620830.1070200249</v>
+        <v>838951.0237471557</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>629952.8621913024</v>
+        <v>851091.6172996633</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>639238.284707125</v>
+        <v>863445.8247688005</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>648689.9910411614</v>
+        <v>876018.4171075026</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>658311.6499498828</v>
+        <v>888814.2305416311</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>668106.9809311384</v>
+        <v>901838.1642837473</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>678079.7525103833</v>
+        <v>915095.1780163065</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>688233.7803457489</v>
+        <v>928590.2891327752</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>698572.9251411285</v>
+        <v>942328.5697223038</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>709101.0903578369</v>
+        <v>956315.1432856235</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>719822.2197140402</v>
+        <v>970555.181167946</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>730740.294461989</v>
+        <v>985053.8986958147</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>741859.3304318436</v>
+        <v>999816.5510032061</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>753183.3748316806</v>
+        <v>1014848.428533273</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>764716.5027925323</v>
+        <v>1030154.852201214</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>776462.8136476222</v>
+        <v>1045741.168204098</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>788426.4269350474</v>
+        <v>1061612.742463742</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>800611.4781118904</v>
+        <v>1077774.954686953</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>813022.1139702629</v>
+        <v>1094233.192031005</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>825662.4877431465</v>
+        <v>1110992.842358533</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>838536.7538899923</v>
+        <v>1128059.287069068</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>851649.0625512736</v>
+        <v>1145437.893493307</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>865003.5536615435</v>
+        <v>1163134.006836785</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>878604.3507111055</v>
+        <v>1181152.941660417</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>892455.554147292</v>
+        <v>1199499.972886577</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>906561.2344043279</v>
+        <v>1218180.326316712</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>920925.4245553629</v>
+        <v>1237199.168652737</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>935552.1125770005</v>
+        <v>1256561.597010133</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>950445.2332191879</v>
+        <v>1276272.627914061</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>965608.6594737396</v>
+        <v>1296337.185770446</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>981046.1936362535</v>
+        <v>1316760.09080602</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>996761.5579554304</v>
+        <v>1337546.046470285</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1012758.384865767</v>
+        <v>1358699.62629509</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1029040.20680266</v>
+        <v>916789.7073377336</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1045610.445595753</v>
+        <v>932386.5946392007</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1062472.401441446</v>
+        <v>948270.3650632554</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1079629.241456338</v>
+        <v>964444.1249999157</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1097083.98781288</v>
+        <v>980910.8284610028</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1114839.505461858</v>
+        <v>997673.2652165755</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1132898.489448968</v>
+        <v>1014734.048548145</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1151263.451832037</v>
+        <v>1032095.60262541</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1169936.708208277</v>
+        <v>1049760.149516156</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1188920.363865827</v>
+        <v>1067729.695843788</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1208216.299572111</v>
+        <v>1086006.019105225</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1227826.157014766</v>
+        <v>1104590.653665163</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1247751.323916199</v>
+        <v>1123484.876447883</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1267992.918841812</v>
+        <v>1142689.69234686</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1288551.775725479</v>
+        <v>1162205.819375873</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1309428.428141108</v>
+        <v>1182033.673590569</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1330623.093347069</v>
+        <v>1202173.353807298</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1352135.656137421</v>
+        <v>1222624.626153235</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1373965.652536472</v>
+        <v>1243386.908484238</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1396112.253371453</v>
+        <v>1264459.254705187</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1418574.247768678</v>
+        <v>1285840.339038038</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1441350.026613426</v>
+        <v>1307528.440277598</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1464437.566025647</v>
+        <v>1329521.426086866</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1487834.41089723</v>
+        <v>1351816.737377363</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1511537.658547347</v>
+        <v>1374411.37283043</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1535543.942551916</v>
+        <v>1397301.873615123</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1559849.416805376</v>
+        <v>1420484.308360187</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1584449.739878099</v>
+        <v>1443954.258442761</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1609340.059734258</v>
+        <v>1467706.803657775</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1634514.99887773</v>
+        <v>1491736.508334668</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1659968.639995076</v>
+        <v>1516037.407969415</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1685694.512169646</v>
+        <v>1540602.99644471</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1711685.577739447</v>
+        <v>1565426.213909615</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1737934.21987568</v>
+        <v>1590499.435394134</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1764432.230959935</v>
+        <v>1615814.46023512</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1791170.801837964</v>
+        <v>1641362.50238964</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1818140.512029461</v>
+        <v>1667134.181713434</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1845331.32097711</v>
+        <v>1693119.516285595</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1872732.560411337</v>
+        <v>1719307.915853813</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1900332.927913232</v>
+        <v>1745688.176480239</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1928120.481755756</v>
+        <v>1772248.476465655</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1956082.637099693</v>
+        <v>1798976.373625694</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1984206.163623791</v>
+        <v>1825858.80399583</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2012477.184659568</v>
+        <v>1852882.082032599</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2040881.177909134</v>
+        <v>1880031.902386319</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2069402.977807254</v>
+        <v>1907293.343303313</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2098026.779600554</v>
+        <v>1934650.871727061</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2126736.145196992</v>
+        <v>1962088.350147951</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2155514.01084874</v>
+        <v>1989589.045261051</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2184342.696713062</v>
+        <v>2017135.638472716</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2213203.918339912</v>
+        <v>2044710.238300786</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2242078.80012101</v>
+        <v>2072294.394699212</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2270947.890734051</v>
+        <v>2099869.115336486</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2299791.180603209</v>
+        <v>2127414.883844967</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2328588.121392108</v>
+        <v>2154911.680052876</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2290418.905501746</v>
+        <v>2115440.260167127</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2318322.56299668</v>
+        <v>2142040.25432592</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2346117.088056085</v>
+        <v>2168530.293613188</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2373780.474767852</v>
+        <v>2194889.046348707</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2401290.312353959</v>
+        <v>2221094.813737548</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2428623.815843871</v>
+        <v>2247125.560891261</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2455757.858592083</v>
+        <v>2272958.949612435</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2482669.006572818</v>
+        <v>2298572.37287137</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2509333.554384034</v>
+        <v>2323942.990902703</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2535727.562882532</v>
+        <v>2349047.768839625</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2561826.898352061</v>
+        <v>2373863.515783559</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2587607.273111589</v>
+        <v>2398366.925212576</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2613044.287445187</v>
+        <v>2422534.616606247</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2638113.472738154</v>
+        <v>2446343.178168075</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2662790.335689394</v>
+        <v>2469769.210512172</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2811050.791085129</v>
+        <v>2616789.758796216</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2835908.016903569</v>
+        <v>2640419.167067522</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2860285.205404755</v>
+        <v>2663581.828473896</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2884157.532080336</v>
+        <v>2686254.153211906</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2907500.397695224</v>
+        <v>2708412.809442575</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2930289.477735326</v>
+        <v>2730034.771487309</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2952500.77180357</v>
+        <v>2751097.367845047</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2974110.652777599</v>
+        <v>2771578.328843415</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2995095.915541447</v>
+        <v>2791455.833735849</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3015433.825099813</v>
+        <v>2810708.557053493</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3175019.373910787</v>
+        <v>2969232.924048338</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3194936.346067534</v>
+        <v>2988114.172859256</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3214120.360865814</v>
+        <v>3006289.395939325</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3232550.578661524</v>
+        <v>3023739.243650814</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3250206.893042009</v>
+        <v>3040445.114054144</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3267069.972996638</v>
+        <v>3056389.192579468</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3283121.30310634</v>
+        <v>3071554.489604257</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3298343.221583788</v>
+        <v>3085924.875772757</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3312718.95600146</v>
+        <v>3099485.114899322</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3326232.656558724</v>
+        <v>3112220.894312018</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2920545.855481834</v>
+        <v>2705795.281236216</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2930415.697454046</v>
+        <v>2714966.950121713</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2939449.238223852</v>
+        <v>2723344.478068228</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2947634.507204386</v>
+        <v>2730917.404169681</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2954960.434162829</v>
+        <v>2737676.152883962</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2961416.863576025</v>
+        <v>2743612.045012654</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2966994.566219424</v>
+        <v>2748717.305866682</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2971685.24795024</v>
+        <v>2752985.0705879</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2975481.555677143</v>
+        <v>2756409.386628596</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2978377.080503465</v>
+        <v>2758985.213385815</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2501641.438347577</v>
+        <v>2281983.499304551</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2501300.306450895</v>
+        <v>2281431.214870795</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2500109.852094465</v>
+        <v>2280085.777826375</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2498065.660386031</v>
+        <v>2277943.977478554</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2495164.070635082</v>
+        <v>2275003.307633255</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2491402.165981455</v>
+        <v>2271261.952828908</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2486777.761173352</v>
+        <v>2266718.772778379</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2481289.388619567</v>
+        <v>2261373.28515539</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2474936.282885932</v>
+        <v>2255225.646907066</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2467718.363792235</v>
+        <v>2248276.63426048</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2487044.03185766</v>
+        <v>2267935.435182687</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2478177.112756167</v>
+        <v>2259466.590967087</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2468447.071319901</v>
+        <v>2250200.20749533</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2457856.555802355</v>
+        <v>2240139.496897385</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2446408.808880397</v>
+        <v>2229288.186099553</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2434107.646490882</v>
+        <v>2217650.493366347</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2420957.436869313</v>
+        <v>2205231.105213626</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2406963.080074118</v>
+        <v>2192035.153985928</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2392129.988295569</v>
+        <v>2178068.196405972</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2376464.067250355</v>
+        <v>2163336.193405704</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2359971.698983008</v>
+        <v>2147845.491567866</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2342659.726382594</v>
+        <v>2131602.806493704</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2324535.439748858</v>
+        <v>2114615.208437398</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2305606.565717961</v>
+        <v>2096890.110523223</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2285881.258877673</v>
+        <v>2078435.259880261</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2265368.096384408</v>
+        <v>2059258.73201134</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2244076.075884104</v>
+        <v>2039368.928701651</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2222014.617035741</v>
+        <v>2018774.579768423</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2199193.566909014</v>
+        <v>1997484.748925001</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2175623.209508104</v>
+        <v>1975508.844012084</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2151314.279652405</v>
+        <v>1952856.631827113</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2126277.981400386</v>
+        <v>1929538.257737007</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2100526.011179653</v>
+        <v>1905564.270235633</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2074070.585723717</v>
+        <v>1880945.650543818</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2046924.474887663</v>
+        <v>1855693.847320554</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2019101.039335017</v>
+        <v>1829820.816473272</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1990614.273049634</v>
+        <v>1803339.066015707</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1961478.850534661</v>
+        <v>1776261.705829245</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1931710.178507857</v>
+        <v>1748602.502130067</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1901324.451808945</v>
+        <v>1720375.936349956</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1870338.713153725</v>
+        <v>1691597.26805696</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1838770.916288059</v>
+        <v>1662282.601459678</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1806639.991994675</v>
+        <v>1632448.954938138</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1773965.916316773</v>
+        <v>1602114.332954552</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1740769.780265792</v>
+        <v>1571297.799600013</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1707073.860186625</v>
+        <v>1540019.552938564</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1672901.687866998</v>
+        <v>1508300.999222937</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1638278.119368025</v>
+        <v>1476164.82594614</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1603229.401499781</v>
+        <v>1443635.072639438</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1567783.23476046</v>
+        <v>1410737.198221659</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24028464.63151348</v>
+        <v>24232037.22052358</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28056.21947461423</v>
+        <v>28293.81900312086</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>28429.19986086816</v>
+        <v>28669.85941663422</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>28806.94698426751</v>
+        <v>29050.70370798052</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>29189.50883866541</v>
+        <v>29436.40016944034</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>29576.93300778434</v>
+        <v>29826.99667469486</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>29969.26660362404</v>
+        <v>30222.5406164736</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>30366.5562024656</v>
+        <v>30623.07884179821</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>30768.84777874318</v>
+        <v>31028.65758496908</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>31176.18663620973</v>
+        <v>31439.32239790223</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>31588.61733699495</v>
+        <v>31855.1180783345</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>32006.18362866308</v>
+        <v>32276.08859590803</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>32428.92836877827</v>
+        <v>32702.27701586534</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>32856.89344788653</v>
+        <v>33133.72542104594</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>33290.1197103191</v>
+        <v>33570.47483168279</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>33728.64687357789</v>
+        <v>34012.5651238383</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>34172.51344596178</v>
+        <v>34460.03494598613</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>34621.75664297825</v>
+        <v>34912.92163437649</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>35076.41230260716</v>
+        <v>35371.26112728044</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>35536.51479957337</v>
+        <v>35835.08787814951</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>36002.09695908863</v>
+        <v>36304.4347683747</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>36473.18997012937</v>
+        <v>36779.33301937735</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>36949.82329856774</v>
+        <v>37259.81210478041</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>37432.02460079434</v>
+        <v>37745.89966285893</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>37919.81963754651</v>
+        <v>38237.62140935967</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>38413.23218899259</v>
+        <v>38735.00105151102</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>38912.28397098347</v>
+        <v>39238.06020323597</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39416.99455307653</v>
+        <v>39746.81830213318</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>39927.38127880445</v>
+        <v>40261.29252878648</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40443.45918849202</v>
+        <v>40781.49772857049</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>40965.24094526414</v>
+        <v>41307.44633675734</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>41492.73676466956</v>
+        <v>41839.14830724215</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42025.95434841552</v>
+        <v>42376.6110454309</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42564.89882291845</v>
+        <v>42919.83934601777</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>43109.57268296396</v>
+        <v>43468.8353359058</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>43659.9757414385</v>
+        <v>44023.59842326483</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>44216.10508522415</v>
+        <v>44584.12525289388</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>44777.95503847003</v>
+        <v>45150.40966894464</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>45345.51713341454</v>
+        <v>45722.44268535516</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>45918.78008962544</v>
+        <v>46300.21246475621</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>46497.72980205822</v>
+        <v>46883.70430634691</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>47082.34933920371</v>
+        <v>47472.90064393051</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>47672.61895106312</v>
+        <v>48067.78105393471</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>48268.51608857204</v>
+        <v>48668.32227492275</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>48870.01543442084</v>
+        <v>49274.49823881072</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>49477.08894628291</v>
+        <v>49886.28011442822</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>50089.7059132005</v>
+        <v>50503.63636455547</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>50707.83302544057</v>
+        <v>51126.53281647353</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>51331.43445867981</v>
+        <v>51754.93274711313</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>51960.47197324077</v>
+        <v>52388.79698332565</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>52594.90502871529</v>
+        <v>53028.08401781204</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>53234.69091475765</v>
+        <v>53672.75014135127</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>53879.78489839139</v>
+        <v>54322.74959176884</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>54530.14038881121</v>
+        <v>54978.03472056038</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>55185.70911942144</v>
+        <v>55638.55617702125</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>55846.44134819487</v>
+        <v>56304.26311086739</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>56512.28607666099</v>
+        <v>56975.10339368277</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>57183.19128734415</v>
+        <v>57651.02385908705</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>57859.10420066329</v>
+        <v>58331.97056254015</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>58539.97155109709</v>
+        <v>59017.8890606883</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>59225.73988289414</v>
+        <v>59708.72471043207</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>59916.35586536905</v>
+        <v>60404.42298785394</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>60611.76662817975</v>
+        <v>61104.92982731537</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>61311.92011582031</v>
+        <v>61810.19198002582</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>62016.76546220667</v>
+        <v>62520.15739297132</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>62726.25338424976</v>
+        <v>63234.77560694527</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>63440.33659465601</v>
+        <v>63953.99817414317</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>64158.97023364116</v>
+        <v>64677.77909483398</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>64882.11231876328</v>
+        <v>65406.07527239103</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>65609.7242125592</v>
+        <v>66138.8469862877</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>66341.7711074789</v>
+        <v>66876.05838264036</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>67078.2225270409</v>
+        <v>67617.67798114161</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>67819.05284270656</v>
+        <v>68363.67919792785</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>68564.2418054602</v>
+        <v>69114.0408832243</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69313.77509096373</v>
+        <v>69868.747872846</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>70067.64485725691</v>
+        <v>70627.79155235027</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>70825.85031396239</v>
+        <v>71391.17043275075</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>71588.39830122824</v>
+        <v>72158.89073620562</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>72355.30387756538</v>
+        <v>72930.96699061983</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>73126.59091463937</v>
+        <v>73707.42263128686</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>73902.29269759466</v>
+        <v>74488.29060816248</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>74682.45252926608</v>
+        <v>75273.61399708599</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>75467.12433652508</v>
+        <v>76063.44661301465</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>76256.37327665799</v>
+        <v>76857.85362355657</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>77050.27634241016</v>
+        <v>77656.91216086279</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>77848.9229628727</v>
+        <v>78460.71192947609</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>78652.41559905288</v>
+        <v>79269.35580882135</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>79460.87033150803</v>
+        <v>80082.96044755046</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>80274.41743770755</v>
+        <v>80901.65684754703</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>81093.20195744096</v>
+        <v>81725.59093590052</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>81917.38424374428</v>
+        <v>82554.92412207769</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>82747.1404968327</v>
+        <v>83389.83383807557</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>83582.66327920015</v>
+        <v>84230.51405934819</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>84424.16200936698</v>
+        <v>85077.17580427194</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>85271.86343178342</v>
+        <v>85930.04760937032</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>86126.01206093789</v>
+        <v>86789.37597853498</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>86986.8705971407</v>
+        <v>87655.42580350534</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>87854.72031189605</v>
+        <v>88528.48075361554</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>88729.8614004882</v>
+        <v>89408.84363239977</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>89612.61329966856</v>
+        <v>90296.83669879881</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90503.31496859706</v>
+        <v>91192.80195128206</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91402.32513065108</v>
+        <v>92097.10137231369</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92310.02247420073</v>
+        <v>93010.11713130445</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93226.80581098853</v>
+        <v>93932.25174472085</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>94153.09418965764</v>
+        <v>94863.92819072137</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>95089.3269634124</v>
+        <v>95805.5899774784</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>96035.96380990397</v>
+        <v>96757.70116309967</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>96993.48470226364</v>
+        <v>97720.74632611818</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>97962.3898299768</v>
+        <v>98695.23048529685</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>98943.19946844086</v>
+        <v>99681.67896740537</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>99936.45379654734</v>
+        <v>100680.6372225237</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>100942.7126612984</v>
+        <v>101692.6705856433</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>101962.5552892095</v>
+        <v>102718.3639845122</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>102996.5799439551</v>
+        <v>103758.3215930418</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>104045.4035301542</v>
+        <v>104813.1664302133</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>105109.6611433909</v>
+        <v>105883.5399046228</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>106190.0055667728</v>
+        <v>106970.1013048946</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>107287.1067142613</v>
+        <v>108073.5272362304</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>108401.6510217661</v>
+        <v>109194.5110041527</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>109534.3407866833</v>
+        <v>110333.7619460183</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>110685.8934570609</v>
+        <v>111492.004711621</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>111857.0408717061</v>
+        <v>112669.978494101</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>113048.5284527873</v>
+        <v>113868.4362128179</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>114261.1143526044</v>
+        <v>115088.1436498472</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>115495.5685566977</v>
+        <v>116329.8785422861</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>116752.6719451732</v>
+        <v>117594.4296322562</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>118033.2153149141</v>
+        <v>118882.5956773871</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>119337.9983649309</v>
+        <v>120195.1844239262</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>120667.8286480657</v>
+        <v>121533.0115458527</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>122023.520491299</v>
+        <v>122896.8995521973</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>123405.8938885624</v>
+        <v>124287.676666517</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>124815.7733688055</v>
+        <v>125706.1756813699</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>126253.986842661</v>
+        <v>127153.2327910877</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>127721.3644320148</v>
+        <v>128629.6864072615</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>129218.7372849782</v>
+        <v>130136.3759594326</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>130746.9363813211</v>
+        <v>131674.1406861504</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>132306.7913314361</v>
+        <v>133243.8184194374</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>133899.1291729858</v>
+        <v>134846.2443669372</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>135524.7731696517</v>
+        <v>136482.249896127</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>137184.541615675</v>
+        <v>138152.6613244526</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>138879.2466504779</v>
+        <v>139858.2987195509</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>140609.6930878227</v>
+        <v>141599.9747142693</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>142376.6772631372</v>
+        <v>143378.493339964</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>144180.9859038749</v>
+        <v>145194.6488831475</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>146023.3950262708</v>
+        <v>147049.2247688114</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>147904.6688635206</v>
+        <v>148942.9924754964</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>149825.5588284383</v>
+        <v>150876.7104852753</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>151786.8025153724</v>
+        <v>152851.1232734057</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>153789.1227449509</v>
+        <v>154866.9603413114</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>155833.2266550539</v>
+        <v>156924.9352963116</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>157919.8048425027</v>
+        <v>159025.7449826302</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>160049.5305579445</v>
+        <v>161170.0686662518</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>162223.0589582699</v>
+        <v>163358.5672778857</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>164441.0264188841</v>
+        <v>165591.8827165524</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>166704.0499092647</v>
+        <v>167870.6372171183</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>169012.7264348185</v>
+        <v>170195.4327848927</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>171367.6325468085</v>
+        <v>172566.850699111</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>173769.3239237618</v>
+        <v>174985.4510886475</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>176218.3350256275</v>
+        <v>177451.7725813788</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>178715.1788231238</v>
+        <v>179966.3320295174</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>181260.3466037306</v>
+        <v>182529.6243125358</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>183854.3078557565</v>
+        <v>185142.1222189963</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>186497.5102318245</v>
+        <v>187804.2764087412</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>189190.3795922464</v>
+        <v>190516.5154558524</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>191933.3201294834</v>
+        <v>193279.2459736279</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>194726.714573824</v>
+        <v>196092.8528217076</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>197570.9244802236</v>
+        <v>198957.6993952499</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>200466.2905964241</v>
+        <v>201874.1279963441</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>203413.1333120076</v>
+        <v>204842.460287243</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>206411.753187447</v>
+        <v>207862.9978245</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>209462.4315624645</v>
+        <v>210936.0226733158</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>212565.4312425595</v>
+        <v>214061.7981009254</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>215720.9972622389</v>
+        <v>217240.5693475356</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>218929.3577233029</v>
+        <v>220472.5644731813</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>222190.7247064608</v>
+        <v>223757.9952787009</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>225505.2952542466</v>
+        <v>227097.0582988214</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>228873.2524227732</v>
+        <v>230489.935864829</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>232294.7664001885</v>
+        <v>233936.7972346896</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>235769.9956888727</v>
+        <v>237437.7997875977</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>239299.0883489767</v>
+        <v>240993.0902805328</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>242882.1833001086</v>
+        <v>244602.8061636042</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>246519.411678185</v>
+        <v>248267.076951133</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>250210.8982441131</v>
+        <v>251986.0256451447</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>253956.7628414749</v>
+        <v>255759.7702083382</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>257757.1218992013</v>
+        <v>259588.4250825623</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>261612.0899761773</v>
+        <v>263472.1027496113</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>265521.7813443594</v>
+        <v>267410.9153309277</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>269486.3116062411</v>
+        <v>271404.9762220144</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>273505.7993439845</v>
+        <v>275454.4017587872</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>277580.3677957946</v>
+        <v>279559.3129114279</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>281710.1465562092</v>
+        <v>283719.837002371</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>285895.2732972875</v>
+        <v>287936.1094453433</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>290135.8955060471</v>
+        <v>292208.2755007787</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>294432.1722355626</v>
+        <v>296536.4920449727</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>298784.2758660738</v>
+        <v>300920.9293492734</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>303192.3938724721</v>
+        <v>305361.7728656633</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>307656.7305951469</v>
+        <v>309859.2250156295</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>312177.5090110328</v>
+        <v>314413.5069791744</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>316754.9725015463</v>
+        <v>319024.8604805723</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>321389.3866148043</v>
+        <v>323693.5495682552</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>326081.0408191493</v>
+        <v>328419.8623858142</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>330830.2502450874</v>
+        <v>333204.1129311736</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>335637.3574039651</v>
+        <v>338046.6427921378</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>340502.7339178227</v>
+        <v>342947.8228931499</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>345426.7822042332</v>
+        <v>347908.0551963891</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>350409.9371494823</v>
+        <v>352927.774390995</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>355452.6677588786</v>
+        <v>358007.4495590241</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>360555.478783162</v>
+        <v>363147.5858171231</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>365718.9123190927</v>
+        <v>368348.7259319838</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>370943.5493830208</v>
+        <v>373611.4519083211</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>376230.0114562769</v>
+        <v>378936.3865482617</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>381578.9620010394</v>
+        <v>384324.1949807251</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>386991.1079460781</v>
+        <v>389775.5861602158</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>392467.2011418338</v>
+        <v>395291.3143344846</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>398008.0397836845</v>
+        <v>400872.1804798674</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>403614.4698035534</v>
+        <v>406519.0337044924</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>409287.3862294185</v>
+        <v>412232.7726188715</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>415027.7345123924</v>
+        <v>418014.3466735868</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>420836.5118216216</v>
+        <v>423864.7574642629</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>426714.7683075943</v>
+        <v>429785.060004484</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>432663.6083323525</v>
+        <v>435776.3639650887</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>438684.191669588</v>
+        <v>441839.8348828796</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>444777.7346723825</v>
+        <v>447976.6953364629</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>450945.5114114865</v>
+        <v>454188.2260921779</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>457188.8547820177</v>
+        <v>460475.7672179415</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>463509.1575824692</v>
+        <v>466840.7191689636</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>469907.8735633988</v>
+        <v>473284.54384266</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>476386.5184487564</v>
+        <v>479808.7656057859</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>482946.6709293603</v>
+        <v>486414.9722932609</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>489589.9736301188</v>
+        <v>493104.8161803236</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>496318.1340501696</v>
+        <v>499880.0149271879</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>503132.9254781075</v>
+        <v>506742.352498382</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>510036.1878822878</v>
+        <v>513693.6800567773</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>517029.8287759186</v>
+        <v>520735.9168320072</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>524115.8240587366</v>
+        <v>527871.050965126</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>531296.2188344542</v>
+        <v>535101.1403286431</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>538573.1282045189</v>
+        <v>542428.3133225436</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>545948.738038528</v>
+        <v>549854.7696466062</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>553425.3057208516</v>
+        <v>557382.7810485854</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>561005.1608728687</v>
+        <v>565014.6920476983</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>568690.7060515624</v>
+        <v>572752.9206341095</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>576484.4174225677</v>
+        <v>580599.9589425768</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>584388.8454071631</v>
+        <v>588558.3738996926</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>592406.6153029752</v>
+        <v>596630.8078445367</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>600540.4278756117</v>
+        <v>604819.9791199156</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>608793.0599212004</v>
+        <v>613128.6826342017</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>617167.3647967818</v>
+        <v>621559.7903906675</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>625666.2729171081</v>
+        <v>630116.2519829113</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>634292.7922152337</v>
+        <v>638801.0950537014</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>643050.0085644493</v>
+        <v>647617.425714825</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>651941.0861577293</v>
+        <v>656568.428924053</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>660969.26784258</v>
+        <v>665657.368817116</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>670137.8754066973</v>
+        <v>674887.5889900934</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>679450.3098101248</v>
+        <v>684262.5127278431</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>688910.0513606026</v>
+        <v>693785.6431751647</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>698520.6598264773</v>
+        <v>703460.5634450656</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>708285.7744819561</v>
+        <v>713290.9366588029</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>718209.1140794334</v>
+        <v>723280.5059124905</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>728294.4767433882</v>
+        <v>733433.0941646526</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>738545.7397779458</v>
+        <v>743752.6040368498</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>748966.8593836135</v>
+        <v>754243.017522772</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>759561.8702737361</v>
+        <v>764908.3955963661</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>770334.885184127</v>
+        <v>775752.877712362</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>781290.0942692013</v>
+        <v>786780.6811924919</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>792431.7643722522</v>
+        <v>797996.1004849832</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>803764.2381660221</v>
+        <v>809403.506293426</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>815291.9331505796</v>
+        <v>821007.3445619657</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>827019.3404997404</v>
+        <v>832812.1353079908</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>838951.0237471557</v>
+        <v>844822.4712933808</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>851091.6172996633</v>
+        <v>857043.0165218299</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>863445.8247688005</v>
+        <v>869478.5045531241</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>876018.4171075026</v>
+        <v>882133.7366212254</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>888814.2305416311</v>
+        <v>895013.5795458544</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>901838.1642837473</v>
+        <v>908122.9634248007</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>915095.1780163065</v>
+        <v>921466.8790941378</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>928590.2891327752</v>
+        <v>935050.3753447282</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>942328.5697223038</v>
+        <v>948878.5558805494</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>956315.1432856235</v>
+        <v>962956.576006495</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>970555.181167946</v>
+        <v>977289.6390312646</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>985053.8986958147</v>
+        <v>991882.9923722609</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>999816.5510032061</v>
+        <v>1006741.923347683</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1014848.428533273</v>
+        <v>1021871.754642136</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1030154.852201214</v>
+        <v>1037277.839431135</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1045741.168204098</v>
+        <v>1052965.556150274</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1061612.742463742</v>
+        <v>1068940.302895035</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1077774.954686953</v>
+        <v>1085207.491435518</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1094233.192031005</v>
+        <v>1101772.54083382</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1110992.842358533</v>
+        <v>1118640.870648204</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1128059.287069068</v>
+        <v>1135817.893711211</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1145437.893493307</v>
+        <v>1153309.008467689</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1163134.006836785</v>
+        <v>1171119.590859384</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1181152.941660417</v>
+        <v>1189254.985743464</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1199499.972886577</v>
+        <v>1207720.497833601</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1218180.326316712</v>
+        <v>1226521.382149508</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1237199.168652737</v>
+        <v>1245662.833967213</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1256561.597010133</v>
+        <v>1265149.978257844</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1276272.627914061</v>
+        <v>1284987.85860627</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1296337.185770446</v>
+        <v>1305181.425601495</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1316760.09080602</v>
+        <v>1325735.524692807</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1337546.046470285</v>
+        <v>1346654.883504568</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1358699.62629509</v>
+        <v>1367944.098605405</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>916789.7073377336</v>
+        <v>1037114.772429809</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>932386.5946392007</v>
+        <v>1054332.564635681</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>948270.3650632554</v>
+        <v>1071861.016263118</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>964444.1249999157</v>
+        <v>1089703.420410652</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>980910.8284610028</v>
+        <v>1107862.903445643</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>997673.2652165755</v>
+        <v>1126342.411960363</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1014734.048548145</v>
+        <v>1145144.69931106</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1032095.60262541</v>
+        <v>1164272.311747752</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1049760.149516156</v>
+        <v>1183727.57414553</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1067729.695843788</v>
+        <v>1203512.575353619</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1086006.019105225</v>
+        <v>1223629.153176312</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1104590.653665163</v>
+        <v>1244078.879003639</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1123484.876447883</v>
+        <v>1264863.042115216</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1142689.69234686</v>
+        <v>1285982.633679681</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1162205.819375873</v>
+        <v>1307438.330475912</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1182033.673590569</v>
+        <v>1329230.478367914</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1202173.353807298</v>
+        <v>1351359.075562996</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1222624.626153235</v>
+        <v>1373823.755690547</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1243386.908484238</v>
+        <v>1396623.770741593</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1264459.254705187</v>
+        <v>1419757.973907216</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1285840.339038038</v>
+        <v>1443224.802365465</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1307528.440277598</v>
+        <v>1467022.260060689</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1329521.426086866</v>
+        <v>1491147.900532047</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1351816.737377363</v>
+        <v>1515598.80984088</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1374411.37283043</v>
+        <v>1540371.589658407</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1397301.873615123</v>
+        <v>1565462.340574293</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1420484.308360187</v>
+        <v>1590866.645689212</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1443954.258442761</v>
+        <v>1616579.554559629</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1467706.803657775</v>
+        <v>1642595.567564816</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1491736.508334668</v>
+        <v>1668908.620768708</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1516037.407969415</v>
+        <v>1695512.07135083</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1540602.99644471</v>
+        <v>1722398.683685723</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1565426.213909615</v>
+        <v>1749560.616148576</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1590499.435394134</v>
+        <v>1776989.408729266</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1615814.46023512</v>
+        <v>1804675.971538047</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1641362.50238964</v>
+        <v>1832610.57428566</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1667134.181713434</v>
+        <v>1860782.836822424</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1693119.516285595</v>
+        <v>1889181.72082442</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1719307.915853813</v>
+        <v>1917795.522707627</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1745688.176480239</v>
+        <v>1946611.867856904</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1772248.476465655</v>
+        <v>1975617.706254221</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1798976.373625694</v>
+        <v>2004799.30958605</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1825858.80399583</v>
+        <v>2034142.269913193</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1852882.082032599</v>
+        <v>2063631.49997603</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1880031.902386319</v>
+        <v>2093251.235216754</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1907293.343303313</v>
+        <v>2122985.037581249</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1934650.871727061</v>
+        <v>2152815.801175683</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1962088.350147951</v>
+        <v>2182725.7598314</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1989589.045261051</v>
+        <v>2212696.49664206</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2017135.638472716</v>
+        <v>2242708.955517044</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2044710.238300786</v>
+        <v>2272743.454799037</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2072294.394699212</v>
+        <v>2302779.702978771</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2099869.115336486</v>
+        <v>2332796.816538133</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2127414.883844967</v>
+        <v>2362773.339939663</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2154911.680052876</v>
+        <v>2392687.267774357</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2115440.260167127</v>
+        <v>2345115.893280441</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2142040.25432592</v>
+        <v>2373990.781463524</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2168530.293613188</v>
+        <v>2402736.353364662</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2194889.046348707</v>
+        <v>2431329.20343206</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2221094.813737548</v>
+        <v>2459745.525863014</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2247125.560891261</v>
+        <v>2487961.14842139</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2272958.949612435</v>
+        <v>2515951.568167794</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2298572.37287137</v>
+        <v>2543691.989024552</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2323942.990902703</v>
+        <v>2571157.361096667</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2349047.768839625</v>
+        <v>2598322.42165868</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2373863.515783559</v>
+        <v>2625161.737696296</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2398366.925212576</v>
+        <v>2651649.74989729</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2422534.616606247</v>
+        <v>2677760.817958598</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2446343.178168075</v>
+        <v>2703469.2670803</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2469769.210512172</v>
+        <v>2728749.435501639</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2616789.758796216</v>
+        <v>2877188.387875624</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2640419.167067522</v>
+        <v>2902570.636464918</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2663581.828473896</v>
+        <v>2927433.692886055</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2686254.153211906</v>
+        <v>2951751.74919764</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2708412.809442575</v>
+        <v>2975499.275956812</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2730034.771487309</v>
+        <v>2998651.074451178</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2751097.367845047</v>
+        <v>3021182.32873491</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2771578.328843415</v>
+        <v>3043068.657266985</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2791455.833735849</v>
+        <v>3064286.16394884</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2810708.557053493</v>
+        <v>3084811.488355516</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2969232.924048338</v>
+        <v>3282529.117810889</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2988114.172859256</v>
+        <v>3302765.445485494</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3006289.395939325</v>
+        <v>3322216.341664304</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3023739.243650814</v>
+        <v>3340860.509567221</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3040445.114054144</v>
+        <v>3358677.469371942</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3056389.192579468</v>
+        <v>3375647.60151435</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3071554.489604257</v>
+        <v>3391752.187710954</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3085924.875772757</v>
+        <v>3406973.449525568</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3099485.114899322</v>
+        <v>3421294.584309255</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3112220.894312018</v>
+        <v>3434699.798358175</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2705795.281236216</v>
+        <v>3073558.44216468</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2714966.950121713</v>
+        <v>3083389.314860483</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2723344.478068228</v>
+        <v>3092323.139196024</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2730917.404169681</v>
+        <v>3100348.35670412</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2737676.152883962</v>
+        <v>3107454.405856258</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2743612.045012654</v>
+        <v>3113631.734451253</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2748717.305866682</v>
+        <v>3118871.808865462</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2752985.0705879</v>
+        <v>3123167.120128678</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2756409.386628596</v>
+        <v>3126511.186824421</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2758985.213385815</v>
+        <v>3128898.554807497</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2281983.499304551</v>
+        <v>2458457.37207017</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2281431.214870795</v>
+        <v>2456946.34825892</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2280085.777826375</v>
+        <v>2454559.860495935</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2277943.977478554</v>
+        <v>2451294.024238283</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2275003.307633255</v>
+        <v>2447145.704015911</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2271261.952828908</v>
+        <v>2442112.498800347</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2266718.772778379</v>
+        <v>2436192.725470646</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2261373.28515539</v>
+        <v>2429385.400522777</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2255225.646907066</v>
+        <v>2421690.220217401</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2248276.63426048</v>
+        <v>2413107.539346378</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2267935.435182687</v>
+        <v>2468473.723440394</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2259466.590967087</v>
+        <v>2458242.098820748</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2250200.20749533</v>
+        <v>2447122.498413417</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2240139.496897385</v>
+        <v>2435118.108672493</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2229288.186099553</v>
+        <v>2422232.671924945</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2217650.493366347</v>
+        <v>2408470.460991732</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2205231.105213626</v>
+        <v>2393836.254206332</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2192035.153985928</v>
+        <v>2378335.31115147</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2178068.196405972</v>
+        <v>2361973.349451957</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2163336.193405704</v>
+        <v>2344756.522965072</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2147845.491567866</v>
+        <v>2326691.401732513</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2131602.806493704</v>
+        <v>2307784.954045841</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2114615.208437398</v>
+        <v>2288044.531006196</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2096890.110523223</v>
+        <v>2267477.853934733</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2078435.259880261</v>
+        <v>2246093.005013478</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2059258.73201134</v>
+        <v>2223898.421518513</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2039368.928701651</v>
+        <v>2200902.893998457</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2018774.579768423</v>
+        <v>2177115.568749151</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1997484.748925001</v>
+        <v>2152545.954907789</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1975508.844012084</v>
+        <v>2127203.936470032</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1952856.631827113</v>
+        <v>2101099.789512333</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1929538.257737007</v>
+        <v>2074244.204854388</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1905564.270235633</v>
+        <v>2046648.316372522</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1880945.650543818</v>
+        <v>2018323.735107579</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1855693.847320554</v>
+        <v>1989282.589279689</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1829820.816473272</v>
+        <v>1959537.570235891</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1803339.066015707</v>
+        <v>1929101.984312495</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1776261.705829245</v>
+        <v>1897989.810493198</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1748602.502130067</v>
+        <v>1866215.763683378</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1720375.936349956</v>
+        <v>1833795.363315339</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1691597.26805696</v>
+        <v>1800745.006906579</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1662282.601459678</v>
+        <v>1767082.048098279</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1632448.954938138</v>
+        <v>1732824.878584915</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1602114.332954552</v>
+        <v>1697993.013241097</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1571297.799600013</v>
+        <v>1662607.177636605</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1540019.552938564</v>
+        <v>1626689.397017632</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1508300.999222937</v>
+        <v>1590263.085725734</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1476164.82594614</v>
+        <v>1553353.135894131</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1443635.072639438</v>
+        <v>1515986.004188072</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1410737.198221659</v>
+        <v>1478189.795227466</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24232037.22052358</v>
+        <v>24191322.70272157</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28293.81900312086</v>
+        <v>28246.29909741954</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>28669.85941663422</v>
+        <v>28621.72750548006</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29050.70370798052</v>
+        <v>29001.95236323695</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>29436.40016944034</v>
+        <v>29387.02190328536</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>29826.99667469486</v>
+        <v>29776.9839413118</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>30222.5406164736</v>
+        <v>30171.88581390658</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>30623.07884179821</v>
+        <v>30571.77431393169</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>31028.65758496908</v>
+        <v>30976.69562372488</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>31439.32239790223</v>
+        <v>31386.69524556471</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>31855.1180783345</v>
+        <v>31801.81793006273</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>32276.08859590803</v>
+        <v>32222.10760245998</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>32702.27701586534</v>
+        <v>32647.60728644891</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>33133.72542104594</v>
+        <v>33078.35902641309</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>33570.47483168279</v>
+        <v>33514.40380741197</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>34012.5651238383</v>
+        <v>33955.78147378237</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>34460.03494598613</v>
+        <v>34402.53064598607</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>34912.92163437649</v>
+        <v>34854.68863609589</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>35371.26112728044</v>
+        <v>35312.29136234386</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>35835.08787814951</v>
+        <v>35775.37326243812</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>36304.4347683747</v>
+        <v>36243.96720651558</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>36779.33301937735</v>
+        <v>36718.10440952773</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>37259.81210478041</v>
+        <v>37197.81434354078</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>37745.89966285893</v>
+        <v>37683.12465044217</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>38237.62140935967</v>
+        <v>38174.06105499896</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>38735.00105151102</v>
+        <v>38670.64727900635</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>39238.06020323597</v>
+        <v>39172.90495678356</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39746.81830213318</v>
+        <v>39680.85355232281</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>40261.29252878648</v>
+        <v>40194.51027878914</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40781.49772857049</v>
+        <v>40713.89002055382</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>41307.44633675734</v>
+        <v>41239.00525845872</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>41839.14830724215</v>
+        <v>41769.86599872954</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42376.6110454309</v>
+        <v>42306.47970602784</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42919.83934601777</v>
+        <v>42848.85124139601</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>43468.8353359058</v>
+        <v>43396.9828053184</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>44023.59842326483</v>
+        <v>43950.87388690147</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>44584.12525289388</v>
+        <v>44510.52121935991</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>45150.40966894464</v>
+        <v>45075.91874285068</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>45722.44268535516</v>
+        <v>45647.05757496514</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>46300.21246475621</v>
+        <v>46223.92598972715</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>46883.70430634691</v>
+        <v>46806.5094054921</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>47472.90064393051</v>
+        <v>47394.79038298611</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>48067.78105393471</v>
+        <v>47988.74863335944</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>48668.32227492275</v>
+        <v>48588.36103765163</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>49274.49823881072</v>
+        <v>49193.60167793665</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>49886.28011442822</v>
+        <v>49804.44188079725</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>50503.63636455547</v>
+        <v>50420.85027428254</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>51126.53281647353</v>
+        <v>51042.7928582669</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>51754.93274711313</v>
+        <v>51670.23308942551</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>52388.79698332565</v>
+        <v>52303.13198130672</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>53028.08401781204</v>
+        <v>52941.4482199975</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>53672.75014135127</v>
+        <v>53585.13829603057</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>54322.74959176884</v>
+        <v>54234.15665309631</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>54978.03472056038</v>
+        <v>54888.45585420477</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>55638.55617702125</v>
+        <v>55547.98676550224</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>56304.26311086739</v>
+        <v>56212.69875833862</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>56975.10339368277</v>
+        <v>56882.53993027651</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>57651.02385908705</v>
+        <v>57557.45734473559</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>58331.97056254015</v>
+        <v>58237.39729016479</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>59017.8890606883</v>
+        <v>58922.30555877198</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>59708.72471043207</v>
+        <v>59612.12774492732</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>60404.42298785394</v>
+        <v>60306.80956335316</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>61104.92982731537</v>
+        <v>61006.29718749021</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>61810.19198002582</v>
+        <v>61710.53760718473</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>62520.15739297132</v>
+        <v>62419.47900681839</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>63234.77560694527</v>
+        <v>63133.07116240136</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>63953.99817414317</v>
+        <v>63851.26585824766</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>64677.77909483398</v>
+        <v>64574.01732259635</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>65406.07527239103</v>
+        <v>65301.28268166647</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>66138.8469862877</v>
+        <v>66033.02243154201</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>66876.05838264036</v>
+        <v>66769.20092760614</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>67617.67798114161</v>
+        <v>67509.78689032534</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>68363.67919792785</v>
+        <v>68254.75392687971</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>69114.0408832243</v>
+        <v>69004.08106767159</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69868.747872846</v>
+        <v>69757.75331647035</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>70627.79155235027</v>
+        <v>70515.76221333073</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>71391.17043275075</v>
+        <v>71278.10640899597</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>72158.89073620562</v>
+        <v>72044.79224920628</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>72930.96699061983</v>
+        <v>72815.8343680157</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>73707.42263128686</v>
+        <v>73591.25628795252</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>74488.29060816248</v>
+        <v>74371.09102604898</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>75273.61399708599</v>
+        <v>75155.38170352005</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>76063.44661301465</v>
+        <v>75944.18215771766</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>76857.85362355657</v>
+        <v>76737.5575541798</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>77656.91216086279</v>
+        <v>77535.5849971704</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>78460.71192947609</v>
+        <v>78338.35413615443</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>79269.35580882135</v>
+        <v>79145.96776686958</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>80082.96044755046</v>
+        <v>79958.54242434489</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>80901.65684754703</v>
+        <v>80776.20896557724</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>81725.59093590052</v>
+        <v>81599.11314020469</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>82554.92412207769</v>
+        <v>82427.41614641501</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>83389.83383807557</v>
+        <v>83261.29516982788</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>84230.51405934819</v>
+        <v>84100.94390331386</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>85077.17580427194</v>
+        <v>84946.57304529227</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>85930.04760937032</v>
+        <v>85798.41077385405</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>86789.37597853498</v>
+        <v>86656.7031950165</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>87655.42580350534</v>
+        <v>87521.71476223155</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>88528.48075361554</v>
+        <v>88393.72866527255</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89408.84363239977</v>
+        <v>89273.04718601753</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90296.83669879881</v>
+        <v>90159.99201897329</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91192.80195128206</v>
+        <v>91054.90455474347</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92097.10137231369</v>
+        <v>91958.14612398189</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93010.11713130445</v>
+        <v>92870.09819988215</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93932.25174472085</v>
+        <v>93791.1625579759</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>94863.92819072137</v>
+        <v>94721.7613905082</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>95805.5899774784</v>
+        <v>95662.33737466521</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>96757.70116309967</v>
+        <v>96613.35369246147</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>97720.74632611818</v>
+        <v>97575.29400134501</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>98695.23048529685</v>
+        <v>98548.66235423478</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>99681.67896740537</v>
+        <v>99533.98306761202</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>100680.6372225237</v>
+        <v>100531.8005373299</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>101692.6705856433</v>
+        <v>101542.6790007729</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>102718.3639845122</v>
+        <v>102567.2022454517</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>103758.3215930418</v>
+        <v>103605.9732632234</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>104813.1664302133</v>
+        <v>104659.613850201</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>105883.5399046228</v>
+        <v>105728.764152378</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>106970.1013048946</v>
+        <v>106814.0821572702</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>108073.5272362304</v>
+        <v>107916.2431318352</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>109194.5110041527</v>
+        <v>109035.9390076765</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>110333.7619460183</v>
+        <v>110173.8777141522</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>111492.004711621</v>
+        <v>111330.7824607078</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>112669.978494101</v>
+        <v>112507.3909696231</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>113868.4362128179</v>
+        <v>113704.4546608118</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>115088.1436498472</v>
+        <v>114922.7377903984</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>116329.8785422861</v>
+        <v>116163.0165451686</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>117594.4296322562</v>
+        <v>117426.0780948386</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>118882.5956773871</v>
+        <v>118712.7196048936</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>120195.1844239262</v>
+        <v>120023.7472121261</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>121533.0115458527</v>
+        <v>121359.9749662956</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>122896.8995521973</v>
+        <v>122722.2237400186</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>124287.676666517</v>
+        <v>124111.3201109245</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>125706.1756813699</v>
+        <v>125528.095218857</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>127153.2327910877</v>
+        <v>126973.3836014036</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>128629.6864072615</v>
+        <v>128448.0220122101</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>130136.3759594326</v>
+        <v>129952.848224542</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>131674.1406861504</v>
+        <v>131488.6998251863</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>133243.8184194374</v>
+        <v>133056.4130018371</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>134846.2443669372</v>
+        <v>134656.8213281456</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>136482.249896127</v>
+        <v>136290.7545508331</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>138152.6613244526</v>
+        <v>137959.0373826963</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>139858.2987195509</v>
+        <v>139662.4883057373</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>141599.9747142693</v>
+        <v>141401.9183889789</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>143378.493339964</v>
+        <v>143178.1301245985</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>145194.6488831475</v>
+        <v>144991.9162872933</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>147049.2247688114</v>
+        <v>146844.0588203024</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>148942.9924754964</v>
+        <v>148735.3277531015</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>150876.7104852753</v>
+        <v>150666.4801539084</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>152851.1232734057</v>
+        <v>152638.2591217994</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>154866.9603413114</v>
+        <v>154651.3928220407</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>156924.9352963116</v>
+        <v>156706.5935680589</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>159025.7449826302</v>
+        <v>158804.5569546047</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>161170.0686662518</v>
+        <v>160945.9610445919</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>163358.5672778857</v>
+        <v>163131.4656139603</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>165591.8827165524</v>
+        <v>165361.711457021</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>167870.6372171183</v>
+        <v>167637.3197555452</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>170195.4327848927</v>
+        <v>169958.8915148794</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>172566.850699111</v>
+        <v>172327.0070686486</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>174985.4510886475</v>
+        <v>174742.225655673</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>177451.7725813788</v>
+        <v>177205.0850702277</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>179966.3320295174</v>
+        <v>179716.1013882384</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>182529.6243125358</v>
+        <v>182275.768770775</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>185142.1222189963</v>
+        <v>184884.5593463477</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>187804.2764087412</v>
+        <v>187542.9231733595</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>190516.5154558524</v>
+        <v>190251.28828313</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>193279.2459736279</v>
+        <v>193010.0608047991</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>196092.8528217076</v>
+        <v>195819.6251721307</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>198957.6993952499</v>
+        <v>198680.3444122454</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>201874.1279963441</v>
+        <v>201592.5605163598</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>204842.460287243</v>
+        <v>204556.5948921959</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>207862.9978245</v>
+        <v>207572.7488970888</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>210936.0226733158</v>
+        <v>210641.3044511462</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>214061.7981009254</v>
+        <v>213762.5247292517</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>217240.5693475356</v>
+        <v>216936.6549304768</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>220472.5644731813</v>
+        <v>220163.9231232061</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>223757.9952787009</v>
+        <v>223444.541164253</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>227097.0582988214</v>
+        <v>226778.705689906</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>230489.935864829</v>
+        <v>230166.5991764175</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>233936.7972346896</v>
+        <v>233608.3910677887</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>237437.7997875977</v>
+        <v>237104.2389678535</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>240993.0902805328</v>
+        <v>240654.2898942217</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>244602.8061636042</v>
+        <v>244258.6815909051</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>248267.076951133</v>
+        <v>247917.5438965425</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>251986.0256451447</v>
+        <v>251631.0001649392</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>255759.7702083382</v>
+        <v>255399.1687349651</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>259588.4250825623</v>
+        <v>259222.1644458907</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>263472.1027496113</v>
+        <v>263100.1001949243</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>267410.9153309277</v>
+        <v>267033.0885336144</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>271404.9762220144</v>
+        <v>271021.2432988593</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>275454.4017587872</v>
+        <v>275064.6812758275</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>279559.3129114279</v>
+        <v>279163.5238883003</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>283719.837002371</v>
+        <v>283317.8989131384</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>287936.1094453433</v>
+        <v>287527.9422157325</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>292208.2755007787</v>
+        <v>291793.7995018326</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>296536.4920449727</v>
+        <v>296115.6280830905</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>300920.9293492734</v>
+        <v>300493.5986526334</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>305361.7728656633</v>
+        <v>304927.8970670255</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>309859.2250156295</v>
+        <v>309418.7261315328</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>314413.5069791744</v>
+        <v>313966.3073855464</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>319024.8604805723</v>
+        <v>318570.8828847667</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>323693.5495682552</v>
+        <v>323232.7169775647</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>328419.8623858142</v>
+        <v>327952.0980724821</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>333204.1129311736</v>
+        <v>332729.3403939561</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>338046.6427921378</v>
+        <v>337564.7857145031</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>342947.8228931499</v>
+        <v>342458.8050980843</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>347908.0551963891</v>
+        <v>347411.8005979576</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>352927.774390995</v>
+        <v>352424.2069426932</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>358007.4495590241</v>
+        <v>357496.4931989948</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>363147.5858171231</v>
+        <v>362629.1644103308</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>368348.7259319838</v>
+        <v>367822.7632094054</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>373611.4519083211</v>
+        <v>373077.8714032609</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>378936.3865482617</v>
+        <v>378395.1115298647</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>384324.1949807251</v>
+        <v>383775.1483847881</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>389775.5861602158</v>
+        <v>389218.6905173885</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>395291.3143344846</v>
+        <v>394726.4916959542</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>400872.1804798674</v>
+        <v>400299.3523406318</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>406519.0337044924</v>
+        <v>405938.1209243043</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>412232.7726188715</v>
+        <v>411643.6953409812</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>418014.3466735868</v>
+        <v>417417.0242413469</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>423864.7574642629</v>
+        <v>423259.1083357354</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>429785.060004484</v>
+        <v>429171.0016651058</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>435776.3639650887</v>
+        <v>435153.8128385423</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>441839.8348828796</v>
+        <v>441208.7062402208</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>447976.6953364629</v>
+        <v>447336.9032036466</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>454188.2260921779</v>
+        <v>453539.6831560396</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>460475.7672179415</v>
+        <v>459818.3847307571</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>466840.7191689636</v>
+        <v>466174.4068516644</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>473284.54384266</v>
+        <v>472609.2097868082</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>479808.7656057859</v>
+        <v>479124.3161743796</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>486414.9722932609</v>
+        <v>485721.3120204809</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>493104.8161803236</v>
+        <v>492401.8476702824</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>499880.0149271879</v>
+        <v>499167.6387517843</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>506742.352498382</v>
+        <v>506020.4670943274</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>513693.6800567773</v>
+        <v>512962.1816218797</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>520735.9168320072</v>
+        <v>519994.6992207897</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>527871.050965126</v>
+        <v>527120.0055838479</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>535101.1403286431</v>
+        <v>534340.1560298052</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>542428.3133225436</v>
+        <v>541657.276298939</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>549854.7696466062</v>
+        <v>549073.5633249902</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>557382.7810485854</v>
+        <v>556591.2859830391</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>565014.6920476983</v>
+        <v>564212.7858127323</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>572752.9206341095</v>
+        <v>571940.4777176003</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>580599.9589425768</v>
+        <v>579776.8506385749</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>588558.3738996926</v>
+        <v>587724.4682011865</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>596630.8078445367</v>
+        <v>595785.9693362251</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>604819.9791199156</v>
+        <v>603964.0688710555</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>613128.6826342017</v>
+        <v>612261.5580916012</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>621559.7903906675</v>
+        <v>620681.3052718894</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>630116.2519829113</v>
+        <v>629226.2561697506</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>638801.0950537014</v>
+        <v>637899.4344860071</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>647617.425714825</v>
+        <v>646703.9422847509</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>656568.428924053</v>
+        <v>655642.9603707886</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>665657.368817116</v>
+        <v>664719.7486222087</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>674887.5889900934</v>
+        <v>673937.6462734141</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>684262.5127278431</v>
+        <v>683300.0721442992</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>693785.6431751647</v>
+        <v>692810.5248122531</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>703460.5634450656</v>
+        <v>702472.5827213478</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>713290.9366588029</v>
+        <v>712289.9042234338</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>723280.5059124905</v>
+        <v>722266.2275458783</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>733433.0941646526</v>
+        <v>732405.3706803999</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>743752.6040368498</v>
+        <v>742711.2311850698</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>754243.017522772</v>
+        <v>753187.7858949391</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>764908.3955963661</v>
+        <v>763839.0905318409</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>775752.877712362</v>
+        <v>774669.2792067156</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>786780.6811924919</v>
+        <v>785682.5638078345</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>797996.1004849832</v>
+        <v>796883.2332624368</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>809403.506293426</v>
+        <v>808275.6526679451</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>821007.3445619657</v>
+        <v>819864.2622796877</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>832812.1353079908</v>
+        <v>831653.5763463415</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>844822.4712933808</v>
+        <v>843648.1817841355</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>857043.0165218299</v>
+        <v>855852.7366773968</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>869478.5045531241</v>
+        <v>868271.9685962599</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>882133.7366212254</v>
+        <v>880910.6727184815</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>895013.5795458544</v>
+        <v>893773.7097450092</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>908122.9634248007</v>
+        <v>906866.0035965897</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>921466.8790941378</v>
+        <v>920192.5388785717</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>935050.3753447282</v>
+        <v>933758.3581023373</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>948878.5558805494</v>
+        <v>947568.5586489009</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>962956.576006495</v>
+        <v>961628.2894623195</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>977289.6390312646</v>
+        <v>975942.7474586017</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>991882.9923722609</v>
+        <v>990517.1736369722</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1006741.923347683</v>
+        <v>1005356.848878788</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1021871.754642136</v>
+        <v>1020467.089420364</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1037277.839431135</v>
+        <v>1035853.24198515</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1052965.556150274</v>
+        <v>1051520.678561038</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1068940.302895035</v>
+        <v>1067474.790808776</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1085207.491435518</v>
+        <v>1083720.984085806</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1101772.54083382</v>
+        <v>1100264.671073256</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1118640.870648204</v>
+        <v>1117111.26499027</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1135817.893711211</v>
+        <v>1134266.172382784</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1153309.008467689</v>
+        <v>1151734.785472812</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1171119.590859384</v>
+        <v>1169522.474054864</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1189254.985743464</v>
+        <v>1187634.576926854</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1207720.497833601</v>
+        <v>1206076.392844197</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1226521.382149508</v>
+        <v>1224853.170982948</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1245662.833967213</v>
+        <v>1243970.100904317</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1265149.978257844</v>
+        <v>1263432.302008303</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1284987.85860627</v>
+        <v>1283244.812467828</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1305181.425601495</v>
+        <v>1303412.577635284</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1325735.524692807</v>
+        <v>1323940.43791545</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1346654.883504568</v>
+        <v>1344833.116097711</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1367944.098605405</v>
+        <v>1366095.204143344</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1037114.772429809</v>
+        <v>1072454.058914545</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1054332.564635681</v>
+        <v>1090164.462315644</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1071861.016263118</v>
+        <v>1108193.033539283</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1089703.420410652</v>
+        <v>1126543.138621515</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1107862.903445643</v>
+        <v>1145217.973273051</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1126342.411960363</v>
+        <v>1164220.549488614</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1145144.69931106</v>
+        <v>1183553.681727969</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1164272.311747752</v>
+        <v>1203219.97267668</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1183727.57414553</v>
+        <v>1223221.798597584</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1203512.575353619</v>
+        <v>1243561.294289631</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1223629.153176312</v>
+        <v>1264240.337668622</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1244078.879003639</v>
+        <v>1285260.533988091</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1264863.042115216</v>
+        <v>1306623.199724391</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1285982.633679681</v>
+        <v>1328329.346148921</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1307438.330475912</v>
+        <v>1350379.662614382</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1329230.478367914</v>
+        <v>1372774.499587676</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1351359.075562996</v>
+        <v>1395513.851459824</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1373823.755690547</v>
+        <v>1418597.339171191</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1396623.770741593</v>
+        <v>1442024.192693056</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1419757.973907216</v>
+        <v>1465793.233404676</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1443224.802365465</v>
+        <v>1489902.856416618</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1467022.260060689</v>
+        <v>1514351.012885406</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1491147.900532047</v>
+        <v>1539135.192377599</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1515598.80984088</v>
+        <v>1564252.405334269</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1540371.589658407</v>
+        <v>1589699.16569875</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1565462.340574293</v>
+        <v>1615471.473769845</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1590866.645689212</v>
+        <v>1641564.799345006</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1616579.554559629</v>
+        <v>1667974.065223547</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1642595.567564816</v>
+        <v>1694693.63114148</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1668908.620768708</v>
+        <v>1721717.278212547</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1695512.07135083</v>
+        <v>1749038.193951337</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1722398.683685723</v>
+        <v>1776648.957960028</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1749560.616148576</v>
+        <v>1804541.528358267</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1776989.408729266</v>
+        <v>1832707.22904057</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1804675.971538047</v>
+        <v>1861136.737846373</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1832610.57428566</v>
+        <v>1889820.075727752</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1860782.836822424</v>
+        <v>1918746.597001331</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1889181.72082442</v>
+        <v>1947904.980774792</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1917795.522707627</v>
+        <v>1977283.223630801</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1946611.867856904</v>
+        <v>2006868.633657516</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1975617.706254221</v>
+        <v>2036647.825912084</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2004799.30958605</v>
+        <v>2066606.719399168</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2034142.269913193</v>
+        <v>2096730.535649863</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2063631.49997603</v>
+        <v>2127003.798975782</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2093251.235216754</v>
+        <v>2157410.338482099</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2122985.037581249</v>
+        <v>2187933.291903687</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2152815.801175683</v>
+        <v>2218555.111341516</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2182725.7598314</v>
+        <v>2249257.570954118</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2212696.49664206</v>
+        <v>2280021.77667003</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2242708.955517044</v>
+        <v>2310828.177966155</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2272743.454799037</v>
+        <v>2341656.581761518</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2302779.702978771</v>
+        <v>2372486.168460111</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2332796.816538133</v>
+        <v>2403295.510175299</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2362773.339939663</v>
+        <v>2434062.591153981</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2392687.267774357</v>
+        <v>2464764.830413342</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2345115.893280441</v>
+        <v>2436609.396087276</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2373990.781463524</v>
+        <v>2466468.127821069</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2402736.353364662</v>
+        <v>2496192.874111032</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2431329.20343206</v>
+        <v>2525759.469503672</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2459745.525863014</v>
+        <v>2555143.334603268</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2487961.14842139</v>
+        <v>2584319.510930615</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2515951.568167794</v>
+        <v>2613262.697755316</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2543691.989024552</v>
+        <v>2641947.290821195</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2571157.361096667</v>
+        <v>2670347.422883573</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2598322.42165868</v>
+        <v>2698437.005965439</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2625161.737696296</v>
+        <v>2726189.77521788</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2651649.74989729</v>
+        <v>2753579.334275927</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2677760.817958598</v>
+        <v>2780579.20197244</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2703469.2670803</v>
+        <v>2807162.860276688</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2728749.435501639</v>
+        <v>2833303.803308029</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2877188.387875624</v>
+        <v>2957982.036027727</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2902570.636464918</v>
+        <v>2983987.503689815</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2927433.692886055</v>
+        <v>3009459.705466825</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2951751.74919764</v>
+        <v>3034372.138164372</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2975499.275956812</v>
+        <v>3058698.580360393</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2998651.074451178</v>
+        <v>3082413.145818321</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3021182.32873491</v>
+        <v>3105490.336702458</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3043068.657266985</v>
+        <v>3127905.09638898</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3064286.16394884</v>
+        <v>3149632.861665334</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3084811.488355516</v>
+        <v>3170649.614107517</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3282529.117810889</v>
+        <v>3248287.424881008</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3302765.445485494</v>
+        <v>3268243.747858237</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3322216.341664304</v>
+        <v>3287413.096987838</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3340860.509567221</v>
+        <v>3305773.924468502</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3358677.469371942</v>
+        <v>3323305.47970986</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3375647.60151435</v>
+        <v>3339987.852254218</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3391752.187710954</v>
+        <v>3355802.01246339</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3406973.449525568</v>
+        <v>3370729.849797511</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3421294.584309255</v>
+        <v>3384754.208519333</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3434699.798358175</v>
+        <v>3397858.92067427</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3073558.44216468</v>
+        <v>3147763.581649369</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3083389.314860483</v>
+        <v>3157769.983119392</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3092323.139196024</v>
+        <v>3166856.199632204</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3100348.35670412</v>
+        <v>3175010.24281154</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3107454.405856258</v>
+        <v>3182221.139436133</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3113631.734451253</v>
+        <v>3188478.944528427</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3118871.808865462</v>
+        <v>3193774.751299518</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3123167.120128678</v>
+        <v>3198100.697919086</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3126511.186824421</v>
+        <v>3201449.971114628</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3128898.554807497</v>
+        <v>3203816.806598631</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2458457.37207017</v>
+        <v>2109248.378465318</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2456946.34825892</v>
+        <v>2106350.522601323</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2454559.860495935</v>
+        <v>2102607.668307281</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2451294.024238283</v>
+        <v>2098014.175031532</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2447145.704015911</v>
+        <v>2092565.030561453</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2442112.498800347</v>
+        <v>2086255.839487224</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2436192.725470646</v>
+        <v>2079082.810300327</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2429385.400522777</v>
+        <v>2071042.741295111</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2421690.220217401</v>
+        <v>2062133.005487301</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2413107.539346378</v>
+        <v>2052351.534753211</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2468473.723440394</v>
+        <v>2123185.365561332</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2458242.098820748</v>
+        <v>2111807.667267959</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2447122.498413417</v>
+        <v>2099548.580601249</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2435118.108672493</v>
+        <v>2086408.647671742</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2422232.671924945</v>
+        <v>2072388.907506913</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2408470.460991732</v>
+        <v>2057490.879874243</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2393836.254206332</v>
+        <v>2041716.550246186</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2378335.31115147</v>
+        <v>2025068.356251282</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2361973.349451957</v>
+        <v>2007549.17597185</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2344756.522965072</v>
+        <v>1989162.318451844</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2326691.401732513</v>
+        <v>1969911.516798978</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2307784.954045841</v>
+        <v>1949800.924253075</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2288044.531006196</v>
+        <v>1928835.113617269</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2267477.853934733</v>
+        <v>1907019.080424614</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2246093.005013478</v>
+        <v>1884358.250230184</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2223898.421518513</v>
+        <v>1860858.490398848</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2200902.893998457</v>
+        <v>1836526.126745764</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2177115.568749151</v>
+        <v>1811367.965378157</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2152545.954907789</v>
+        <v>1785391.320054693</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2127203.936470032</v>
+        <v>1758604.045351973</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2101099.789512333</v>
+        <v>1731014.575897631</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2074244.204854388</v>
+        <v>1702631.971875087</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2046648.316372522</v>
+        <v>1673465.970969226</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2018323.735107579</v>
+        <v>1643527.04684579</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1989282.589279689</v>
+        <v>1612826.474211936</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1959537.570235891</v>
+        <v>1581376.40040738</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1929101.984312495</v>
+        <v>1549189.923414864</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1897989.810493198</v>
+        <v>1516281.17606361</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1866215.763683378</v>
+        <v>1482665.416119708</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1833795.363315339</v>
+        <v>1448359.121834318</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1800745.006906579</v>
+        <v>1413380.092408282</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1767082.048098279</v>
+        <v>1377747.552714801</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1732824.878584915</v>
+        <v>1341482.261485661</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1697993.013241097</v>
+        <v>1304606.622038007</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1662607.177636605</v>
+        <v>1267144.794481568</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1626689.397017632</v>
+        <v>1229122.80821024</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1590263.085725734</v>
+        <v>1190568.673351936</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1553353.135894131</v>
+        <v>1151512.489698925</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1515986.004188072</v>
+        <v>1111986.551544021</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1478189.795227466</v>
+        <v>1072025.446702674</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24191322.70272157</v>
+        <v>13305227.48649686</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28246.29909741954</v>
+        <v>15535.46450358075</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>28621.72750548006</v>
+        <v>15741.95012801403</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29001.95236323695</v>
+        <v>15951.07379978032</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>29387.02190328536</v>
+        <v>16162.86204680695</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>29776.9839413118</v>
+        <v>16377.34116772149</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>30171.88581390658</v>
+        <v>16594.53719764862</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>30571.77431393169</v>
+        <v>16814.47587266243</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>30976.69562372488</v>
+        <v>17037.18259304868</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>31386.69524556471</v>
+        <v>17262.68238506059</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>31801.81793006273</v>
+        <v>17490.9998615345</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>32222.10760245998</v>
+        <v>17722.15918135299</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>32647.60728644891</v>
+        <v>17956.18400754691</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>33078.35902641309</v>
+        <v>18193.0974645272</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>33514.40380741197</v>
+        <v>18432.92209407659</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>33955.78147378237</v>
+        <v>18675.67981058031</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>34402.53064598607</v>
+        <v>18921.39185529234</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>34854.68863609589</v>
+        <v>19170.07874985274</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>35312.29136234386</v>
+        <v>19421.76024928913</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>35775.37326243812</v>
+        <v>19676.45529434097</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>36243.96720651558</v>
+        <v>19934.18196358357</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>36718.10440952773</v>
+        <v>20194.95742524025</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>37197.81434354078</v>
+        <v>20458.79788894743</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>37683.12465044217</v>
+        <v>20725.71855774319</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>38174.06105499896</v>
+        <v>20995.73358024943</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>38670.64727900635</v>
+        <v>21268.85600345349</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>39172.90495678356</v>
+        <v>21545.09772623096</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39680.85355232281</v>
+        <v>21824.46945377755</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>40194.51027878914</v>
+        <v>22106.98065333403</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40713.89002055382</v>
+        <v>22392.6395113046</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>41239.00525845872</v>
+        <v>22681.45289215229</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>41769.86599872954</v>
+        <v>22973.42629930125</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42306.47970602784</v>
+        <v>23268.56383831531</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42848.85124139601</v>
+        <v>23566.8681827678</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>43396.9828053184</v>
+        <v>23868.34054292512</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>43950.87388690147</v>
+        <v>24172.98063779582</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>44510.52121935991</v>
+        <v>24480.78667064795</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>45075.91874285068</v>
+        <v>24791.75530856788</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>45647.05757496514</v>
+        <v>25105.88166623083</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>46223.92598972715</v>
+        <v>25423.15929434994</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>46806.5094054921</v>
+        <v>25743.58017302065</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>47394.79038298611</v>
+        <v>26067.13471064236</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>47988.74863335944</v>
+        <v>26393.81174834769</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>48588.36103765163</v>
+        <v>26723.5985707084</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>49193.60167793665</v>
+        <v>27056.48092286516</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>49804.44188079725</v>
+        <v>27392.44303443849</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>50420.85027428254</v>
+        <v>27731.4676508554</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>51042.7928582669</v>
+        <v>28073.5360720468</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>51670.23308942551</v>
+        <v>28418.62819918404</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>52303.13198130672</v>
+        <v>28766.7225897187</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>52941.4482199975</v>
+        <v>29117.79652099864</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>53585.13829603057</v>
+        <v>29471.82606281682</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>54234.15665309631</v>
+        <v>29828.78615920298</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>54888.45585420477</v>
+        <v>30188.65071981263</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>55547.98676550224</v>
+        <v>30551.39272102624</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>56212.69875833862</v>
+        <v>30916.98431708624</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>56882.53993027651</v>
+        <v>31285.39696165208</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>57557.45734473559</v>
+        <v>31656.60153960458</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>58237.39729016479</v>
+        <v>32030.56850959064</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>58922.30555877198</v>
+        <v>32407.26805732459</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>59612.12774492732</v>
+        <v>32786.67025971003</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>60306.80956335316</v>
+        <v>33168.74525984423</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>61006.29718749021</v>
+        <v>33553.46345311961</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>61710.53760718473</v>
+        <v>33940.79568395161</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>62419.47900681839</v>
+        <v>34330.71345375012</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>63133.07116240136</v>
+        <v>34723.18913932075</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>63851.26585824766</v>
+        <v>35118.19622203622</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>64574.01732259635</v>
+        <v>35515.70952742801</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>65301.28268166647</v>
+        <v>35915.70547491655</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>66033.02243154201</v>
+        <v>36318.16233734811</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>66769.20092760614</v>
+        <v>36723.06051018339</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>67509.78689032534</v>
+        <v>37130.38278967895</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>68254.75392687971</v>
+        <v>37540.11465978385</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>69004.08106767159</v>
+        <v>37952.24458721937</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69757.75331647035</v>
+        <v>38366.76432405869</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>70515.76221333073</v>
+        <v>38783.66921733192</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>71278.10640899597</v>
+        <v>39202.95852494778</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>72044.79224920628</v>
+        <v>39624.63573706345</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>72815.8343680157</v>
+        <v>40048.70890240864</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>73591.25628795252</v>
+        <v>40475.1909583739</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>74371.09102604898</v>
+        <v>40904.10006432694</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>75155.38170352005</v>
+        <v>41335.45993693603</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>75944.18215771766</v>
+        <v>41769.30018674475</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>76737.5575541798</v>
+        <v>42205.65665479889</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>77535.5849971704</v>
+        <v>42644.57174844371</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>78338.35413615443</v>
+        <v>43086.09477488493</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>79145.96776686958</v>
+        <v>43530.28227177828</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>79958.54242434489</v>
+        <v>43977.19833338966</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>80776.20896557724</v>
+        <v>44426.9149310675</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>81599.11314020469</v>
+        <v>44879.51222711257</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>82427.41614641501</v>
+        <v>45335.07888052827</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>83261.29516982788</v>
+        <v>45793.71234340534</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>84100.94390331386</v>
+        <v>46255.51914682264</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>84946.57304529227</v>
+        <v>46720.61517491076</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>85798.41077385405</v>
+        <v>47189.12592561974</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>86656.7031950165</v>
+        <v>47661.18675725906</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>87521.71476223155</v>
+        <v>48136.94311922734</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>88393.72866527255</v>
+        <v>48616.55076589991</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89273.04718601753</v>
+        <v>49100.17595230968</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90159.99201897329</v>
+        <v>49587.99561043529</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91054.90455474347</v>
+        <v>50080.1975051089</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91958.14612398189</v>
+        <v>50576.98036819004</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92870.09819988215</v>
+        <v>51078.55400993519</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93791.1625579759</v>
+        <v>51585.13940688673</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>94721.7613905082</v>
+        <v>52096.96876477949</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>95662.33737466521</v>
+        <v>52614.28555606588</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>96613.35369246147</v>
+        <v>53137.34453085381</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>97575.29400134501</v>
+        <v>53666.41170073974</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>98548.66235423478</v>
+        <v>54201.76429482915</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>99533.98306761202</v>
+        <v>54743.69068718664</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>100531.8005373299</v>
+        <v>55292.49029553142</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>101542.6790007729</v>
+        <v>55848.47345042506</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>102567.2022454517</v>
+        <v>56411.96123499842</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>103605.9732632234</v>
+        <v>56983.28529477288</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>104659.613850201</v>
+        <v>57562.78761761061</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>105728.764152378</v>
+        <v>58150.82028380789</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>106814.0821572702</v>
+        <v>58747.74518649859</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>107916.2431318352</v>
+        <v>59353.93372250931</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>109035.9390076765</v>
+        <v>59969.7664542221</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>110173.8777141522</v>
+        <v>60595.63274278371</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>111330.7824607078</v>
+        <v>61231.93035338921</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>112507.3909696231</v>
+        <v>61879.06503329273</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>113704.4546608118</v>
+        <v>62537.45006344647</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>114922.7377903984</v>
+        <v>63207.50578471914</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>116163.0165451686</v>
+        <v>63889.65909984273</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>117426.0780948386</v>
+        <v>64584.34295216123</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>118712.7196048936</v>
+        <v>65291.99578269149</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>120023.7472121261</v>
+        <v>66013.06096666935</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>121359.9749662956</v>
+        <v>66747.98623146255</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>122722.2237400186</v>
+        <v>67497.22305701025</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>124111.3201109245</v>
+        <v>68261.22606100846</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>125528.095218857</v>
+        <v>69040.45237037132</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>126973.3836014036</v>
+        <v>69835.36098077198</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>128448.0220122101</v>
+        <v>70646.41210671562</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>129952.848224542</v>
+        <v>71474.06652349811</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>131488.6998251863</v>
+        <v>72318.78490385246</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>133056.4130018371</v>
+        <v>73181.02715101045</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>134656.8213281456</v>
+        <v>74061.25173048013</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>136290.7545508331</v>
+        <v>74959.91500295825</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>137959.0373826963</v>
+        <v>75877.47056048297</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>139662.4883057373</v>
+        <v>76814.36856815546</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>141401.9183889789</v>
+        <v>77771.0551139384</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>143178.1301245985</v>
+        <v>78747.97156852919</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>144991.9162872933</v>
+        <v>79745.55395801127</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>146844.0588203024</v>
+        <v>80764.23235116634</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>148735.3277531015</v>
+        <v>81804.4302642059</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>150666.4801539084</v>
+        <v>82866.56408464964</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>152638.2591217994</v>
+        <v>83951.04251698962</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>154651.3928220407</v>
+        <v>85058.26605212242</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>156706.5935680589</v>
+        <v>86188.62646243244</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>158804.5569546047</v>
+        <v>87342.50632503255</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>160945.9610445919</v>
+        <v>88520.27857452558</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>163131.4656139603</v>
+        <v>89722.30608767824</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>165361.711457021</v>
+        <v>90948.94130136151</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>167637.3197555452</v>
+        <v>92200.52586554986</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>169958.8915148794</v>
+        <v>93477.39033318365</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>172327.0070686486</v>
+        <v>94779.85388775682</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>174742.225655673</v>
+        <v>96108.22411062014</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>177205.0850702277</v>
+        <v>97462.79678862526</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>179716.1013882384</v>
+        <v>98843.85576353106</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>182275.768770775</v>
+        <v>100251.6728239263</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>184884.5593463477</v>
+        <v>101686.5076404912</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>187542.9231733595</v>
+        <v>103148.6077453477</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>190251.28828313</v>
+        <v>104638.2085557215</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>193010.0608047991</v>
+        <v>106155.5334426395</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>195819.6251721307</v>
+        <v>107700.793844672</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>198680.3444122454</v>
+        <v>109274.189426735</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>201592.5605163598</v>
+        <v>110875.9082839978</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>204556.5948921959</v>
+        <v>112506.1271907078</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>207572.7488970888</v>
+        <v>114165.0118933989</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>210641.3044511462</v>
+        <v>115852.7174481304</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>213762.5247292517</v>
+        <v>117569.3886010885</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>216936.6549304768</v>
+        <v>119315.1602117623</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>220163.9231232061</v>
+        <v>121090.1577177634</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>223444.541164253</v>
+        <v>122894.4976403392</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>226778.705689906</v>
+        <v>124728.2881294484</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>230166.5991764175</v>
+        <v>126591.6295470296</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>233608.3910677887</v>
+        <v>128484.6150872837</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>237104.2389678535</v>
+        <v>130407.3314323195</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>240654.2898942217</v>
+        <v>132359.8594418219</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>244258.6815909051</v>
+        <v>134342.2748749977</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>247917.5438965425</v>
+        <v>136354.6491430983</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>251631.0001649392</v>
+        <v>138397.0500907165</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>255399.1687349651</v>
+        <v>140469.5428042308</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>259222.1644458907</v>
+        <v>142572.1904452399</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>263100.1001949243</v>
+        <v>144705.0551072084</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>267033.0885336144</v>
+        <v>146868.198693488</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>271021.2432988593</v>
+        <v>149061.6838143725</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>275064.6812758275</v>
+        <v>151285.5747017051</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>279163.5238883003</v>
+        <v>153539.9381385651</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>283317.8989131384</v>
+        <v>155824.8444022262</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>287527.9422157325</v>
+        <v>158140.3682186529</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>291793.7995018326</v>
+        <v>160486.5897260079</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>296115.6280830905</v>
+        <v>162863.5954456998</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>300493.5986526334</v>
+        <v>165271.4792589483</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>304927.8970670255</v>
+        <v>167710.3433868641</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>309418.7261315328</v>
+        <v>170180.299372343</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>313966.3073855464</v>
+        <v>172681.4690620506</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>318570.8828847667</v>
+        <v>175213.9855866218</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>323232.7169775647</v>
+        <v>177777.9943376606</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>327952.0980724821</v>
+        <v>180373.6539398651</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>332729.3403939561</v>
+        <v>183001.1372166759</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>337564.7857145031</v>
+        <v>185660.6321429768</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>342458.8050980843</v>
+        <v>188352.3428039463</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>347411.8005979576</v>
+        <v>191076.4903288767</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>352424.2069426932</v>
+        <v>193833.3138184812</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>357496.4931989948</v>
+        <v>196623.0712594471</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>362629.1644103308</v>
+        <v>199446.040425682</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>367822.7632094054</v>
+        <v>202302.519765173</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>373077.8714032609</v>
+        <v>205192.8292717936</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>378395.1115298647</v>
+        <v>208117.3113414256</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>383775.1483847881</v>
+        <v>211076.3316116335</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>389218.6905173885</v>
+        <v>214070.2797845636</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>394726.4916959542</v>
+        <v>217099.5704327748</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>400299.3523406318</v>
+        <v>220164.6437873475</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>405938.1209243043</v>
+        <v>223265.9665083674</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>411643.6953409812</v>
+        <v>226404.0324375397</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>417417.0242413469</v>
+        <v>229579.3633327408</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>423259.1083357354</v>
+        <v>232792.5095846544</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>429171.0016651058</v>
+        <v>236044.0509158082</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>435153.8128385423</v>
+        <v>239334.5970611982</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>441208.7062402208</v>
+        <v>242664.7884321214</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>447336.9032036466</v>
+        <v>246035.2967620057</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>453539.6831560396</v>
+        <v>249446.8257358219</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>459818.3847307571</v>
+        <v>252900.1116019164</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>466174.4068516644</v>
+        <v>256395.9237684155</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>472609.2097868082</v>
+        <v>259935.0653827445</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>479124.3161743796</v>
+        <v>263518.3738959089</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>485721.3120204809</v>
+        <v>267146.7216112645</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>492401.8476702824</v>
+        <v>270821.0162186553</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>499167.6387517843</v>
+        <v>274542.2013134814</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>506020.4670943274</v>
+        <v>278311.2569018801</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>512962.1816218797</v>
+        <v>282129.1998920338</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>519994.6992207897</v>
+        <v>285997.0845714343</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>527120.0055838479</v>
+        <v>289916.0030711163</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>534340.1560298052</v>
+        <v>293887.0858163929</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>541657.276298939</v>
+        <v>297911.5019644165</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>549073.5633249902</v>
+        <v>301990.4598287447</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>556591.2859830391</v>
+        <v>306125.2072906714</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>564212.7858127323</v>
+        <v>310317.0321970028</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>571940.4777176003</v>
+        <v>314567.2627446802</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>579776.8506385749</v>
+        <v>318877.2678512163</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>587724.4682011865</v>
+        <v>323248.4575106526</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>595785.9693362251</v>
+        <v>327682.2831349237</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>603964.0688710555</v>
+        <v>332180.2378790805</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>612261.5580916012</v>
+        <v>336743.8569503807</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>620681.3052718894</v>
+        <v>341374.7178995393</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>629226.2561697506</v>
+        <v>346074.4408933629</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>637899.4344860071</v>
+        <v>350844.688967304</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>646703.9422847509</v>
+        <v>355687.168256613</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>655642.9603707886</v>
+        <v>360603.6282039338</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>664719.7486222087</v>
+        <v>365595.8617422148</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>673937.6462734141</v>
+        <v>370665.705450378</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>683300.0721442992</v>
+        <v>375815.0396793646</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>692810.5248122531</v>
+        <v>381045.7886467392</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>702472.5827213478</v>
+        <v>386359.9204967413</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>712289.9042234338</v>
+        <v>391759.4473228886</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>722266.2275458783</v>
+        <v>397246.4251502331</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>732405.3706803999</v>
+        <v>402822.95387422</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>742711.2311850698</v>
+        <v>408491.1771517883</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>753187.7858949391</v>
+        <v>414253.2822422166</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>763839.0905318409</v>
+        <v>420111.4997925125</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>774669.2792067156</v>
+        <v>426068.1035636937</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>785682.5638078345</v>
+        <v>432125.410094309</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>796883.2332624368</v>
+        <v>438285.7782943404</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>808275.6526679451</v>
+        <v>444551.6089673699</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>819864.2622796877</v>
+        <v>450925.3442538282</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>831653.5763463415</v>
+        <v>457409.4669904878</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>843648.1817841355</v>
+        <v>464006.4999812747</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>855852.7366773968</v>
+        <v>470719.0051725684</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>868271.9685962599</v>
+        <v>477549.5827279428</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>880910.6727184815</v>
+        <v>484500.8699951648</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>893773.7097450092</v>
+        <v>491575.540359755</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>906866.0035965897</v>
+        <v>498776.3019781244</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>920192.5388785717</v>
+        <v>506105.8963832145</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>933758.3581023373</v>
+        <v>513567.0969562856</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>947568.5586489009</v>
+        <v>521162.7072568955</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>961628.2894623195</v>
+        <v>528895.5592042758</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>975942.7474586017</v>
+        <v>536768.511102231</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>990517.1736369722</v>
+        <v>544784.4455003346</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1005356.848878788</v>
+        <v>552946.2668833333</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1020467.089420364</v>
+        <v>561256.8991812</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1035853.24198515</v>
+        <v>569719.2830918328</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1051520.678561038</v>
+        <v>578336.373208571</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1067474.790808776</v>
+        <v>587111.1349448268</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1083720.984085806</v>
+        <v>596046.5412471936</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1100264.671073256</v>
+        <v>605145.5690902909</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1117111.26499027</v>
+        <v>614411.1957446482</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1134266.172382784</v>
+        <v>623846.3948105309</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1151734.785472812</v>
+        <v>633454.1320100467</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1169522.474054864</v>
+        <v>643237.3607301754</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1187634.576926854</v>
+        <v>653199.0173097699</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1206076.392844197</v>
+        <v>663342.0160643084</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1224853.170982948</v>
+        <v>673669.2440406214</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1243970.100904317</v>
+        <v>684183.5554973744</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1263432.302008303</v>
+        <v>694887.7661045666</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1283244.812467828</v>
+        <v>705784.6468573054</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1303412.577635284</v>
+        <v>716876.9176994063</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1323940.43791545</v>
+        <v>728167.2408534978</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1344833.116097711</v>
+        <v>739658.2138537413</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1366095.204143344</v>
+        <v>751352.3622788392</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1072454.058914545</v>
+        <v>589849.7324029995</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1090164.462315644</v>
+        <v>599590.4542736043</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1108193.033539283</v>
+        <v>609506.1684466058</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1126543.138621515</v>
+        <v>619598.7262418331</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1145217.973273051</v>
+        <v>629869.8853001783</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1164220.549488614</v>
+        <v>640321.3022187378</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1183553.681727969</v>
+        <v>650954.5249503828</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1203219.97267668</v>
+        <v>661770.9849721739</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1223221.798597584</v>
+        <v>672771.989228671</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1243561.294289631</v>
+        <v>683958.711859297</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1264240.337668622</v>
+        <v>695332.1857177422</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1285260.533988091</v>
+        <v>706893.2936934499</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1306623.199724391</v>
+        <v>718642.7598484149</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1328329.346148921</v>
+        <v>730581.1403819068</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1350379.662614382</v>
+        <v>742708.8144379104</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1372774.499587676</v>
+        <v>755025.9747732221</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1395513.851459824</v>
+        <v>767532.618302903</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1418597.339171191</v>
+        <v>780228.536544155</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1442024.192693056</v>
+        <v>793113.3059811807</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1465793.233404676</v>
+        <v>806186.2783725718</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1489902.856416618</v>
+        <v>819446.5710291397</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1514351.012885406</v>
+        <v>832893.0570869732</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1539135.192377599</v>
+        <v>846524.3558076794</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1564252.405334269</v>
+        <v>860338.8229338478</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1589699.16569875</v>
+        <v>874334.5411343127</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1615471.473769845</v>
+        <v>888509.3105734147</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1641564.799345006</v>
+        <v>902860.6396397536</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1667974.065223547</v>
+        <v>917385.735872951</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1694693.63114148</v>
+        <v>932081.4971278139</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1721717.278212547</v>
+        <v>946944.5030169012</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1749038.193951337</v>
+        <v>961971.0066732351</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1776648.957960028</v>
+        <v>977156.9268780152</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1804541.528358267</v>
+        <v>992497.8405970471</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1832707.22904057</v>
+        <v>1007988.975972314</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1861136.737846373</v>
+        <v>1023625.205815505</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1889820.075727752</v>
+        <v>1039401.041650264</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1918746.597001331</v>
+        <v>1055310.628350732</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1947904.980774792</v>
+        <v>1071347.739426136</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1977283.223630801</v>
+        <v>1087505.77299694</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2006868.633657516</v>
+        <v>1103777.748511634</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2036647.825912084</v>
+        <v>1120156.304251646</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2066606.719399168</v>
+        <v>1136633.695669542</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2096730.535649863</v>
+        <v>1153201.794607425</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2127003.798975782</v>
+        <v>1169852.08943668</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2157410.338482099</v>
+        <v>1186575.686165155</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2187933.291903687</v>
+        <v>1203363.310547028</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2218555.111341516</v>
+        <v>1220205.311237834</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2249257.570954118</v>
+        <v>1237091.664024765</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2280021.77667003</v>
+        <v>1254011.977168517</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2310828.177966155</v>
+        <v>1270955.497881385</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2341656.581761518</v>
+        <v>1287911.119968835</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2372486.168460111</v>
+        <v>1304867.392653061</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2403295.510175299</v>
+        <v>1321812.530596415</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2434062.591153981</v>
+        <v>1338734.425134689</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2464764.830413342</v>
+        <v>1355620.656727338</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2436609.396087276</v>
+        <v>1340135.167848002</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2466468.127821069</v>
+        <v>1356557.470301588</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2496192.874111032</v>
+        <v>1372906.080761068</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2525759.469503672</v>
+        <v>1389167.70822702</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2555143.334603268</v>
+        <v>1405328.834031797</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2584319.510930615</v>
+        <v>1421375.731011839</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2613262.697755316</v>
+        <v>1437294.483765424</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2641947.290821195</v>
+        <v>1453071.009951657</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2670347.422883573</v>
+        <v>1468691.082585965</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2698437.005965439</v>
+        <v>1484140.353280991</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2726189.77521788</v>
+        <v>1499404.376369833</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2753579.334275927</v>
+        <v>1514468.63385176</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2780579.20197244</v>
+        <v>1529318.561084842</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2807162.860276688</v>
+        <v>1543939.573152178</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2833303.803308029</v>
+        <v>1558317.091819416</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2957982.036027727</v>
+        <v>1626890.11981525</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2983987.503689815</v>
+        <v>1641193.127029398</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3009459.705466825</v>
+        <v>1655202.838006753</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3034372.138164372</v>
+        <v>1668904.675990405</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3058698.580360393</v>
+        <v>1682284.219198216</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3082413.145818321</v>
+        <v>1695327.230200076</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3105490.336702458</v>
+        <v>1708019.685186352</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3127905.09638898</v>
+        <v>1720347.803013939</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3149632.861665334</v>
+        <v>1732298.073915933</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3170649.614107517</v>
+        <v>1743857.287759135</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3248287.424881008</v>
+        <v>1786558.083684555</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3268243.747858237</v>
+        <v>1797534.061322031</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3287413.096987838</v>
+        <v>1808077.203343311</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3305773.924468502</v>
+        <v>1818175.658457676</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3323305.47970986</v>
+        <v>1827818.013840423</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3339987.852254218</v>
+        <v>3761869.402095591</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3355802.01246339</v>
+        <v>3783135.643859539</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3370729.849797511</v>
+        <v>3803637.663219995</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3384754.208519333</v>
+        <v>3823362.353049684</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3397858.92067427</v>
+        <v>3842297.756581136</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3147763.581649369</v>
+        <v>3598167.848190946</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3157769.983119392</v>
+        <v>3614278.971373815</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3166856.199632204</v>
+        <v>3629613.930096476</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3175010.24281154</v>
+        <v>3644165.647440024</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3182221.139436133</v>
+        <v>3657928.247711376</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3188478.944528427</v>
+        <v>3670897.073070034</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3193774.751299518</v>
+        <v>3683068.696419975</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3198100.697919086</v>
+        <v>3694440.930428148</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3201449.971114628</v>
+        <v>3705012.832555861</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3203816.806598631</v>
+        <v>3714784.705971854</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2109248.378465318</v>
+        <v>2627809.988346927</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2106350.522601323</v>
+        <v>2632700.973419939</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2102607.668307281</v>
+        <v>2636948.73936491</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2098014.175031532</v>
+        <v>2640554.480679642</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2092565.030561453</v>
+        <v>2643520.199747609</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2086255.839487224</v>
+        <v>2645848.68668056</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2079082.810300327</v>
+        <v>2647543.495584186</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2071042.741295111</v>
+        <v>2648608.917182325</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2062133.005487301</v>
+        <v>2649049.94776959</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2052351.534753211</v>
+        <v>2648872.254441218</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2123185.365561332</v>
+        <v>2729570.698708053</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2111807.667267959</v>
+        <v>2728326.339197316</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2099548.580601249</v>
+        <v>2726477.24078754</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2086408.647671742</v>
+        <v>2724031.871237608</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2072388.907506913</v>
+        <v>2720999.159030372</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2057490.879874243</v>
+        <v>2717388.434922955</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2041716.550246186</v>
+        <v>2713209.369793839</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2025068.356251282</v>
+        <v>2708471.908881453</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2007549.17597185</v>
+        <v>2703186.202544295</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1989162.318451844</v>
+        <v>2697362.533700809</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1969911.516798978</v>
+        <v>2691011.242159036</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1949800.924253075</v>
+        <v>2684142.646072136</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1928835.113617269</v>
+        <v>2676766.960825997</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1907019.080424614</v>
+        <v>2668894.215694043</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1884358.250230184</v>
+        <v>2660534.168672858</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1860858.490398848</v>
+        <v>2651696.219961355</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1836526.126745764</v>
+        <v>2642389.324609988</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1811367.965378157</v>
+        <v>2632621.904943325</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1785391.320054693</v>
+        <v>2622401.763419691</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1758604.045351973</v>
+        <v>2611735.996665153</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1731014.575897631</v>
+        <v>2600630.911495973</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1702631.971875087</v>
+        <v>2589091.943802108</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1673465.970969226</v>
+        <v>2577123.581246513</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1643527.04684579</v>
+        <v>2564729.290779869</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1612826.474211936</v>
+        <v>2551911.452049056</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1581376.40040738</v>
+        <v>2538671.297803823</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1549189.923414864</v>
+        <v>2525008.862468626</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1516281.17606361</v>
+        <v>2510922.940051104</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1482665.416119708</v>
+        <v>2496411.052592964</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1448359.121834318</v>
+        <v>2481469.430351898</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1413380.092408282</v>
+        <v>2466093.00488588</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1377747.552714801</v>
+        <v>2450275.416176447</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1341482.261485661</v>
+        <v>2434009.034856866</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1304606.622038007</v>
+        <v>2417285.000529983</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1267144.794481568</v>
+        <v>2400093.277049024</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1229122.80821024</v>
+        <v>2382422.725500342</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1190568.673351936</v>
+        <v>2364261.195472812</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1151512.489698925</v>
+        <v>2345595.634993538</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1111986.551544021</v>
+        <v>2326412.219329913</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1072025.446702674</v>
+        <v>2306696.49859749</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13305227.48649686</v>
+        <v>24028464.63151348</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>15535.46450358075</v>
+        <v>28056.21947461423</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>15741.95012801403</v>
+        <v>28429.19986086816</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>15951.07379978032</v>
+        <v>28806.94698426751</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16162.86204680695</v>
+        <v>29189.50883866541</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>16377.34116772149</v>
+        <v>29576.93300778434</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>16594.53719764862</v>
+        <v>29969.26660362404</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>16814.47587266243</v>
+        <v>30366.5562024656</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>17037.18259304868</v>
+        <v>30768.84777874318</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>17262.68238506059</v>
+        <v>31176.18663620973</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>17490.9998615345</v>
+        <v>31588.61733699495</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>17722.15918135299</v>
+        <v>32006.18362866308</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>17956.18400754691</v>
+        <v>32428.92836877827</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>18193.0974645272</v>
+        <v>32856.89344788653</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>18432.92209407659</v>
+        <v>33290.1197103191</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>18675.67981058031</v>
+        <v>33728.64687357789</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>18921.39185529234</v>
+        <v>34172.51344596178</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>19170.07874985274</v>
+        <v>34621.75664297825</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>19421.76024928913</v>
+        <v>35076.41230260716</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>19676.45529434097</v>
+        <v>35536.51479957337</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>19934.18196358357</v>
+        <v>36002.09695908863</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>20194.95742524025</v>
+        <v>36473.18997012937</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>20458.79788894743</v>
+        <v>36949.82329856774</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>20725.71855774319</v>
+        <v>37432.02460079434</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>20995.73358024943</v>
+        <v>37919.81963754651</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>21268.85600345349</v>
+        <v>38413.23218899259</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>21545.09772623096</v>
+        <v>38912.28397098347</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>21824.46945377755</v>
+        <v>39416.99455307653</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>22106.98065333403</v>
+        <v>39927.38127880445</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>22392.6395113046</v>
+        <v>40443.45918849202</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>22681.45289215229</v>
+        <v>40965.24094526414</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>22973.42629930125</v>
+        <v>41492.73676466956</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>23268.56383831531</v>
+        <v>42025.95434841552</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>23566.8681827678</v>
+        <v>42564.89882291845</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>23868.34054292512</v>
+        <v>43109.57268296396</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>24172.98063779582</v>
+        <v>43659.9757414385</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>24480.78667064795</v>
+        <v>44216.10508522415</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>24791.75530856788</v>
+        <v>44777.95503847003</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25105.88166623083</v>
+        <v>45345.51713341454</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25423.15929434994</v>
+        <v>45918.78008962544</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25743.58017302065</v>
+        <v>46497.72980205822</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>26067.13471064236</v>
+        <v>47082.34933920371</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>26393.81174834769</v>
+        <v>47672.61895106312</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>26723.5985707084</v>
+        <v>48268.51608857204</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>27056.48092286516</v>
+        <v>48870.01543442084</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>27392.44303443849</v>
+        <v>49477.08894628291</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>27731.4676508554</v>
+        <v>50089.7059132005</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>28073.5360720468</v>
+        <v>50707.83302544057</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>28418.62819918404</v>
+        <v>51331.43445867981</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>28766.7225897187</v>
+        <v>51960.47197324077</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>29117.79652099864</v>
+        <v>52594.90502871529</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>29471.82606281682</v>
+        <v>53234.69091475765</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>29828.78615920298</v>
+        <v>53879.78489839139</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>30188.65071981263</v>
+        <v>54530.14038881121</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>30551.39272102624</v>
+        <v>55185.70911942144</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>30916.98431708624</v>
+        <v>55846.44134819487</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>31285.39696165208</v>
+        <v>56512.28607666099</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>31656.60153960458</v>
+        <v>57183.19128734415</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>32030.56850959064</v>
+        <v>57859.10420066329</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>32407.26805732459</v>
+        <v>58539.97155109709</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>32786.67025971003</v>
+        <v>59225.73988289414</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>33168.74525984423</v>
+        <v>59916.35586536905</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>33553.46345311961</v>
+        <v>60611.76662817975</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>33940.79568395161</v>
+        <v>61311.92011582031</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>34330.71345375012</v>
+        <v>62016.76546220667</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>34723.18913932075</v>
+        <v>62726.25338424976</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>35118.19622203622</v>
+        <v>63440.33659465601</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>35515.70952742801</v>
+        <v>64158.97023364116</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>35915.70547491655</v>
+        <v>64882.11231876328</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>36318.16233734811</v>
+        <v>65609.7242125592</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>36723.06051018339</v>
+        <v>66341.7711074789</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>37130.38278967895</v>
+        <v>67078.2225270409</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>37540.11465978385</v>
+        <v>67819.05284270656</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>37952.24458721937</v>
+        <v>68564.2418054602</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>38366.76432405869</v>
+        <v>69313.77509096373</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>38783.66921733192</v>
+        <v>70067.64485725691</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>39202.95852494778</v>
+        <v>70825.85031396239</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>39624.63573706345</v>
+        <v>71588.39830122824</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>40048.70890240864</v>
+        <v>72355.30387756538</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>40475.1909583739</v>
+        <v>73126.59091463937</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>40904.10006432694</v>
+        <v>73902.29269759466</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>41335.45993693603</v>
+        <v>74682.45252926608</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>41769.30018674475</v>
+        <v>75467.12433652508</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>42205.65665479889</v>
+        <v>76256.37327665799</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>42644.57174844371</v>
+        <v>77050.27634241016</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>43086.09477488493</v>
+        <v>77848.9229628727</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>43530.28227177828</v>
+        <v>78652.41559905288</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>43977.19833338966</v>
+        <v>79460.87033150803</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>44426.9149310675</v>
+        <v>80274.41743770755</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>44879.51222711257</v>
+        <v>81093.20195744096</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>45335.07888052827</v>
+        <v>81917.38424374428</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>45793.71234340534</v>
+        <v>82747.1404968327</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>46255.51914682264</v>
+        <v>83582.66327920015</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>46720.61517491076</v>
+        <v>84424.16200936698</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>47189.12592561974</v>
+        <v>85271.86343178342</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>47661.18675725906</v>
+        <v>86126.01206093789</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>48136.94311922734</v>
+        <v>86986.8705971407</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>48616.55076589991</v>
+        <v>87854.72031189605</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>49100.17595230968</v>
+        <v>88729.8614004882</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>49587.99561043529</v>
+        <v>89612.61329966856</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>50080.1975051089</v>
+        <v>90503.31496859706</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>50576.98036819004</v>
+        <v>91402.32513065108</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>51078.55400993519</v>
+        <v>92310.02247420073</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>51585.13940688673</v>
+        <v>93226.80581098853</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>52096.96876477949</v>
+        <v>94153.09418965764</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>52614.28555606588</v>
+        <v>95089.3269634124</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>53137.34453085381</v>
+        <v>96035.96380990397</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>53666.41170073974</v>
+        <v>96993.48470226364</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>54201.76429482915</v>
+        <v>97962.3898299768</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>54743.69068718664</v>
+        <v>98943.19946844086</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>55292.49029553142</v>
+        <v>99936.45379654734</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>55848.47345042506</v>
+        <v>100942.7126612984</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>56411.96123499842</v>
+        <v>101962.5552892095</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>56983.28529477288</v>
+        <v>102996.5799439551</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>57562.78761761061</v>
+        <v>104045.4035301542</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>58150.82028380789</v>
+        <v>105109.6611433909</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>58747.74518649859</v>
+        <v>106190.0055667728</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>59353.93372250931</v>
+        <v>107287.1067142613</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>59969.7664542221</v>
+        <v>108401.6510217661</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>60595.63274278371</v>
+        <v>109534.3407866833</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>61231.93035338921</v>
+        <v>110685.8934570609</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>61879.06503329273</v>
+        <v>111857.0408717061</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>62537.45006344647</v>
+        <v>113048.5284527873</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>63207.50578471914</v>
+        <v>114261.1143526044</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>63889.65909984273</v>
+        <v>115495.5685566977</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>64584.34295216123</v>
+        <v>116752.6719451732</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>65291.99578269149</v>
+        <v>118033.2153149141</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>66013.06096666935</v>
+        <v>119337.9983649309</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>66747.98623146255</v>
+        <v>120667.8286480657</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>67497.22305701025</v>
+        <v>122023.520491299</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>68261.22606100846</v>
+        <v>123405.8938885624</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>69040.45237037132</v>
+        <v>124815.7733688055</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>69835.36098077198</v>
+        <v>126253.986842661</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>70646.41210671562</v>
+        <v>127721.3644320148</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>71474.06652349811</v>
+        <v>129218.7372849782</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>72318.78490385246</v>
+        <v>130746.9363813211</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>73181.02715101045</v>
+        <v>132306.7913314361</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>74061.25173048013</v>
+        <v>133899.1291729858</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>74959.91500295825</v>
+        <v>135524.7731696517</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>75877.47056048297</v>
+        <v>137184.541615675</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>76814.36856815546</v>
+        <v>138879.2466504779</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>77771.0551139384</v>
+        <v>140609.6930878227</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>78747.97156852919</v>
+        <v>142376.6772631372</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>79745.55395801127</v>
+        <v>144180.9859038749</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>80764.23235116634</v>
+        <v>146023.3950262708</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>81804.4302642059</v>
+        <v>147904.6688635206</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>82866.56408464964</v>
+        <v>149825.5588284383</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>83951.04251698962</v>
+        <v>151786.8025153724</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>85058.26605212242</v>
+        <v>153789.1227449509</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>86188.62646243244</v>
+        <v>155833.2266550539</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>87342.50632503255</v>
+        <v>157919.8048425027</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>88520.27857452558</v>
+        <v>160049.5305579445</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>89722.30608767824</v>
+        <v>162223.0589582699</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>90948.94130136151</v>
+        <v>164441.0264188841</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>92200.52586554986</v>
+        <v>166704.0499092647</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>93477.39033318365</v>
+        <v>169012.7264348185</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>94779.85388775682</v>
+        <v>171367.6325468085</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>96108.22411062014</v>
+        <v>173769.3239237618</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>97462.79678862526</v>
+        <v>176218.3350256275</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>98843.85576353106</v>
+        <v>178715.1788231238</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>100251.6728239263</v>
+        <v>181260.3466037306</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>101686.5076404912</v>
+        <v>183854.3078557565</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>103148.6077453477</v>
+        <v>186497.5102318245</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>104638.2085557215</v>
+        <v>189190.3795922464</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>106155.5334426395</v>
+        <v>191933.3201294834</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>107700.793844672</v>
+        <v>194726.714573824</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>109274.189426735</v>
+        <v>197570.9244802236</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>110875.9082839978</v>
+        <v>200466.2905964241</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>112506.1271907078</v>
+        <v>203413.1333120076</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>114165.0118933989</v>
+        <v>206411.753187447</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>115852.7174481304</v>
+        <v>209462.4315624645</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>117569.3886010885</v>
+        <v>212565.4312425595</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>119315.1602117623</v>
+        <v>215720.9972622389</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>121090.1577177634</v>
+        <v>218929.3577233029</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>122894.4976403392</v>
+        <v>222190.7247064608</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>124728.2881294484</v>
+        <v>225505.2952542466</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>126591.6295470296</v>
+        <v>228873.2524227732</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>128484.6150872837</v>
+        <v>232294.7664001885</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>130407.3314323195</v>
+        <v>235769.9956888727</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>132359.8594418219</v>
+        <v>239299.0883489767</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>134342.2748749977</v>
+        <v>242882.1833001086</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>136354.6491430983</v>
+        <v>246519.411678185</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>138397.0500907165</v>
+        <v>250210.8982441131</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>140469.5428042308</v>
+        <v>253956.7628414749</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>142572.1904452399</v>
+        <v>257757.1218992013</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>144705.0551072084</v>
+        <v>261612.0899761773</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>146868.198693488</v>
+        <v>265521.7813443594</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>149061.6838143725</v>
+        <v>269486.3116062411</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>151285.5747017051</v>
+        <v>273505.7993439845</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>153539.9381385651</v>
+        <v>277580.3677957946</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155824.8444022262</v>
+        <v>281710.1465562092</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>158140.3682186529</v>
+        <v>285895.2732972875</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>160486.5897260079</v>
+        <v>290135.8955060471</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>162863.5954456998</v>
+        <v>294432.1722355626</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>165271.4792589483</v>
+        <v>298784.2758660738</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>167710.3433868641</v>
+        <v>303192.3938724721</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>170180.299372343</v>
+        <v>307656.7305951469</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>172681.4690620506</v>
+        <v>312177.5090110328</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>175213.9855866218</v>
+        <v>316754.9725015463</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>177777.9943376606</v>
+        <v>321389.3866148043</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>180373.6539398651</v>
+        <v>326081.0408191493</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>183001.1372166759</v>
+        <v>330830.2502450874</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>185660.6321429768</v>
+        <v>335637.3574039651</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>188352.3428039463</v>
+        <v>340502.7339178227</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>191076.4903288767</v>
+        <v>345426.7822042332</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>193833.3138184812</v>
+        <v>350409.9371494823</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>196623.0712594471</v>
+        <v>355452.6677588786</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>199446.040425682</v>
+        <v>360555.478783162</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>202302.519765173</v>
+        <v>365718.9123190927</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>205192.8292717936</v>
+        <v>370943.5493830208</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>208117.3113414256</v>
+        <v>376230.0114562769</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>211076.3316116335</v>
+        <v>381578.9620010394</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>214070.2797845636</v>
+        <v>386991.1079460781</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>217099.5704327748</v>
+        <v>392467.2011418338</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>220164.6437873475</v>
+        <v>398008.0397836845</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>223265.9665083674</v>
+        <v>403614.4698035534</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>226404.0324375397</v>
+        <v>409287.3862294185</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>229579.3633327408</v>
+        <v>415027.7345123924</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>232792.5095846544</v>
+        <v>420836.5118216216</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>236044.0509158082</v>
+        <v>426714.7683075943</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>239334.5970611982</v>
+        <v>432663.6083323525</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>242664.7884321214</v>
+        <v>438684.191669588</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>246035.2967620057</v>
+        <v>444777.7346723825</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>249446.8257358219</v>
+        <v>450945.5114114865</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>252900.1116019164</v>
+        <v>457188.8547820177</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>256395.9237684155</v>
+        <v>463509.1575824692</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>259935.0653827445</v>
+        <v>469907.8735633988</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>263518.3738959089</v>
+        <v>476386.5184487564</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>267146.7216112645</v>
+        <v>482946.6709293603</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>270821.0162186553</v>
+        <v>489589.9736301188</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>274542.2013134814</v>
+        <v>496318.1340501696</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>278311.2569018801</v>
+        <v>503132.9254781075</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>282129.1998920338</v>
+        <v>510036.1878822878</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>285997.0845714343</v>
+        <v>517029.8287759186</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>289916.0030711163</v>
+        <v>524115.8240587366</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>293887.0858163929</v>
+        <v>531296.2188344542</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>297911.5019644165</v>
+        <v>538573.1282045189</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>301990.4598287447</v>
+        <v>545948.738038528</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>306125.2072906714</v>
+        <v>553425.3057208516</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>310317.0321970028</v>
+        <v>561005.1608728687</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>314567.2627446802</v>
+        <v>568690.7060515624</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>318877.2678512163</v>
+        <v>576484.4174225677</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>323248.4575106526</v>
+        <v>584388.8454071631</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>327682.2831349237</v>
+        <v>592406.6153029752</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>332180.2378790805</v>
+        <v>600540.4278756117</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>336743.8569503807</v>
+        <v>608793.0599212004</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>341374.7178995393</v>
+        <v>617167.3647967818</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>346074.4408933629</v>
+        <v>625666.2729171081</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>350844.688967304</v>
+        <v>634292.7922152337</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>355687.168256613</v>
+        <v>643050.0085644493</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>360603.6282039338</v>
+        <v>651941.0861577293</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>365595.8617422148</v>
+        <v>660969.26784258</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>370665.705450378</v>
+        <v>670137.8754066973</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>375815.0396793646</v>
+        <v>679450.3098101248</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>381045.7886467392</v>
+        <v>688910.0513606026</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>386359.9204967413</v>
+        <v>698520.6598264773</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>391759.4473228886</v>
+        <v>708285.7744819561</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>397246.4251502331</v>
+        <v>718209.1140794334</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>402822.95387422</v>
+        <v>728294.4767433882</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>408491.1771517883</v>
+        <v>738545.7397779458</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>414253.2822422166</v>
+        <v>748966.8593836135</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>420111.4997925125</v>
+        <v>759561.8702737361</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>426068.1035636937</v>
+        <v>770334.885184127</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>432125.410094309</v>
+        <v>781290.0942692013</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>438285.7782943404</v>
+        <v>792431.7643722522</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>444551.6089673699</v>
+        <v>803764.2381660221</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>450925.3442538282</v>
+        <v>815291.9331505796</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>457409.4669904878</v>
+        <v>827019.3404997404</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>464006.4999812747</v>
+        <v>838951.0237471557</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>470719.0051725684</v>
+        <v>851091.6172996633</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>477549.5827279428</v>
+        <v>863445.8247688005</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>484500.8699951648</v>
+        <v>876018.4171075026</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>491575.540359755</v>
+        <v>888814.2305416311</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>498776.3019781244</v>
+        <v>901838.1642837473</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>506105.8963832145</v>
+        <v>915095.1780163065</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>513567.0969562856</v>
+        <v>928590.2891327752</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>521162.7072568955</v>
+        <v>942328.5697223038</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>528895.5592042758</v>
+        <v>956315.1432856235</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>536768.511102231</v>
+        <v>970555.181167946</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>544784.4455003346</v>
+        <v>985053.8986958147</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>552946.2668833333</v>
+        <v>999816.5510032061</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>561256.8991812</v>
+        <v>1014848.428533273</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>569719.2830918328</v>
+        <v>1030154.852201214</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>578336.373208571</v>
+        <v>1045741.168204098</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>587111.1349448268</v>
+        <v>1061612.742463742</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>596046.5412471936</v>
+        <v>1077774.954686953</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>605145.5690902909</v>
+        <v>1094233.192031005</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>614411.1957446482</v>
+        <v>1110992.842358533</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>623846.3948105309</v>
+        <v>1128059.287069068</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>633454.1320100467</v>
+        <v>1145437.893493307</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>643237.3607301754</v>
+        <v>1163134.006836785</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>653199.0173097699</v>
+        <v>1181152.941660417</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>663342.0160643084</v>
+        <v>1199499.972886577</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>673669.2440406214</v>
+        <v>1218180.326316712</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>684183.5554973744</v>
+        <v>1237199.168652737</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>694887.7661045666</v>
+        <v>1256561.597010133</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>705784.6468573054</v>
+        <v>1276272.627914061</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>716876.9176994063</v>
+        <v>1296337.185770446</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>728167.2408534978</v>
+        <v>1316760.09080602</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>739658.2138537413</v>
+        <v>1337546.046470285</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>751352.3622788392</v>
+        <v>1358699.62629509</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>589849.7324029995</v>
+        <v>916789.7073377336</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>599590.4542736043</v>
+        <v>932386.5946392007</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>609506.1684466058</v>
+        <v>948270.3650632554</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>619598.7262418331</v>
+        <v>964444.1249999157</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>629869.8853001783</v>
+        <v>980910.8284610028</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>640321.3022187378</v>
+        <v>997673.2652165755</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>650954.5249503828</v>
+        <v>1014734.048548145</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>661770.9849721739</v>
+        <v>1032095.60262541</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>672771.989228671</v>
+        <v>1049760.149516156</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>683958.711859297</v>
+        <v>1067729.695843788</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>695332.1857177422</v>
+        <v>1086006.019105225</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>706893.2936934499</v>
+        <v>1104590.653665163</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>718642.7598484149</v>
+        <v>1123484.876447883</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>730581.1403819068</v>
+        <v>1142689.69234686</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>742708.8144379104</v>
+        <v>1162205.819375873</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>755025.9747732221</v>
+        <v>1182033.673590569</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>767532.618302903</v>
+        <v>1202173.353807298</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>780228.536544155</v>
+        <v>1222624.626153235</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>793113.3059811807</v>
+        <v>1243386.908484238</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>806186.2783725718</v>
+        <v>1264459.254705187</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>819446.5710291397</v>
+        <v>1285840.339038038</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>832893.0570869732</v>
+        <v>1307528.440277598</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>846524.3558076794</v>
+        <v>1329521.426086866</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>860338.8229338478</v>
+        <v>1351816.737377363</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>874334.5411343127</v>
+        <v>1374411.37283043</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>888509.3105734147</v>
+        <v>1397301.873615123</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>902860.6396397536</v>
+        <v>1420484.308360187</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>917385.735872951</v>
+        <v>1443954.258442761</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>932081.4971278139</v>
+        <v>1467706.803657775</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>946944.5030169012</v>
+        <v>1491736.508334668</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>961971.0066732351</v>
+        <v>1516037.407969415</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>977156.9268780152</v>
+        <v>1540602.99644471</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>992497.8405970471</v>
+        <v>1565426.213909615</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1007988.975972314</v>
+        <v>1590499.435394134</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1023625.205815505</v>
+        <v>1615814.46023512</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1039401.041650264</v>
+        <v>1641362.50238964</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1055310.628350732</v>
+        <v>1667134.181713434</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1071347.739426136</v>
+        <v>1693119.516285595</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1087505.77299694</v>
+        <v>1719307.915853813</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1103777.748511634</v>
+        <v>1745688.176480239</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1120156.304251646</v>
+        <v>1772248.476465655</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1136633.695669542</v>
+        <v>1798976.373625694</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1153201.794607425</v>
+        <v>1825858.80399583</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1169852.08943668</v>
+        <v>1852882.082032599</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1186575.686165155</v>
+        <v>1880031.902386319</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1203363.310547028</v>
+        <v>1907293.343303313</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1220205.311237834</v>
+        <v>1934650.871727061</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1237091.664024765</v>
+        <v>1962088.350147951</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1254011.977168517</v>
+        <v>1989589.045261051</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1270955.497881385</v>
+        <v>2017135.638472716</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1287911.119968835</v>
+        <v>2044710.238300786</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1304867.392653061</v>
+        <v>2072294.394699212</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1321812.530596415</v>
+        <v>2099869.115336486</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1338734.425134689</v>
+        <v>2127414.883844967</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1355620.656727338</v>
+        <v>2154911.680052876</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1340135.167848002</v>
+        <v>2115440.260167127</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1356557.470301588</v>
+        <v>2142040.25432592</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1372906.080761068</v>
+        <v>2168530.293613188</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1389167.70822702</v>
+        <v>2194889.046348707</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1405328.834031797</v>
+        <v>2221094.813737548</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1421375.731011839</v>
+        <v>2247125.560891261</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1437294.483765424</v>
+        <v>2272958.949612435</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1453071.009951657</v>
+        <v>2298572.37287137</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1468691.082585965</v>
+        <v>2323942.990902703</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1484140.353280991</v>
+        <v>2349047.768839625</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1499404.376369833</v>
+        <v>2373863.515783559</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1514468.63385176</v>
+        <v>2398366.925212576</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1529318.561084842</v>
+        <v>2422534.616606247</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1543939.573152178</v>
+        <v>2446343.178168075</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1558317.091819416</v>
+        <v>2469769.210512172</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1626890.11981525</v>
+        <v>2616789.758796216</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1641193.127029398</v>
+        <v>2640419.167067522</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1655202.838006753</v>
+        <v>2663581.828473896</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1668904.675990405</v>
+        <v>2686254.153211906</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1682284.219198216</v>
+        <v>2708412.809442575</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1695327.230200076</v>
+        <v>2730034.771487309</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1708019.685186352</v>
+        <v>2751097.367845047</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1720347.803013939</v>
+        <v>2771578.328843415</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1732298.073915933</v>
+        <v>2791455.833735849</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1743857.287759135</v>
+        <v>2810708.557053493</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1786558.083684555</v>
+        <v>2969232.924048338</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1797534.061322031</v>
+        <v>2988114.172859256</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1808077.203343311</v>
+        <v>3006289.395939325</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1818175.658457676</v>
+        <v>3023739.243650814</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1827818.013840423</v>
+        <v>3040445.114054144</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3761869.402095591</v>
+        <v>3056389.192579468</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3783135.643859539</v>
+        <v>3071554.489604257</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3803637.663219995</v>
+        <v>3085924.875772757</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3823362.353049684</v>
+        <v>3099485.114899322</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3842297.756581136</v>
+        <v>3112220.894312018</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3598167.848190946</v>
+        <v>2705795.281236216</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3614278.971373815</v>
+        <v>2714966.950121713</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3629613.930096476</v>
+        <v>2723344.478068228</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3644165.647440024</v>
+        <v>2730917.404169681</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3657928.247711376</v>
+        <v>2737676.152883962</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3670897.073070034</v>
+        <v>2743612.045012654</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3683068.696419975</v>
+        <v>2748717.305866682</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3694440.930428148</v>
+        <v>2752985.0705879</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3705012.832555861</v>
+        <v>2756409.386628596</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3714784.705971854</v>
+        <v>2758985.213385815</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2627809.988346927</v>
+        <v>2281983.499304551</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2632700.973419939</v>
+        <v>2281431.214870795</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2636948.73936491</v>
+        <v>2280085.777826375</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2640554.480679642</v>
+        <v>2277943.977478554</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2643520.199747609</v>
+        <v>2275003.307633255</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2645848.68668056</v>
+        <v>2271261.952828908</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2647543.495584186</v>
+        <v>2266718.772778379</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2648608.917182325</v>
+        <v>2261373.28515539</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2649049.94776959</v>
+        <v>2255225.646907066</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2648872.254441218</v>
+        <v>2248276.63426048</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2729570.698708053</v>
+        <v>2267935.435182687</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2728326.339197316</v>
+        <v>2259466.590967087</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2726477.24078754</v>
+        <v>2250200.20749533</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2724031.871237608</v>
+        <v>2240139.496897385</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2720999.159030372</v>
+        <v>2229288.186099553</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2717388.434922955</v>
+        <v>2217650.493366347</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2713209.369793839</v>
+        <v>2205231.105213626</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2708471.908881453</v>
+        <v>2192035.153985928</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2703186.202544295</v>
+        <v>2178068.196405972</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2697362.533700809</v>
+        <v>2163336.193405704</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2691011.242159036</v>
+        <v>2147845.491567866</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2684142.646072136</v>
+        <v>2131602.806493704</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2676766.960825997</v>
+        <v>2114615.208437398</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2668894.215694043</v>
+        <v>2096890.110523223</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2660534.168672858</v>
+        <v>2078435.259880261</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2651696.219961355</v>
+        <v>2059258.73201134</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2642389.324609988</v>
+        <v>2039368.928701651</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2632621.904943325</v>
+        <v>2018774.579768423</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2622401.763419691</v>
+        <v>1997484.748925001</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2611735.996665153</v>
+        <v>1975508.844012084</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2600630.911495973</v>
+        <v>1952856.631827113</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2589091.943802108</v>
+        <v>1929538.257737007</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2577123.581246513</v>
+        <v>1905564.270235633</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2564729.290779869</v>
+        <v>1880945.650543818</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2551911.452049056</v>
+        <v>1855693.847320554</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2538671.297803823</v>
+        <v>1829820.816473272</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2525008.862468626</v>
+        <v>1803339.066015707</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2510922.940051104</v>
+        <v>1776261.705829245</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2496411.052592964</v>
+        <v>1748602.502130067</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2481469.430351898</v>
+        <v>1720375.936349956</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2466093.00488588</v>
+        <v>1691597.26805696</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2450275.416176447</v>
+        <v>1662282.601459678</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2434009.034856866</v>
+        <v>1632448.954938138</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2417285.000529983</v>
+        <v>1602114.332954552</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2400093.277049024</v>
+        <v>1571297.799600013</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2382422.725500342</v>
+        <v>1540019.552938564</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2364261.195472812</v>
+        <v>1508300.999222937</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2345595.634993538</v>
+        <v>1476164.82594614</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2326412.219329913</v>
+        <v>1443635.072639438</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2306696.49859749</v>
+        <v>1410737.198221659</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24028464.63151348</v>
+        <v>9756111.489749428</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28056.21947461423</v>
+        <v>11403.50336771693</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>28429.19986086816</v>
+        <v>11567.36280345474</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>28806.94698426751</v>
+        <v>11733.56088690965</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>29189.50883866541</v>
+        <v>11902.13055498855</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>29576.93300778434</v>
+        <v>12073.10519667575</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>29969.26660362404</v>
+        <v>12246.51865891018</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>30366.5562024656</v>
+        <v>12422.40525253577</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>30768.84777874318</v>
+        <v>12600.79975842359</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>31176.18663620973</v>
+        <v>12781.73743351227</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>31588.61733699495</v>
+        <v>12965.25401700997</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>32006.18362866308</v>
+        <v>13151.38573671692</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>32428.92836877827</v>
+        <v>13340.16931527536</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>32856.89344788653</v>
+        <v>13531.64197666358</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>33290.1197103191</v>
+        <v>13725.84145260796</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>33728.64687357789</v>
+        <v>13922.80598920705</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>34172.51344596178</v>
+        <v>14122.57435354807</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>34621.75664297825</v>
+        <v>14325.18584040035</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>35076.41230260716</v>
+        <v>14530.68027907186</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>35536.51479957337</v>
+        <v>14739.09804021682</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>36002.09695908863</v>
+        <v>14950.48004284522</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>36473.18997012937</v>
+        <v>15164.86776133911</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>36949.82329856774</v>
+        <v>15382.30323255181</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>37432.02460079434</v>
+        <v>15602.82906305991</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>37919.81963754651</v>
+        <v>15826.48843640487</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>38413.23218899259</v>
+        <v>16053.32512047743</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>38912.28397098347</v>
+        <v>16283.38347498763</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39416.99455307653</v>
+        <v>16516.70845897786</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>39927.38127880445</v>
+        <v>16753.34563848474</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40443.45918849202</v>
+        <v>16993.3411942337</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>40965.24094526414</v>
+        <v>17236.7419294554</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>41492.73676466956</v>
+        <v>17483.59527778643</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42025.95434841552</v>
+        <v>17733.94931123799</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42564.89882291845</v>
+        <v>17987.8527483164</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>43109.57268296396</v>
+        <v>18245.35496215383</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>43659.9757414385</v>
+        <v>18506.50598881891</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>44216.10508522415</v>
+        <v>18771.35653563415</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>44777.95503847003</v>
+        <v>19039.95798967531</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>45345.51713341454</v>
+        <v>19312.36242631714</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>45918.78008962544</v>
+        <v>19588.62261790847</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>46497.72980205822</v>
+        <v>19868.79204246747</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>47082.34933920371</v>
+        <v>20152.92489263663</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>47672.61895106312</v>
+        <v>20441.07608456408</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>48268.51608857204</v>
+        <v>20733.30126701529</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>48870.01543442084</v>
+        <v>21029.65683054371</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>49477.08894628291</v>
+        <v>21330.19991671361</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>50089.7059132005</v>
+        <v>21634.98842757895</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>50707.83302544057</v>
+        <v>21944.08103511094</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>51331.43445867981</v>
+        <v>22257.53719081371</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>51960.47197324077</v>
+        <v>22575.41713546976</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>52594.90502871529</v>
+        <v>22897.78190896653</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>53234.69091475765</v>
+        <v>23224.69336023807</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>53879.78489839139</v>
+        <v>23556.21415732071</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>54530.14038881121</v>
+        <v>23892.40779758277</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>55185.70911942144</v>
+        <v>24233.33861800421</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>55846.44134819487</v>
+        <v>24579.07180557811</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>56512.28607666099</v>
+        <v>24929.67340795374</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>57183.19128734415</v>
+        <v>25285.21034404637</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>57859.10420066329</v>
+        <v>25645.75041486792</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>58539.97155109709</v>
+        <v>26011.36231449096</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>59225.73988289414</v>
+        <v>26382.11564112013</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>59916.35586536905</v>
+        <v>26758.08090827391</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>60611.76662817975</v>
+        <v>27139.32955622752</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>61311.92011582031</v>
+        <v>27525.93396336701</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>62016.76546220667</v>
+        <v>27917.96745797896</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>62726.25338424976</v>
+        <v>28315.50432993143</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>63440.33659465601</v>
+        <v>28718.61984262676</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>64158.97023364116</v>
+        <v>29127.39024511223</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>64882.11231876328</v>
+        <v>29541.89278432212</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>65609.7242125592</v>
+        <v>29962.20571743104</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>66341.7711074789</v>
+        <v>30388.4083244727</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>67078.2225270409</v>
+        <v>30820.58092102426</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>67819.05284270656</v>
+        <v>31258.80487110632</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>68564.2418054602</v>
+        <v>31703.1626002765</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69313.77509096373</v>
+        <v>32153.73760883771</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>70067.64485725691</v>
+        <v>32610.61448526989</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>70825.85031396239</v>
+        <v>33073.87891986815</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>71588.39830122824</v>
+        <v>33543.61771848019</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>72355.30387756538</v>
+        <v>34019.91881656813</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>73126.59091463937</v>
+        <v>34502.87129332955</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>73902.29269759466</v>
+        <v>34992.56538614172</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>74682.45252926608</v>
+        <v>35489.09250512088</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>75467.12433652508</v>
+        <v>35992.54524796872</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>76256.37327665799</v>
+        <v>36503.0174149801</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>77050.27634241016</v>
+        <v>37020.60402435871</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>77848.9229628727</v>
+        <v>37545.40132761344</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>78652.41559905288</v>
+        <v>38077.5068253608</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>79460.87033150803</v>
+        <v>38617.01928331972</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>80274.41743770755</v>
+        <v>39164.03874845312</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>81093.20195744096</v>
+        <v>39718.66656552424</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>81917.38424374428</v>
+        <v>40281.00539385289</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>82747.1404968327</v>
+        <v>40851.15922429656</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>83582.66327920015</v>
+        <v>41429.23339659103</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>84424.16200936698</v>
+        <v>42015.3346169977</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>85271.86343178342</v>
+        <v>42609.57097613101</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>86126.01206093789</v>
+        <v>43212.05196724092</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>86986.8705971407</v>
+        <v>43822.88850471783</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>87854.72031189605</v>
+        <v>44442.1929429941</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>88729.8614004882</v>
+        <v>45070.07909575025</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>89612.61329966856</v>
+        <v>45706.66225543866</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90503.31496859706</v>
+        <v>46352.05921328704</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91402.32513065108</v>
+        <v>47006.38827959725</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92310.02247420073</v>
+        <v>47669.76930436844</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93226.80581098853</v>
+        <v>48342.32369852835</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>94153.09418965764</v>
+        <v>49024.1744553561</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>95089.3269634124</v>
+        <v>49715.44617251845</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>96035.96380990397</v>
+        <v>50416.26507442261</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>96993.48470226364</v>
+        <v>51126.75903510102</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>97962.3898299768</v>
+        <v>51847.05760160448</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>98943.19946844086</v>
+        <v>52577.29201779167</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>99936.45379654734</v>
+        <v>53317.59524877177</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>100942.7126612984</v>
+        <v>54068.10200573724</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>101962.5552892095</v>
+        <v>54828.9487714815</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>102996.5799439551</v>
+        <v>55600.27382641539</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>104045.4035301542</v>
+        <v>56382.21727519861</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>105109.6611433909</v>
+        <v>57174.92107399763</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>106190.0055667728</v>
+        <v>57978.52905841415</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>107287.1067142613</v>
+        <v>58793.18697200973</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>108401.6510217661</v>
+        <v>59619.04249559961</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>109534.3407866833</v>
+        <v>60456.24527721608</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>110685.8934570609</v>
+        <v>61304.94696285699</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>111857.0408717061</v>
+        <v>62165.30122798176</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>113048.5284527873</v>
+        <v>63037.46380982414</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>114261.1143526044</v>
+        <v>63921.59254053307</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>115495.5685566977</v>
+        <v>64817.84738122155</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>116752.6719451732</v>
+        <v>65726.39045685052</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>118033.2153149141</v>
+        <v>66647.38609214216</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>119337.9983649309</v>
+        <v>67581.00084834966</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>120667.8286480657</v>
+        <v>68527.40356121121</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>122023.520491299</v>
+        <v>69486.76537973837</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>123405.8938885624</v>
+        <v>70459.2598062904</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>124815.7733688055</v>
+        <v>71445.06273773347</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>126253.986842661</v>
+        <v>72444.35250765432</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>127721.3644320148</v>
+        <v>73457.3099300678</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>129218.7372849782</v>
+        <v>74484.11834408177</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>130746.9363813211</v>
+        <v>75524.96366015139</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>132306.7913314361</v>
+        <v>76580.0344076037</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>133899.1291729858</v>
+        <v>77649.52178354991</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>135524.7731696517</v>
+        <v>78733.61970339282</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>137184.541615675</v>
+        <v>79832.5248528201</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>138879.2466504779</v>
+        <v>80946.43674137043</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>140609.6930878227</v>
+        <v>82075.55775779102</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>142376.6772631372</v>
+        <v>83220.09322697284</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>144180.9859038749</v>
+        <v>84380.25146885779</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>146023.3950262708</v>
+        <v>85556.2438590332</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>147904.6688635206</v>
+        <v>86748.28489149125</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>149825.5588284383</v>
+        <v>87956.59224318549</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>151786.8025153724</v>
+        <v>89181.38684084117</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>153789.1227449509</v>
+        <v>90422.89292995162</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>155833.2266550539</v>
+        <v>91681.33814587181</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>157919.8048425027</v>
+        <v>92956.95358750841</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>160049.5305579445</v>
+        <v>94249.97389321022</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>162223.0589582699</v>
+        <v>95560.63731940335</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>164441.0264188841</v>
+        <v>96889.18582172366</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>166704.0499092647</v>
+        <v>98235.86513886129</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>169012.7264348185</v>
+        <v>99600.92487943459</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>171367.6325468085</v>
+        <v>100984.6186115084</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>173769.3239237618</v>
+        <v>102387.2039554474</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>176218.3350256275</v>
+        <v>103808.9426797303</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>178715.1788231238</v>
+        <v>105250.100800153</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>181260.3466037306</v>
+        <v>106710.9486823967</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>183854.3078557565</v>
+        <v>108191.7611481144</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>186497.5102318245</v>
+        <v>109692.8175847533</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>189190.3795922464</v>
+        <v>111214.4020590035</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>191933.3201294834</v>
+        <v>112756.8034343271</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>194726.714573824</v>
+        <v>114320.3154925291</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>197570.9244802236</v>
+        <v>115905.2370594704</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>200466.2905964241</v>
+        <v>117511.8721351764</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>203413.1333120076</v>
+        <v>119140.5300285255</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>206411.753187447</v>
+        <v>120791.5254965232</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>209462.4315624645</v>
+        <v>122465.1788884564</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>212565.4312425595</v>
+        <v>124161.8162950637</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>215720.9972622389</v>
+        <v>125881.7697028836</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>218929.3577233029</v>
+        <v>127625.3771539191</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>222190.7247064608</v>
+        <v>129392.9829108716</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>225505.2952542466</v>
+        <v>131184.9376281256</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>228873.2524227732</v>
+        <v>133001.5985285754</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>232294.7664001885</v>
+        <v>134843.329586639</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>235769.9956888727</v>
+        <v>136710.5017174904</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>239299.0883489767</v>
+        <v>138603.4929728838</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>242882.1833001086</v>
+        <v>140522.6887436857</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>246519.411678185</v>
+        <v>142468.4819693184</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>250210.8982441131</v>
+        <v>144441.2733543141</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>253956.7628414749</v>
+        <v>146441.4715923731</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>257757.1218992013</v>
+        <v>148469.4935979072</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>261612.0899761773</v>
+        <v>150525.764745427</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>265521.7813443594</v>
+        <v>152610.7191171111</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>269486.3116062411</v>
+        <v>154724.7997584683</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>273505.7993439845</v>
+        <v>156868.4589427977</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>277580.3677957946</v>
+        <v>159042.1584442624</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>281710.1465562092</v>
+        <v>161246.3698199975</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>285895.2732972875</v>
+        <v>163481.5747017376</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>290135.8955060471</v>
+        <v>165748.2650967083</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>294432.1722355626</v>
+        <v>168046.9436984652</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>298784.2758660738</v>
+        <v>170378.1242078419</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>303192.3938724721</v>
+        <v>172742.3316641371</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>307656.7305951469</v>
+        <v>175140.1027869125</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>312177.5090110328</v>
+        <v>177571.9863287</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>316754.9725015463</v>
+        <v>180038.5434387207</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>321389.3866148043</v>
+        <v>182540.3480380846</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>326081.0408191493</v>
+        <v>185077.9872066177</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>330830.2502450874</v>
+        <v>187652.0615814902</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>335637.3574039651</v>
+        <v>190263.1857681011</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>340502.7339178227</v>
+        <v>192911.9887634588</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>345426.7822042332</v>
+        <v>195599.1143919576</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>350409.9371494823</v>
+        <v>198325.2217543941</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>355452.6677588786</v>
+        <v>201090.9856899011</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>360555.478783162</v>
+        <v>203897.097251402</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>365718.9123190927</v>
+        <v>206744.2641946224</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>370943.5493830208</v>
+        <v>209633.2114809615</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>376230.0114562769</v>
+        <v>212564.6817944623</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>381578.9620010394</v>
+        <v>215539.4360729216</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>386991.1079460781</v>
+        <v>218558.2540534562</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>392467.2011418338</v>
+        <v>221621.9348327997</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>398008.0397836845</v>
+        <v>224731.2974421651</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>403614.4698035534</v>
+        <v>227887.1814370952</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>409287.3862294185</v>
+        <v>231090.4475023494</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>415027.7345123924</v>
+        <v>234341.9780717845</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>420836.5118216216</v>
+        <v>237642.6779634488</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>426714.7683075943</v>
+        <v>240993.4750301679</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>432663.6083323525</v>
+        <v>244395.3208247523</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>438684.191669588</v>
+        <v>247849.1912811706</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>444777.7346723825</v>
+        <v>251356.0874102831</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>450945.5114114865</v>
+        <v>254917.0360112945</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>457188.8547820177</v>
+        <v>258533.0903974134</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>463509.1575824692</v>
+        <v>262205.3311372885</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>469907.8735633988</v>
+        <v>265934.8668102871</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>476386.5184487564</v>
+        <v>269722.8347765864</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>482946.6709293603</v>
+        <v>273570.4019611636</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>489589.9736301188</v>
+        <v>277478.7656518113</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>496318.1340501696</v>
+        <v>281449.1543100079</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>503132.9254781075</v>
+        <v>285482.8283949796</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>510036.1878822878</v>
+        <v>289581.081200132</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>517029.8287759186</v>
+        <v>293745.2397008162</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>524115.8240587366</v>
+        <v>297976.6654135085</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>531296.2188344542</v>
+        <v>302276.7552650267</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>538573.1282045189</v>
+        <v>306646.9424711484</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>545948.738038528</v>
+        <v>311088.6974238392</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>553425.3057208516</v>
+        <v>315603.528585882</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>561005.1608728687</v>
+        <v>320192.9833916014</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>568690.7060515624</v>
+        <v>324858.649153079</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>576484.4174225677</v>
+        <v>329602.1539698451</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>584388.8454071631</v>
+        <v>334425.1676407634</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>592406.6153029752</v>
+        <v>339329.4025769794</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>600540.4278756117</v>
+        <v>344316.6147134267</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>608793.0599212004</v>
+        <v>349388.6044178922</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>617167.3647967818</v>
+        <v>354547.2173949745</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>625666.2729171081</v>
+        <v>359794.3455831844</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>634292.7922152337</v>
+        <v>365131.9280427727</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>643050.0085644493</v>
+        <v>370561.9518320087</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>651941.0861577293</v>
+        <v>376086.4528688265</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>660969.26784258</v>
+        <v>381707.5167757687</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>670137.8754066973</v>
+        <v>387427.2797047617</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>679450.3098101248</v>
+        <v>393247.9291384256</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>688910.0513606026</v>
+        <v>399171.7046651835</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>698520.6598264773</v>
+        <v>405200.8987241686</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>708285.7744819561</v>
+        <v>411337.8573161291</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>718209.1140794334</v>
+        <v>417584.9806765275</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>728294.4767433882</v>
+        <v>423944.723906884</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>738545.7397779458</v>
+        <v>430419.5975590987</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>748966.8593836135</v>
+        <v>437012.1681693333</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>759561.8702737361</v>
+        <v>443725.0587353232</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>770334.885184127</v>
+        <v>450560.9491325278</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>781290.0942692013</v>
+        <v>457522.5764644989</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>792431.7643722522</v>
+        <v>464612.7353396199</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>803764.2381660221</v>
+        <v>471834.2780710922</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>815291.9331505796</v>
+        <v>479190.1147919282</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>827019.3404997404</v>
+        <v>486683.2134790351</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>838951.0237471557</v>
+        <v>494316.5998803364</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>851091.6172996633</v>
+        <v>502093.3573369296</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>863445.8247688005</v>
+        <v>510016.6264940069</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>876018.4171075026</v>
+        <v>518089.6048920748</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>888814.2305416311</v>
+        <v>526315.5464314449</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>901838.1642837473</v>
+        <v>534697.7607015934</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>915095.1780163065</v>
+        <v>543239.6121668415</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>928590.2891327752</v>
+        <v>551944.5192004547</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>942328.5697223038</v>
+        <v>560815.9529575644</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>956315.1432856235</v>
+        <v>569857.4360784052</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>970555.181167946</v>
+        <v>579072.5412121782</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>985053.8986958147</v>
+        <v>588464.8893524314</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>999816.5510032061</v>
+        <v>598038.147973855</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1014848.428533273</v>
+        <v>607796.0289608446</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1030154.852201214</v>
+        <v>617742.2863176309</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1045741.168204098</v>
+        <v>627880.7136498303</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1061612.742463742</v>
+        <v>638215.1414073241</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1077774.954686953</v>
+        <v>648749.4338772637</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1094233.192031005</v>
+        <v>659487.4859178733</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1110992.842358533</v>
+        <v>670433.2194215625</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1128059.287069068</v>
+        <v>681590.5794974237</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1145437.893493307</v>
+        <v>692963.5303624659</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1163134.006836785</v>
+        <v>704556.0509311497</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1181152.941660417</v>
+        <v>716372.1300930857</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1199499.972886577</v>
+        <v>728415.7616694031</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1218180.326316712</v>
+        <v>740690.9390365832</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1237199.168652737</v>
+        <v>753201.6494101001</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1256561.597010133</v>
+        <v>765951.8677775337</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1276272.627914061</v>
+        <v>778945.5504727659</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1296337.185770446</v>
+        <v>792186.6283830825</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1316760.09080602</v>
+        <v>805678.9997821068</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1337546.046470285</v>
+        <v>819426.5227808099</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1358699.62629509</v>
+        <v>833433.0073903853</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>916789.7073377336</v>
+        <v>698022.5968728472</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>932386.5946392007</v>
+        <v>710184.2017317358</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>948270.3650632554</v>
+        <v>722574.8803554495</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>964444.1249999157</v>
+        <v>735197.6252832022</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>980910.8284610028</v>
+        <v>748055.3470530414</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>997673.2652165755</v>
+        <v>761150.8654509509</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1014734.048548145</v>
+        <v>774486.9004223653</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1032095.60262541</v>
+        <v>788066.0626479855</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1049760.149516156</v>
+        <v>801890.8437875921</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1067729.695843788</v>
+        <v>815963.606399111</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1086006.019105225</v>
+        <v>830286.5735388945</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1104590.653665163</v>
+        <v>844861.8180516057</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1123484.876447883</v>
+        <v>859691.2515617146</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1142689.69234686</v>
+        <v>874776.613178087</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1162205.819375873</v>
+        <v>890119.4579256993</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1182033.673590569</v>
+        <v>905721.1449222395</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1202173.353807298</v>
+        <v>921582.8253161371</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1222624.626153235</v>
+        <v>937705.4300076866</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1243386.908484238</v>
+        <v>954089.6571768726</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1264459.254705187</v>
+        <v>970735.9596406192</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1285840.339038038</v>
+        <v>987644.5320696549</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1307528.440277598</v>
+        <v>1004815.298091996</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1329521.426086866</v>
+        <v>1022247.8973185</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1351816.737377363</v>
+        <v>1039941.672321908</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1374411.37283043</v>
+        <v>1057895.655608572</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1397301.873615123</v>
+        <v>1076108.55662214</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1420484.308360187</v>
+        <v>1094578.748820347</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1443954.258442761</v>
+        <v>1113304.25687007</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1467706.803657775</v>
+        <v>1132282.744007236</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1491736.508334668</v>
+        <v>1151511.499610677</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1516037.407969415</v>
+        <v>1170987.427040354</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1540602.99644471</v>
+        <v>1190707.03179461</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1565426.213909615</v>
+        <v>1210666.4100404</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1590499.435394134</v>
+        <v>1230861.237574242</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1615814.46023512</v>
+        <v>1251286.759272729</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1641362.50238964</v>
+        <v>1271937.779092107</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1667134.181713434</v>
+        <v>1292808.650678068</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1693119.516285595</v>
+        <v>1313893.268650127</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1719307.915853813</v>
+        <v>1335185.060620841</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1745688.176480239</v>
+        <v>1356676.980014964</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1772248.476465655</v>
+        <v>1378361.49975257</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1798976.373625694</v>
+        <v>1400230.606858205</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1825858.80399583</v>
+        <v>1422275.798060979</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1852882.082032599</v>
+        <v>1444488.076444499</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1880031.902386319</v>
+        <v>1466857.949212036</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1907293.343303313</v>
+        <v>1489375.426620469</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1934650.871727061</v>
+        <v>1512030.022145601</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1962088.350147951</v>
+        <v>1534810.753927735</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1989589.045261051</v>
+        <v>1557706.147554203</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2017135.638472716</v>
+        <v>1580704.240222652</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2044710.238300786</v>
+        <v>1603792.586332336</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2072294.394699212</v>
+        <v>1626958.26454104</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2099869.115336486</v>
+        <v>1650187.886324892</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2127414.883844967</v>
+        <v>1673467.606069517</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2154911.680052876</v>
+        <v>1696783.132717821</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2115440.260167127</v>
+        <v>1769272.444420747</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2142040.25432592</v>
+        <v>1793267.179418512</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2168530.293613188</v>
+        <v>1817253.850546587</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2194889.046348707</v>
+        <v>1841216.2018734</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2221094.813737548</v>
+        <v>1865137.606600472</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2247125.560891261</v>
+        <v>1889001.088733062</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2272958.949612435</v>
+        <v>1912789.346330055</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2298572.37287137</v>
+        <v>1936484.776294522</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2323942.990902703</v>
+        <v>1960069.500665351</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2349047.768839625</v>
+        <v>1983525.394361636</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2373863.515783559</v>
+        <v>2006834.114315896</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2398366.925212576</v>
+        <v>2029977.129935368</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2422534.616606247</v>
+        <v>2052935.754809951</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2446343.178168075</v>
+        <v>2075691.179587136</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2469769.210512172</v>
+        <v>2098224.505921843</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2616789.758796216</v>
+        <v>2296232.565024664</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2640419.167067522</v>
+        <v>2320168.579659953</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2663581.828473896</v>
+        <v>2343814.226055393</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2686254.153211906</v>
+        <v>2367149.537076502</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2708412.809442575</v>
+        <v>2390154.653819761</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2730034.771487309</v>
+        <v>2412809.866653376</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2751097.367845047</v>
+        <v>2435095.656518187</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2771578.328843415</v>
+        <v>2456992.736337178</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2791455.833735849</v>
+        <v>2478482.092379145</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2810708.557053493</v>
+        <v>2499545.025417438</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2969232.924048338</v>
+        <v>2873894.265713317</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2988114.172859256</v>
+        <v>2897229.067873368</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3006289.395939325</v>
+        <v>2920045.479256338</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3023739.243650814</v>
+        <v>2942325.062741722</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3040445.114054144</v>
+        <v>2964049.97809452</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3056389.192579468</v>
+        <v>2985203.023793582</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3071554.489604257</v>
+        <v>3005767.677379392</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3085924.875772757</v>
+        <v>3025728.134147499</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3099485.114899322</v>
+        <v>3045069.344015534</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3112220.894312018</v>
+        <v>3063777.0464017</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2705795.281236216</v>
+        <v>2428504.715205217</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2714966.950121713</v>
+        <v>2441227.993100518</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2723344.478068228</v>
+        <v>2453360.959155608</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2730917.404169681</v>
+        <v>2464893.322407724</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2737676.152883962</v>
+        <v>2475815.493732595</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2743612.045012654</v>
+        <v>2486118.600126637</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2748717.305866682</v>
+        <v>2495794.496636008</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2752985.0705879</v>
+        <v>2504835.775868246</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2756409.386628596</v>
+        <v>2513235.775047287</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2758985.213385815</v>
+        <v>2520988.580568185</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2281983.499304551</v>
+        <v>1850693.721506533</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2281431.214870795</v>
+        <v>1853368.080973229</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2280085.777826375</v>
+        <v>1855454.92157154</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2277943.977478554</v>
+        <v>1856949.383159738</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2275003.307633255</v>
+        <v>1857847.084369344</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2271261.952828908</v>
+        <v>1858144.112517345</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2266718.772778379</v>
+        <v>1857837.011934794</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2261373.28515539</v>
+        <v>1856922.770813616</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2255225.646907066</v>
+        <v>1855398.806712239</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2248276.63426048</v>
+        <v>1853262.950856816</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2267935.435182687</v>
+        <v>2164562.568182128</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2259466.590967087</v>
+        <v>2162591.140110541</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2250200.20749533</v>
+        <v>2159985.106147991</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2240139.496897385</v>
+        <v>2156745.731782159</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2229288.186099553</v>
+        <v>2152874.704615287</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2217650.493366347</v>
+        <v>2148374.112057933</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2205231.105213626</v>
+        <v>2143246.418962103</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2192035.153985928</v>
+        <v>2137494.445476789</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2178068.196405972</v>
+        <v>2131121.345429514</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2163336.193405704</v>
+        <v>2124130.585547348</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2147845.491567866</v>
+        <v>2116525.925855763</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2131602.806493704</v>
+        <v>2108311.401590969</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2114615.208437398</v>
+        <v>2099491.306990149</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2096890.110523223</v>
+        <v>2090070.181311179</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2078435.259880261</v>
+        <v>2080052.797456045</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2059258.73201134</v>
+        <v>2069444.153562706</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2039368.928701651</v>
+        <v>2058249.467925919</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2018774.579768423</v>
+        <v>2046474.177607337</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1997484.748925001</v>
+        <v>2034123.941073622</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1975508.844012084</v>
+        <v>2021204.645184336</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1952856.631827113</v>
+        <v>2007722.416830631</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1929538.257737007</v>
+        <v>1993683.639483562</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1905564.270235633</v>
+        <v>1979094.974883872</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1880945.650543818</v>
+        <v>1963963.390042332</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1855693.847320554</v>
+        <v>1948296.189683261</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1829820.816473272</v>
+        <v>1932101.054180975</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1803339.066015707</v>
+        <v>1915386.082988046</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1776261.705829245</v>
+        <v>1898159.843455587</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1748602.502130067</v>
+        <v>1880431.424877709</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1720375.936349956</v>
+        <v>1862210.497486333</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1691597.26805696</v>
+        <v>1843507.376025978</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1662282.601459678</v>
+        <v>1824333.087438253</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1632448.954938138</v>
+        <v>1804699.442069152</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1602114.332954552</v>
+        <v>1784619.10770379</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1571297.799600013</v>
+        <v>1764105.685617917</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1540019.552938564</v>
+        <v>1743173.787722857</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1508300.999222937</v>
+        <v>1721839.113774809</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1476164.82594614</v>
+        <v>1700118.527496142</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1443635.072639438</v>
+        <v>1678030.130383869</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1410737.198221659</v>
+        <v>1655593.331866892</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_delta_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>9756111.489749428</v>
+        <v>9756111.489749426</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>11403.50336771693</v>
+        <v>11403.50336771653</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>11567.36280345474</v>
+        <v>11567.36280345386</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>11733.56088690965</v>
+        <v>11733.56088691022</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>11902.13055498855</v>
+        <v>11902.1305549905</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>12073.10519667575</v>
+        <v>12073.10519667329</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>12246.51865891018</v>
+        <v>12246.51865890903</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>12422.40525253577</v>
+        <v>12422.40525253784</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>12600.79975842359</v>
+        <v>12600.7997584269</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>12781.73743351227</v>
+        <v>12781.73743350904</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>12965.25401700997</v>
+        <v>12965.25401700984</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13151.38573671692</v>
+        <v>13151.38573671594</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>13340.16931527536</v>
+        <v>13340.16931527926</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>13531.64197666358</v>
+        <v>13531.64197666268</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>13725.84145260796</v>
+        <v>13725.84145260606</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>13922.80598920705</v>
+        <v>13922.80598920794</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>14122.57435354807</v>
+        <v>14122.5743535478</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>14325.18584040035</v>
+        <v>14325.18584039887</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>14530.68027907186</v>
+        <v>14530.68027907492</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>14739.09804021682</v>
+        <v>14739.09804021273</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>14950.48004284522</v>
+        <v>14950.4800428474</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>15164.86776133911</v>
+        <v>15164.86776133786</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>15382.30323255181</v>
+        <v>15382.30323255086</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>15602.82906305991</v>
+        <v>15602.82906306308</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>15826.48843640487</v>
+        <v>15826.48843640046</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>16053.32512047743</v>
+        <v>16053.32512047887</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>16283.38347498763</v>
+        <v>16283.38347498708</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>16516.70845897786</v>
+        <v>16516.70845898099</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>16753.34563848474</v>
+        <v>16753.34563848373</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>16993.3411942337</v>
+        <v>16993.34119423617</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>17236.7419294554</v>
+        <v>17236.74192945351</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>17483.59527778643</v>
+        <v>17483.59527778389</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>17733.94931123799</v>
+        <v>17733.94931123855</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>17987.8527483164</v>
+        <v>17987.85274831799</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>18245.35496215383</v>
+        <v>18245.35496215243</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>18506.50598881891</v>
+        <v>18506.50598881636</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>18771.35653563415</v>
+        <v>18771.35653563605</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>19039.95798967531</v>
+        <v>19039.95798967569</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>19312.36242631714</v>
+        <v>19312.36242632358</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>19588.62261790847</v>
+        <v>19588.62261790539</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>19868.79204246747</v>
+        <v>19868.79204246627</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>20152.92489263663</v>
+        <v>20152.92489263324</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>20441.07608456408</v>
+        <v>20441.07608456606</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>20733.30126701529</v>
+        <v>20733.30126702244</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>21029.65683054371</v>
+        <v>21029.65683053654</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>21330.19991671361</v>
+        <v>21330.19991671505</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>21634.98842757895</v>
+        <v>21634.98842758113</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>21944.08103511094</v>
+        <v>21944.08103510783</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>22257.53719081371</v>
+        <v>22257.53719081279</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>22575.41713546976</v>
+        <v>22575.41713546889</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>22897.78190896653</v>
+        <v>22897.78190896545</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>23224.69336023807</v>
+        <v>23224.69336024046</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>23556.21415732071</v>
+        <v>23556.21415732043</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>23892.40779758277</v>
+        <v>23892.40779758549</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>24233.33861800421</v>
+        <v>24233.33861800377</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>24579.07180557811</v>
+        <v>24579.07180557622</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>24929.67340795374</v>
+        <v>24929.67340795782</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>25285.21034404637</v>
+        <v>25285.21034404269</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>25645.75041486792</v>
+        <v>25645.75041487153</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26011.36231449096</v>
+        <v>26011.36231449201</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26382.11564112013</v>
+        <v>26382.11564111442</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26758.08090827391</v>
+        <v>26758.08090827657</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>27139.32955622752</v>
+        <v>27139.32955622474</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>27525.93396336701</v>
+        <v>27525.9339633662</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>27917.96745797896</v>
+        <v>27917.96745798747</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>28315.50432993143</v>
+        <v>28315.50432993159</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>28718.61984262676</v>
+        <v>28718.61984262209</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>29127.39024511223</v>
+        <v>29127.39024511203</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>29541.89278432212</v>
+        <v>29541.89278432215</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>29962.20571743104</v>
+        <v>29962.20571742519</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>30388.4083244727</v>
+        <v>30388.40832447598</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>30820.58092102426</v>
+        <v>30820.58092102664</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>31258.80487110632</v>
+        <v>31258.80487110557</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>31703.1626002765</v>
+        <v>31703.16260027795</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>32153.73760883771</v>
+        <v>32153.73760883527</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>32610.61448526989</v>
+        <v>32610.61448527071</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>33073.87891986815</v>
+        <v>33073.87891987007</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>33543.61771848019</v>
+        <v>33543.61771848076</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>34019.91881656813</v>
+        <v>34019.918816565</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>34502.87129332955</v>
+        <v>34502.871293332</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>34992.56538614172</v>
+        <v>34992.56538613957</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>35489.09250512088</v>
+        <v>35489.09250511961</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>35992.54524796872</v>
+        <v>35992.54524796784</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>36503.0174149801</v>
+        <v>36503.01741498288</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>37020.60402435871</v>
+        <v>37020.60402435324</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>37545.40132761344</v>
+        <v>37545.40132761853</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>38077.5068253608</v>
+        <v>38077.50682535469</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>38617.01928331972</v>
+        <v>38617.0192833252</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>39164.03874845312</v>
+        <v>39164.03874845032</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>39718.66656552424</v>
+        <v>39718.6665655263</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>40281.00539385289</v>
+        <v>40281.00539385906</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>40851.15922429656</v>
+        <v>40851.15922429107</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>41429.23339659103</v>
+        <v>41429.23339659649</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>42015.3346169977</v>
+        <v>42015.33461699722</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>42609.57097613101</v>
+        <v>42609.57097612494</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>43212.05196724092</v>
+        <v>43212.05196724233</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>43822.88850471783</v>
+        <v>43822.88850471559</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>44442.1929429941</v>
+        <v>44442.19294300013</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>45070.07909575025</v>
+        <v>45070.07909574372</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>45706.66225543866</v>
+        <v>45706.66225543831</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>46352.05921328704</v>
+        <v>46352.05921329231</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>47006.38827959725</v>
+        <v>47006.38827959506</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>47669.76930436844</v>
+        <v>47669.76930436878</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>48342.32369852835</v>
+        <v>48342.32369852772</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>49024.1744553561</v>
+        <v>49024.17445535585</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>49715.44617251845</v>
+        <v>49715.44617251805</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>50416.26507442261</v>
+        <v>50416.26507442335</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>51126.75903510102</v>
+        <v>51126.75903510213</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>51847.05760160448</v>
+        <v>51847.05760160447</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>52577.29201779167</v>
+        <v>52577.29201779197</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>53317.59524877177</v>
+        <v>53317.59524876864</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>54068.10200573724</v>
+        <v>54068.10200574066</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>54828.9487714815</v>
+        <v>54828.94877148132</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>55600.27382641539</v>
+        <v>55600.27382641266</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>56382.21727519861</v>
+        <v>56382.2172752005</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>57174.92107399763</v>
+        <v>57174.92107399955</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>57978.52905841415</v>
+        <v>57978.52905841353</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>58793.18697200973</v>
+        <v>58793.1869720067</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>59619.04249559961</v>
+        <v>59619.04249560034</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>60456.24527721608</v>
+        <v>60456.24527721776</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>61304.94696285699</v>
+        <v>61304.94696285433</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>62165.30122798176</v>
+        <v>62165.30122798348</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>63037.46380982414</v>
+        <v>63037.46380982464</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>63921.59254053307</v>
+        <v>63921.59254053362</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>64817.84738122155</v>
+        <v>64817.84738122146</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>65726.39045685052</v>
+        <v>65726.3904568546</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>66647.38609214216</v>
+        <v>66647.38609213413</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>67581.00084834966</v>
+        <v>67581.00084835596</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>68527.40356121121</v>
+        <v>68527.40356121153</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>69486.76537973837</v>
+        <v>69486.7653797331</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>70459.2598062904</v>
+        <v>70459.25980629282</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>71445.06273773347</v>
+        <v>71445.06273773259</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>72444.35250765432</v>
+        <v>72444.3525076587</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>73457.3099300678</v>
+        <v>73457.30993006221</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>74484.11834408177</v>
+        <v>74484.11834408148</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>75524.96366015139</v>
+        <v>75524.96366015315</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>76580.0344076037</v>
+        <v>76580.03440760507</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>77649.52178354991</v>
+        <v>77649.52178354828</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>78733.61970339282</v>
+        <v>78733.61970339435</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>79832.5248528201</v>
+        <v>79832.52485281961</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>80946.43674137043</v>
+        <v>80946.43674137033</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>82075.55775779102</v>
+        <v>82075.55775778901</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>83220.09322697284</v>
+        <v>83220.09322697604</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>84380.25146885779</v>
+        <v>84380.25146885353</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>85556.2438590332</v>
+        <v>85556.24385903894</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>86748.28489149125</v>
+        <v>86748.28489148957</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>87956.59224318549</v>
+        <v>87956.59224318323</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>89181.38684084117</v>
+        <v>89181.38684083826</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>90422.89292995162</v>
+        <v>90422.89292994945</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>91681.33814587181</v>
+        <v>91681.33814587773</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>92956.95358750841</v>
+        <v>92956.95358751087</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>94249.97389321022</v>
+        <v>94249.97389320728</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>95560.63731940335</v>
+        <v>95560.63731940585</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>96889.18582172366</v>
+        <v>96889.18582171723</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>98235.86513886129</v>
+        <v>98235.86513886612</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>99600.92487943459</v>
+        <v>99600.92487943126</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>100984.6186115084</v>
+        <v>100984.6186115153</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>102387.2039554474</v>
+        <v>102387.2039554394</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>103808.9426797303</v>
+        <v>103808.9426797351</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>105250.100800153</v>
+        <v>105250.1008001522</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>106710.9486823967</v>
+        <v>106710.948682394</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>108191.7611481144</v>
+        <v>108191.7611481175</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>109692.8175847533</v>
+        <v>109692.8175847516</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>111214.4020590035</v>
+        <v>111214.4020590023</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>112756.8034343271</v>
+        <v>112756.8034343272</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>114320.3154925291</v>
+        <v>114320.3154925324</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>115905.2370594704</v>
+        <v>115905.2370594677</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>117511.8721351764</v>
+        <v>117511.8721351776</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>119140.5300285255</v>
+        <v>119140.5300285286</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>120791.5254965232</v>
+        <v>120791.5254965219</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>122465.1788884564</v>
+        <v>122465.1788884529</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>124161.8162950637</v>
+        <v>124161.8162950679</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>125881.7697028836</v>
+        <v>125881.7697028816</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>127625.3771539191</v>
+        <v>127625.3771539209</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>129392.9829108716</v>
+        <v>129392.9829108666</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>131184.9376281256</v>
+        <v>131184.9376281248</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>133001.5985285754</v>
+        <v>133001.5985285768</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>134843.329586639</v>
+        <v>134843.32958664</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>136710.5017174904</v>
+        <v>136710.5017174905</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>138603.4929728838</v>
+        <v>138603.4929728823</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>140522.6887436857</v>
+        <v>140522.6887436865</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>142468.4819693184</v>
+        <v>142468.4819693188</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>144441.2733543141</v>
+        <v>144441.2733543173</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>146441.4715923731</v>
+        <v>146441.4715923735</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>148469.4935979072</v>
+        <v>148469.4935979078</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>150525.764745427</v>
+        <v>150525.7647454224</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>152610.7191171111</v>
+        <v>152610.7191171093</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>154724.7997584683</v>
+        <v>154724.7997584719</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>156868.4589427977</v>
+        <v>156868.458942799</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>159042.1584442624</v>
+        <v>159042.1584442603</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>161246.3698199975</v>
+        <v>161246.3698199957</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>163481.5747017376</v>
+        <v>163481.5747017423</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>165748.2650967083</v>
+        <v>165748.2650967055</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>168046.9436984652</v>
+        <v>168046.9436984639</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>170378.1242078419</v>
+        <v>170378.124207846</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>172742.3316641371</v>
+        <v>172742.3316641323</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>175140.1027869125</v>
+        <v>175140.1027869187</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>177571.9863287</v>
+        <v>177571.9863286932</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>180038.5434387207</v>
+        <v>180038.5434387218</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>182540.3480380846</v>
+        <v>182540.3480380885</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>185077.9872066177</v>
+        <v>185077.987206618</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>187652.0615814902</v>
+        <v>187652.0615814838</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>190263.1857681011</v>
+        <v>190263.1857681066</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>192911.9887634588</v>
+        <v>192911.988763455</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>195599.1143919576</v>
+        <v>195599.1143919574</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>198325.2217543941</v>
+        <v>198325.2217544001</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>201090.9856899011</v>
+        <v>201090.9856898994</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>203897.097251402</v>
+        <v>203897.097251396</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>206744.2641946224</v>
+        <v>206744.2641946262</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>209633.2114809615</v>
+        <v>209633.211480965</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>212564.6817944623</v>
+        <v>212564.6817944624</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>215539.4360729216</v>
+        <v>215539.4360729209</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>218558.2540534562</v>
+        <v>218558.2540534574</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>221621.9348327997</v>
+        <v>221621.9348327962</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>224731.2974421651</v>
+        <v>224731.2974421608</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>227887.1814370952</v>
+        <v>227887.1814370975</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>231090.4475023494</v>
+        <v>231090.4475023473</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>234341.9780717845</v>
+        <v>234341.9780717955</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>237642.6779634488</v>
+        <v>237642.6779634421</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>240993.4750301679</v>
+        <v>240993.4750301729</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>244395.3208247523</v>
+        <v>244395.3208247423</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>247849.1912811706</v>
+        <v>247849.1912811759</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>251356.0874102831</v>
+        <v>251356.0874102804</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>254917.0360112945</v>
+        <v>254917.0360112927</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>258533.0903974134</v>
+        <v>258533.0903974235</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>262205.3311372885</v>
+        <v>262205.3311372793</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>265934.8668102871</v>
+        <v>265934.8668102864</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>269722.8347765864</v>
+        <v>269722.8347765916</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>273570.4019611636</v>
+        <v>273570.4019611668</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>277478.7656518113</v>
+        <v>277478.7656518018</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>281449.1543100079</v>
+        <v>281449.1543100096</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>285482.8283949796</v>
+        <v>285482.8283949863</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>289581.081200132</v>
+        <v>289581.0812001285</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>293745.2397008162</v>
+        <v>293745.2397008184</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>297976.6654135085</v>
+        <v>297976.6654135104</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>302276.7552650267</v>
+        <v>302276.7552650251</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>306646.9424711484</v>
+        <v>306646.9424711521</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>311088.6974238392</v>
+        <v>311088.6974238336</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>315603.528585882</v>
+        <v>315603.5285858838</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>320192.9833916014</v>
+        <v>320192.9833915966</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>324858.649153079</v>
+        <v>324858.6491530834</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>329602.1539698451</v>
+        <v>329602.1539698447</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>334425.1676407634</v>
+        <v>334425.1676407637</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>339329.4025769794</v>
+        <v>339329.4025769797</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>344316.6147134267</v>
+        <v>344316.6147134218</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>349388.6044178922</v>
+        <v>349388.6044178915</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>354547.2173949745</v>
+        <v>354547.2173949805</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>359794.3455831844</v>
+        <v>359794.3455831839</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>365131.9280427727</v>
+        <v>365131.9280427743</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>370561.9518320087</v>
+        <v>370561.9518320092</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>376086.4528688265</v>
+        <v>376086.4528688233</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>381707.5167757687</v>
+        <v>381707.5167757662</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>387427.2797047617</v>
+        <v>387427.2797047644</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>393247.9291384256</v>
+        <v>393247.929138422</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>399171.7046651835</v>
+        <v>399171.704665187</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>405200.8987241686</v>
+        <v>405200.8987241681</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>411337.8573161291</v>
+        <v>411337.857316135</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>417584.9806765275</v>
+        <v>417584.9806765234</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>423944.723906884</v>
+        <v>423944.7239068802</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>430419.5975590987</v>
+        <v>430419.5975590922</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>437012.1681693333</v>
+        <v>437012.1681693442</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>443725.0587353232</v>
+        <v>443725.0587353161</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>450560.9491325278</v>
+        <v>450560.9491325464</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>457522.5764644989</v>
+        <v>457522.5764644843</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>464612.7353396199</v>
+        <v>464612.7353396172</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>471834.2780710922</v>
+        <v>471834.2780710941</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>479190.1147919282</v>
+        <v>479190.1147919267</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>486683.2134790351</v>
+        <v>486683.213479031</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>494316.5998803364</v>
+        <v>494316.5998803431</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>502093.3573369296</v>
+        <v>502093.3573369276</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>510016.6264940069</v>
+        <v>510016.626494007</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>518089.6048920748</v>
+        <v>518089.6048920815</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>526315.5464314449</v>
+        <v>526315.5464314463</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>534697.7607015934</v>
+        <v>534697.7607015849</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>543239.6121668415</v>
+        <v>543239.6121668431</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>551944.5192004547</v>
+        <v>551944.5192004623</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>560815.9529575644</v>
+        <v>560815.9529575647</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>569857.4360784052</v>
+        <v>569857.43607839</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>579072.5412121782</v>
+        <v>579072.5412121855</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>588464.8893524314</v>
+        <v>588464.8893524279</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>598038.147973855</v>
+        <v>598038.1479738527</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>607796.0289608446</v>
+        <v>607796.028960848</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>617742.2863176309</v>
+        <v>617742.2863176344</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>627880.7136498303</v>
+        <v>627880.7136498302</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>638215.1414073241</v>
+        <v>638215.1414073162</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>648749.4338772637</v>
+        <v>648749.4338772745</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>659487.4859178733</v>
+        <v>659487.4859178712</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>670433.2194215625</v>
+        <v>670433.2194215559</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>681590.5794974237</v>
+        <v>681590.57949744</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>692963.5303624659</v>
+        <v>692963.530362464</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>704556.0509311497</v>
+        <v>704556.0509311331</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>716372.1300930857</v>
+        <v>716372.130093105</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>728415.7616694031</v>
+        <v>728415.761669392</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>740690.9390365832</v>
+        <v>740690.9390365781</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>753201.6494101001</v>
+        <v>753201.6494101125</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>765951.8677775337</v>
+        <v>765951.8677775291</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>778945.5504727659</v>
+        <v>778945.5504727573</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>792186.6283830825</v>
+        <v>792186.6283830821</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>805678.9997821068</v>
+        <v>805678.9997821114</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>819426.5227808099</v>
+        <v>819426.5227808163</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>833433.0073903853</v>
+        <v>833433.0073903827</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>698022.5968728472</v>
+        <v>698022.596872172</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>710184.2017317358</v>
+        <v>710184.2017310812</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>722574.8803554495</v>
+        <v>722574.8803548265</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>735197.6252832022</v>
+        <v>735197.6252826035</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>748055.3470530414</v>
+        <v>748055.3470524639</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>761150.8654509509</v>
+        <v>761150.8654504153</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>774486.9004223653</v>
+        <v>774486.9004218499</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>788066.0626479855</v>
+        <v>788066.0626474812</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>801890.8437875921</v>
+        <v>801890.8437871214</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>815963.606399111</v>
+        <v>815963.6063987026</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>830286.5735388945</v>
+        <v>830286.5735384905</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>844861.8180516057</v>
+        <v>844861.8180512378</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>859691.2515617146</v>
+        <v>859691.2515613757</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>874776.613178087</v>
+        <v>874776.6131777707</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>890119.4579256993</v>
+        <v>890119.4579254404</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>905721.1449222395</v>
+        <v>905721.1449220016</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>921582.8253161371</v>
+        <v>921582.8253159141</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>937705.4300076866</v>
+        <v>937705.4300075155</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>954089.6571768726</v>
+        <v>954089.6571767449</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>970735.9596406192</v>
+        <v>970735.959640515</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>987644.5320696549</v>
+        <v>987644.5320695705</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1004815.298091996</v>
+        <v>1004815.298091977</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1022247.8973185</v>
+        <v>1022247.897318515</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1039941.672321908</v>
+        <v>1039941.672321938</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1057895.655608572</v>
+        <v>1057895.655608664</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1076108.55662214</v>
+        <v>1076108.556622266</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1094578.748820347</v>
+        <v>1094578.748820512</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1113304.25687007</v>
+        <v>1113304.256870242</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1132282.744007236</v>
+        <v>1132282.744007466</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1151511.499610677</v>
+        <v>1151511.499610984</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1170987.427040354</v>
+        <v>1170987.42704067</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1190707.03179461</v>
+        <v>1190707.031794955</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1210666.4100404</v>
+        <v>1210666.41004081</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1230861.237574242</v>
+        <v>1230861.237574687</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1251286.759272729</v>
+        <v>1251286.759273217</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1271937.779092107</v>
+        <v>1271937.779092635</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1292808.650678068</v>
+        <v>1292808.65067863</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1313893.268650127</v>
+        <v>1313893.268650773</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1335185.060620841</v>
+        <v>1335185.060621475</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1356676.980014964</v>
+        <v>1356676.980015689</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1378361.49975257</v>
+        <v>1378361.499753287</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1400230.606858205</v>
+        <v>1400230.606859018</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1422275.798060979</v>
+        <v>1422275.798061803</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1444488.076444499</v>
+        <v>1444488.076445384</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1466857.949212036</v>
+        <v>1466857.949212963</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1489375.426620469</v>
+        <v>1489375.426621473</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1512030.022145601</v>
+        <v>1512030.022146586</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1534810.753927735</v>
+        <v>1534810.753928779</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1557706.147554203</v>
+        <v>1557706.147555335</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1580704.240222652</v>
+        <v>1580704.240223794</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1603792.586332336</v>
+        <v>1603792.586333514</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1626958.26454104</v>
+        <v>1626958.264542283</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1650187.886324892</v>
+        <v>1650187.886326163</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1673467.606069517</v>
+        <v>1673467.606070849</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1696783.132717821</v>
+        <v>1696783.132719157</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1769272.444420747</v>
+        <v>1769272.444421772</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1793267.179418512</v>
+        <v>1793267.179419576</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1817253.850546587</v>
+        <v>1817253.850547697</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1841216.2018734</v>
+        <v>1841216.201874557</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1865137.606600472</v>
+        <v>1865137.6066016</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1889001.088733062</v>
+        <v>1889001.088734216</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1912789.346330055</v>
+        <v>1912789.346331262</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1936484.776294522</v>
+        <v>1936484.776295679</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1960069.500665351</v>
+        <v>1960069.500666563</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1983525.394361636</v>
+        <v>1983525.3943629</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2006834.114315896</v>
+        <v>2006834.114317158</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2029977.129935368</v>
+        <v>2029977.129936676</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2052935.754809951</v>
+        <v>2052935.754811192</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2075691.179587136</v>
+        <v>2075691.179588411</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2098224.505921843</v>
+        <v>2098224.505923199</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2296232.565024664</v>
+        <v>2296232.565024242</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2320168.579659953</v>
+        <v>2320168.579659584</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2343814.226055393</v>
+        <v>2343814.226055</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2367149.537076502</v>
+        <v>2367149.537075991</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2390154.653819761</v>
+        <v>2390154.65381928</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2412809.866653376</v>
+        <v>2412809.866652761</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2435095.656518187</v>
+        <v>2435095.656517651</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2456992.736337178</v>
+        <v>2456992.736336609</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2478482.092379145</v>
+        <v>2478482.09237845</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2499545.025417438</v>
+        <v>2499545.02541677</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2873894.265713317</v>
+        <v>2873894.265708906</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2897229.067873368</v>
+        <v>2897229.067868926</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2920045.479256338</v>
+        <v>2920045.479251735</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2942325.062741722</v>
+        <v>2942325.062737104</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2964049.97809452</v>
+        <v>2964049.978089849</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2985203.023793582</v>
+        <v>2985203.023788766</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3005767.677379392</v>
+        <v>3005767.677374609</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3025728.134147499</v>
+        <v>3025728.134142621</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3045069.344015534</v>
+        <v>3045069.344010732</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3063777.0464017</v>
+        <v>3063777.046396776</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2428504.715205217</v>
+        <v>2428504.715206888</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2441227.993100518</v>
+        <v>2441227.993102083</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2453360.959155608</v>
+        <v>2453360.95915712</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2464893.322407724</v>
+        <v>2464893.322409208</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2475815.493732595</v>
+        <v>2475815.493734016</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2486118.600126637</v>
+        <v>2486118.600128018</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2495794.496636008</v>
+        <v>2495794.496637314</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2504835.775868246</v>
+        <v>2504835.775869473</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2513235.775047287</v>
+        <v>2513235.775048428</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2520988.580568185</v>
+        <v>2520988.580569278</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1850693.721506533</v>
+        <v>1850693.721512589</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1853368.080973229</v>
+        <v>1853368.080978985</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1855454.92157154</v>
+        <v>1855454.921576866</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1856949.383159738</v>
+        <v>1856949.383164652</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1857847.084369344</v>
+        <v>1857847.084373881</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1858144.112517345</v>
+        <v>1858144.112521309</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1857837.011934794</v>
+        <v>1857837.011938228</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1856922.770813616</v>
+        <v>1856922.77081648</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1855398.806712239</v>
+        <v>1855398.806714438</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1853262.950856816</v>
+        <v>1853262.95085841</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2164562.568182128</v>
+        <v>2164562.568182535</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2162591.140110541</v>
+        <v>2162591.140110381</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2159985.106147991</v>
+        <v>2159985.106147218</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2156745.731782159</v>
+        <v>2156745.731780807</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2152874.704615287</v>
+        <v>2152874.70461344</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2148374.112057933</v>
+        <v>2148374.112055378</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2143246.418962103</v>
+        <v>2143246.418958871</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2137494.445476789</v>
+        <v>2137494.445472895</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2131121.345429514</v>
+        <v>2131121.345424798</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2124130.585547348</v>
+        <v>2124130.585541775</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2116525.925855763</v>
+        <v>2116525.925849405</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2108311.401590969</v>
+        <v>2108311.401583747</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2099491.306990149</v>
+        <v>2099491.306981984</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2090070.181311179</v>
+        <v>2090070.181302005</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2080052.797456045</v>
+        <v>2080052.797445928</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2069444.153562706</v>
+        <v>2069444.153551535</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2058249.467925919</v>
+        <v>2058249.467913591</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2046474.177607337</v>
+        <v>2046474.177594025</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2034123.941073622</v>
+        <v>2034123.941059061</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2021204.645184336</v>
+        <v>2021204.645168481</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2007722.416830631</v>
+        <v>2007722.41681365</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1993683.639483562</v>
+        <v>1993683.639465393</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1979094.974883872</v>
+        <v>1979094.974864381</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1963963.390042332</v>
+        <v>1963963.390021403</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1948296.189683261</v>
+        <v>1948296.189661162</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1932101.054180975</v>
+        <v>1932101.05415739</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1915386.082988046</v>
+        <v>1915386.082963104</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1898159.843455587</v>
+        <v>1898159.843429349</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1880431.424877709</v>
+        <v>1880431.42485011</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1862210.497486333</v>
+        <v>1862210.497457352</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1843507.376025978</v>
+        <v>1843507.375995601</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1824333.087438253</v>
+        <v>1824333.087406619</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1804699.442069152</v>
+        <v>1804699.442036125</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1784619.10770379</v>
+        <v>1784619.107669606</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1764105.685617917</v>
+        <v>1764105.685582341</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1743173.787722857</v>
+        <v>1743173.787686192</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1721839.113774809</v>
+        <v>1721839.11373708</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1700118.527496142</v>
+        <v>1700118.527457272</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1678030.130383869</v>
+        <v>1678030.130343993</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1655593.331866892</v>
+        <v>1655593.331826286</v>
       </c>
     </row>
   </sheetData>
